--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94674C8-2864-4927-9C2A-61395D9DA8D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9A0852-CAC8-4339-816A-3A3DC7FBB1DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29550" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20200408" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="买卖条件" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20200408'!$A$1:$K$70</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="230">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -700,6 +702,178 @@
   </si>
   <si>
     <t>abc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入条件
+1.1分钟出现abc后，5分钟出现一个底分型
+	a.分时有一个macd背驰
+	b.第一次突破macd，碰到分时均线
+	c.回调就是2买，等再一次碰到分时均线时进场，突破分时均线要有大买单进场
+2.1分钟只有一个a，5分钟出现3根K线站上10均线。
+	a.分时有一个macd背驰
+	b.第一次突破macd，碰到分时均线
+	c.回调就是2买，等再一次碰到分时均线时进场，突破分时均线要有大买单进场</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>被动卖出条件：
+1.开盘在1分钟250下方,
+2.三根绿色在250下
+3.三根绿色在10均线下 
+出现这3个条件，一定要卖出
+主动卖出条件：
+1.开盘在1分钟250上方
+ 1.1 5分钟3根绿色K线在10均线下（5分钟形成下跌走势）
+  1.1.1 等一个1分钟级别的反弹，无需有结构，在跌破5均线时出场（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如何确认1分钟反弹成立？ 1分钟红色K线有4根以上站上10均线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+ 1.2 5分钟的上涨还未出现结构
+  1.2.1  等1分钟级别的反弹，有结构，在跌破5均线时出场
+  1.2.2  等1分钟级别的反弹，没有结构，必须在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跌破1分钟的底分型高点处出场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天两板</t>
+  </si>
+  <si>
+    <t>3天两板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入股票</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣志电器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪贝电气</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠发食品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中远海科</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙钢股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海洗霸</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>深科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未名医药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西陇科学</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>维力医疗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫信康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>至正股份</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +881,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,8 +1045,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,6 +1252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1300,7 +1503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,6 +1524,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1705,7 +1926,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3447,6 +3668,415 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF0E21-9069-4DC7-A099-28C889384AD1}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
+        <v>43920</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>43921</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>43922</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43923</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4">
+        <v>13.4</v>
+      </c>
+      <c r="F4">
+        <v>14.12</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>43923</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="11">
+        <v>43924</v>
+      </c>
+      <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F5">
+        <v>19.79</v>
+      </c>
+      <c r="G5" s="12">
+        <f>(F5-E5)/E5</f>
+        <v>0.10558659217877099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <v>43923</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="11">
+        <v>43924</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14.73</v>
+      </c>
+      <c r="G6" s="12">
+        <f>(F6-E6)/E6</f>
+        <v>-6.4761904761904729E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>43924</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43928</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7">
+        <v>15.1</v>
+      </c>
+      <c r="F7">
+        <v>16.03</v>
+      </c>
+      <c r="G7" s="12">
+        <f>(F7-E7)/E7</f>
+        <v>6.1589403973510037E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>43928</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43930</v>
+      </c>
+      <c r="D8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8">
+        <v>11.7</v>
+      </c>
+      <c r="F8">
+        <v>12.7</v>
+      </c>
+      <c r="G8" s="12">
+        <f>(F8-E8)/E8</f>
+        <v>8.5470085470085472E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>43928</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43929</v>
+      </c>
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9">
+        <v>62.85</v>
+      </c>
+      <c r="F9">
+        <v>68.89</v>
+      </c>
+      <c r="G9" s="12">
+        <f>(F9-E9)/E9</f>
+        <v>9.6101829753381052E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <v>43929</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="11">
+        <v>43930</v>
+      </c>
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10">
+        <v>20.5</v>
+      </c>
+      <c r="F10">
+        <v>20.14</v>
+      </c>
+      <c r="G10" s="12">
+        <f>(F10-E10)/E10</f>
+        <v>-1.7560975609756072E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>43929</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="11">
+        <v>43930</v>
+      </c>
+      <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11">
+        <v>14.7</v>
+      </c>
+      <c r="F11">
+        <v>15.3</v>
+      </c>
+      <c r="G11" s="12">
+        <f>(F11-E11)/E11</f>
+        <v>4.0816326530612346E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>43929</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="11">
+        <v>43930</v>
+      </c>
+      <c r="D12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12">
+        <v>7.9</v>
+      </c>
+      <c r="F12">
+        <v>8.48</v>
+      </c>
+      <c r="G12" s="12">
+        <f>(F12-E12)/E12</f>
+        <v>7.3417721518987344E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>43929</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="11">
+        <v>43930</v>
+      </c>
+      <c r="D13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13">
+        <v>20.6</v>
+      </c>
+      <c r="F13">
+        <v>20.6</v>
+      </c>
+      <c r="G13" s="12">
+        <f>(F13-E13)/E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>43929</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="11">
+        <v>43931</v>
+      </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14">
+        <v>12.19</v>
+      </c>
+      <c r="F14">
+        <v>13.15</v>
+      </c>
+      <c r="G14" s="12">
+        <f>(F14-E14)/E14</f>
+        <v>7.8753076292042729E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>43930</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="11">
+        <v>43931</v>
+      </c>
+      <c r="D15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15">
+        <v>3.87</v>
+      </c>
+      <c r="F15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G15" s="12">
+        <f>(F15-E15)/E15</f>
+        <v>5.9431524547803496E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>43930</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="11">
+        <v>43931</v>
+      </c>
+      <c r="D16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16">
+        <v>24.72</v>
+      </c>
+      <c r="F16">
+        <v>25.51</v>
+      </c>
+      <c r="G16" s="12">
+        <f>(F16-E16)/E16</f>
+        <v>3.195792880258911E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2"/>
+      <c r="G17" s="12">
+        <f>SUM(G2:G16)</f>
+        <v>0.60380160869612176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3478,4 +4108,44 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A088F90-E14B-4690-A5A5-C60878B9CE7C}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="67.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9A0852-CAC8-4339-816A-3A3DC7FBB1DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED6616-274B-4292-AFBB-E207943C6C10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29550" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29550" windowHeight="8730" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20200408" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="股票池" sheetId="1" r:id="rId1"/>
+    <sheet name="回测" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="买卖条件" sheetId="3" r:id="rId4"/>
+    <sheet name="选股条件" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20200408'!$A$1:$K$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$K$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="254">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -354,10 +355,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>走完</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SH600079</t>
   </si>
   <si>
@@ -528,10 +525,6 @@
   </si>
   <si>
     <t>五分钟扩展中枢</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主力出货</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -876,6 +869,113 @@
     <t>至正股份</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>选股条件：</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹码突破四要素：
+1、当天的股价收出一根阳线；（突破箱体震荡的平台），阳线的幅度为7%以上（机构才能拉出7%以上阳线的能力）；
+2、当天的收盘价突破最长一根筹码，要求收盘股价大于最长筹码的价格；
+3、获利比例：表明机构最长筹码的获利程度，获利的比率要求在90-100之间，获利的比率越大越好。
+4、集中度：要求在10以下。如果2个集中度都在10以下最好，至少保证一个在10以下。
+5、筹码二次突破，获利比例90-100%,集中度90%/70% ，至少一个小于20，集中度越小越好，越小表示筹码越集中。（2个都小于20最佳）。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">卖出预备条件:
+1.按照筹码，主力在拉升阶段，或者对敲阶段不卖出，只有在主力洗盘，加仓或者出货的时候卖出
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖股选股条件：
+3天2板 非创业板 非新股 非ST
+预备妖股选股条件：
+非新股 非创业板 近2日有1次涨停 非ST 近5日只有1次涨停
+1.当日涨停，突破平台
+2.是否满足筹码突破四要素
+2.第二天观察是否高开，成交量是否放量，如果不是高开，直接删自选，观察当天是否红盘，筹码是否松动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ000757</t>
+  </si>
+  <si>
+    <t>浩物股份</t>
+  </si>
+  <si>
+    <t>SZ002553</t>
+  </si>
+  <si>
+    <t>南方轴承</t>
+  </si>
+  <si>
+    <t>SH600303</t>
+  </si>
+  <si>
+    <t>曙光股份</t>
+  </si>
+  <si>
+    <t>SZ002864</t>
+  </si>
+  <si>
+    <t>盘龙药业</t>
+  </si>
+  <si>
+    <t>SH603332</t>
+  </si>
+  <si>
+    <t>苏州龙杰</t>
+  </si>
+  <si>
+    <t>筹码突破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主力拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主力洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未跌破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0410 13：50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -884,7 +984,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,8 +1165,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1258,6 +1367,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1503,7 +1630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,6 +1668,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1923,10 +2062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1951,13 +2090,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1966,13 +2105,13 @@
         <v>100</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
         <v>147</v>
-      </c>
-      <c r="K1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -1989,24 +2128,27 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>245</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -2015,19 +2157,22 @@
         <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2044,7 +2189,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2067,7 +2212,7 @@
         <v>103</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2075,7 +2220,7 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -2084,7 +2229,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2110,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2126,22 +2271,25 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I8" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
         <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -2150,19 +2298,19 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2178,22 +2326,25 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -2202,16 +2353,19 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2228,16 +2382,19 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2254,16 +2411,19 @@
         <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2308,19 +2468,19 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2360,16 +2520,19 @@
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2403,19 +2566,22 @@
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2432,16 +2598,19 @@
         <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2449,22 +2618,25 @@
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2481,16 +2653,19 @@
         <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2507,16 +2682,19 @@
         <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2556,24 +2734,27 @@
         <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -2582,28 +2763,30 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I27" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -2612,27 +2795,30 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -2641,16 +2827,19 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2667,27 +2856,30 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -2696,24 +2888,27 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -2722,27 +2917,30 @@
         <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -2751,16 +2949,19 @@
         <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2779,10 +2980,10 @@
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
@@ -2791,27 +2992,30 @@
         <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
@@ -2820,16 +3024,19 @@
         <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2846,24 +3053,27 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>6</v>
@@ -2872,16 +3082,19 @@
         <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2926,27 +3139,30 @@
         <v>34</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
@@ -2954,55 +3170,48 @@
       <c r="D42" t="s">
         <v>34</v>
       </c>
-      <c r="E42" t="s">
-        <v>133</v>
+      <c r="E42" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I42" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
@@ -3010,128 +3219,128 @@
       <c r="D44" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" t="s">
         <v>7</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>171</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K45" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J46" t="s">
-        <v>149</v>
-      </c>
-      <c r="K46" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
         <v>32</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J49" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>6</v>
@@ -3139,13 +3348,16 @@
       <c r="D50" t="s">
         <v>32</v>
       </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>6</v>
@@ -3154,32 +3366,44 @@
         <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>6</v>
@@ -3188,24 +3412,24 @@
         <v>34</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J53" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>6</v>
@@ -3214,21 +3438,30 @@
         <v>34</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="F54" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J54" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="K54" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
@@ -3236,28 +3469,28 @@
       <c r="D55" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F55" t="s">
-        <v>138</v>
+      <c r="E55" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J55" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="K55" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
@@ -3265,125 +3498,129 @@
       <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E56" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>149</v>
+      <c r="E56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" t="s">
+        <v>148</v>
       </c>
       <c r="K56" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" t="s">
-        <v>149</v>
-      </c>
-      <c r="K57" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J58" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>152</v>
+      </c>
+      <c r="J58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K58" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J59" t="s">
-        <v>149</v>
-      </c>
-      <c r="K59" t="s">
-        <v>164</v>
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="D60" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
@@ -3392,19 +3629,21 @@
         <v>7</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I61" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>185</v>
       </c>
@@ -3418,19 +3657,21 @@
         <v>7</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I62" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>187</v>
       </c>
@@ -3444,19 +3685,21 @@
         <v>7</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I63" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>189</v>
       </c>
@@ -3470,19 +3713,21 @@
         <v>7</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I64" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>191</v>
       </c>
@@ -3496,24 +3741,26 @@
         <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I65" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>6</v>
@@ -3522,24 +3769,26 @@
         <v>7</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I66" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
@@ -3550,22 +3799,26 @@
       <c r="E67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I67" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
@@ -3574,90 +3827,186 @@
         <v>7</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="I68" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>246</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+      <c r="E69" t="s">
+        <v>249</v>
+      </c>
+      <c r="H69" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>184</v>
+        <v>249</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" t="s">
+        <v>248</v>
+      </c>
+      <c r="F75" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" t="s">
+        <v>247</v>
+      </c>
+      <c r="H75" t="s">
+        <v>244</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J75" t="s">
+        <v>252</v>
+      </c>
+      <c r="K75" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K70" xr:uid="{250C976A-933C-4059-8C7C-A69C5ABBD788}">
+  <autoFilter ref="A1:K75" xr:uid="{250C976A-933C-4059-8C7C-A69C5ABBD788}">
     <filterColumn colId="3">
-      <filters>
+      <filters blank="1">
         <filter val="不满足"/>
       </filters>
     </filterColumn>
     <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="8">
       <filters>
-        <filter val="有"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="未出现"/>
+        <filter val="筹码突破"/>
+        <filter val="主力拉升"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3672,36 +4021,37 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9" style="2"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="s">
         <v>213</v>
       </c>
-      <c r="D1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="F1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3709,19 +4059,19 @@
         <v>43920</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G2" s="12">
         <v>0</v>
@@ -3732,19 +4082,19 @@
         <v>43921</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G3" s="12">
         <v>0</v>
@@ -3755,13 +4105,13 @@
         <v>43922</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" s="11">
         <v>43923</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E4">
         <v>13.4</v>
@@ -3778,13 +4128,13 @@
         <v>43923</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" s="11">
         <v>43924</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5">
         <v>17.899999999999999</v>
@@ -3793,7 +4143,7 @@
         <v>19.79</v>
       </c>
       <c r="G5" s="12">
-        <f>(F5-E5)/E5</f>
+        <f t="shared" ref="G5:G16" si="0">(F5-E5)/E5</f>
         <v>0.10558659217877099</v>
       </c>
     </row>
@@ -3802,13 +4152,13 @@
         <v>43923</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="11">
         <v>43924</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E6" s="2">
         <v>15.75</v>
@@ -3817,7 +4167,7 @@
         <v>14.73</v>
       </c>
       <c r="G6" s="12">
-        <f>(F6-E6)/E6</f>
+        <f t="shared" si="0"/>
         <v>-6.4761904761904729E-2</v>
       </c>
     </row>
@@ -3826,13 +4176,13 @@
         <v>43924</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C7" s="11">
         <v>43928</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E7">
         <v>15.1</v>
@@ -3841,7 +4191,7 @@
         <v>16.03</v>
       </c>
       <c r="G7" s="12">
-        <f>(F7-E7)/E7</f>
+        <f t="shared" si="0"/>
         <v>6.1589403973510037E-2</v>
       </c>
     </row>
@@ -3850,13 +4200,13 @@
         <v>43928</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="11">
         <v>43930</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E8">
         <v>11.7</v>
@@ -3865,7 +4215,7 @@
         <v>12.7</v>
       </c>
       <c r="G8" s="12">
-        <f>(F8-E8)/E8</f>
+        <f t="shared" si="0"/>
         <v>8.5470085470085472E-2</v>
       </c>
     </row>
@@ -3874,13 +4224,13 @@
         <v>43928</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" s="11">
         <v>43929</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E9">
         <v>62.85</v>
@@ -3889,7 +4239,7 @@
         <v>68.89</v>
       </c>
       <c r="G9" s="12">
-        <f>(F9-E9)/E9</f>
+        <f t="shared" si="0"/>
         <v>9.6101829753381052E-2</v>
       </c>
     </row>
@@ -3898,13 +4248,13 @@
         <v>43929</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="11">
         <v>43930</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E10">
         <v>20.5</v>
@@ -3913,7 +4263,7 @@
         <v>20.14</v>
       </c>
       <c r="G10" s="12">
-        <f>(F10-E10)/E10</f>
+        <f t="shared" si="0"/>
         <v>-1.7560975609756072E-2</v>
       </c>
     </row>
@@ -3922,13 +4272,13 @@
         <v>43929</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" s="11">
         <v>43930</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E11">
         <v>14.7</v>
@@ -3937,7 +4287,7 @@
         <v>15.3</v>
       </c>
       <c r="G11" s="12">
-        <f>(F11-E11)/E11</f>
+        <f t="shared" si="0"/>
         <v>4.0816326530612346E-2</v>
       </c>
     </row>
@@ -3946,13 +4296,13 @@
         <v>43929</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" s="11">
         <v>43930</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E12">
         <v>7.9</v>
@@ -3961,7 +4311,7 @@
         <v>8.48</v>
       </c>
       <c r="G12" s="12">
-        <f>(F12-E12)/E12</f>
+        <f t="shared" si="0"/>
         <v>7.3417721518987344E-2</v>
       </c>
     </row>
@@ -3970,13 +4320,13 @@
         <v>43929</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="11">
         <v>43930</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E13">
         <v>20.6</v>
@@ -3985,7 +4335,7 @@
         <v>20.6</v>
       </c>
       <c r="G13" s="12">
-        <f>(F13-E13)/E13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3994,13 +4344,13 @@
         <v>43929</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="11">
         <v>43931</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E14">
         <v>12.19</v>
@@ -4009,7 +4359,7 @@
         <v>13.15</v>
       </c>
       <c r="G14" s="12">
-        <f>(F14-E14)/E14</f>
+        <f t="shared" si="0"/>
         <v>7.8753076292042729E-2</v>
       </c>
     </row>
@@ -4018,13 +4368,13 @@
         <v>43930</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" s="11">
         <v>43931</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E15">
         <v>3.87</v>
@@ -4033,7 +4383,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G15" s="12">
-        <f>(F15-E15)/E15</f>
+        <f t="shared" si="0"/>
         <v>5.9431524547803496E-2</v>
       </c>
     </row>
@@ -4042,13 +4392,13 @@
         <v>43930</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" s="11">
         <v>43931</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E16">
         <v>24.72</v>
@@ -4057,7 +4407,7 @@
         <v>25.51</v>
       </c>
       <c r="G16" s="12">
-        <f>(F16-E16)/E16</f>
+        <f t="shared" si="0"/>
         <v>3.195792880258911E-2</v>
       </c>
     </row>
@@ -4088,20 +4438,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4112,10 +4462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A088F90-E14B-4690-A5A5-C60878B9CE7C}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4123,24 +4473,69 @@
     <col min="1" max="1" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAC452C-A0A6-43D6-A177-ECA4278BB5BA}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="71.75" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="135" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>206</v>
+      <c r="A1" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED6616-274B-4292-AFBB-E207943C6C10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478CF4AD-4525-4DC2-9D7A-6A66360BF6CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29550" windowHeight="8730" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29550" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
     <sheet name="回测" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="买卖条件" sheetId="3" r:id="rId4"/>
-    <sheet name="选股条件" sheetId="5" r:id="rId5"/>
+    <sheet name="买卖条件" sheetId="3" r:id="rId3"/>
+    <sheet name="选股条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$K$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="263">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -609,22 +608,6 @@
   </si>
   <si>
     <t>有</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>800*75=60000</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>250*25=6250</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>总利润=60000-6250=53750</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5倍</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -974,6 +957,52 @@
   </si>
   <si>
     <t>0410 13：50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002931</t>
+  </si>
+  <si>
+    <t>锋龙股份</t>
+  </si>
+  <si>
+    <t>SZ002581</t>
+  </si>
+  <si>
+    <t>未名医药</t>
+  </si>
+  <si>
+    <t>SH603867</t>
+  </si>
+  <si>
+    <t>新化股份</t>
+  </si>
+  <si>
+    <t>选出时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2062,10 +2091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:K75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M76" sqref="A76:M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2077,9 +2106,10 @@
     <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="9" max="9" width="9" style="3"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2113,8 +2143,14 @@
       <c r="K1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2131,7 +2167,7 @@
         <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>155</v>
@@ -2143,7 +2179,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2163,7 +2199,7 @@
         <v>136</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>152</v>
@@ -2175,7 +2211,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2188,11 +2224,14 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
+      <c r="H4" t="s">
+        <v>259</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2211,11 +2250,14 @@
       <c r="F5" t="s">
         <v>103</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2228,11 +2270,14 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2254,11 +2299,14 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2272,7 +2320,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>155</v>
@@ -2284,7 +2332,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2313,7 +2361,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -2327,7 +2375,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>152</v>
@@ -2339,7 +2387,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -2359,7 +2407,7 @@
         <v>139</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>152</v>
@@ -2368,7 +2416,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2385,7 +2433,7 @@
         <v>171</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>152</v>
@@ -2397,7 +2445,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2414,7 +2462,7 @@
         <v>135</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>152</v>
@@ -2426,7 +2474,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2439,8 +2487,11 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -2453,8 +2504,11 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -2505,6 +2559,9 @@
       <c r="G17" t="s">
         <v>6</v>
       </c>
+      <c r="H17" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -2523,7 +2580,7 @@
         <v>135</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>155</v>
@@ -2551,6 +2608,9 @@
       <c r="E19" t="s">
         <v>7</v>
       </c>
+      <c r="H19" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -2572,7 +2632,7 @@
         <v>137</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>155</v>
@@ -2601,7 +2661,7 @@
         <v>135</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>155</v>
@@ -2633,7 +2693,7 @@
         <v>139</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>155</v>
@@ -2656,7 +2716,7 @@
         <v>135</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>155</v>
@@ -2685,7 +2745,7 @@
         <v>135</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>152</v>
@@ -2719,6 +2779,9 @@
       <c r="G25" t="s">
         <v>6</v>
       </c>
+      <c r="H25" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -2737,7 +2800,7 @@
         <v>135</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>155</v>
@@ -2769,7 +2832,7 @@
         <v>136</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>152</v>
@@ -2801,7 +2864,7 @@
         <v>138</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>155</v>
@@ -2830,7 +2893,7 @@
         <v>133</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>152</v>
@@ -2862,7 +2925,7 @@
         <v>136</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>152</v>
@@ -2894,7 +2957,7 @@
         <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>152</v>
@@ -2923,7 +2986,7 @@
         <v>139</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>155</v>
@@ -2952,7 +3015,7 @@
         <v>133</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>155</v>
@@ -2977,6 +3040,9 @@
       <c r="D34" t="s">
         <v>32</v>
       </c>
+      <c r="H34" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
@@ -2998,7 +3064,7 @@
         <v>136</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>152</v>
@@ -3030,7 +3096,7 @@
         <v>137</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>152</v>
@@ -3056,7 +3122,7 @@
         <v>135</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>155</v>
@@ -3085,7 +3151,7 @@
         <v>133</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>152</v>
@@ -3110,6 +3176,9 @@
       <c r="D39" t="s">
         <v>32</v>
       </c>
+      <c r="H39" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -3124,6 +3193,9 @@
       <c r="D40" t="s">
         <v>32</v>
       </c>
+      <c r="H40" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
@@ -3145,7 +3217,7 @@
         <v>138</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>152</v>
@@ -3177,7 +3249,7 @@
         <v>136</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>152</v>
@@ -3205,6 +3277,9 @@
       <c r="F43" t="s">
         <v>7</v>
       </c>
+      <c r="H43" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -3222,6 +3297,9 @@
       <c r="E44" t="s">
         <v>7</v>
       </c>
+      <c r="H44" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="I44" s="3" t="s">
         <v>152</v>
       </c>
@@ -3249,7 +3327,7 @@
         <v>171</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>152</v>
@@ -3277,6 +3355,9 @@
       <c r="E46" t="s">
         <v>7</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
@@ -3294,6 +3375,9 @@
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H47" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -3312,7 +3396,7 @@
         <v>133</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>152</v>
@@ -3334,6 +3418,9 @@
       <c r="D49" t="s">
         <v>32</v>
       </c>
+      <c r="H49" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -3351,6 +3438,9 @@
       <c r="E50" t="s">
         <v>34</v>
       </c>
+      <c r="H50" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
@@ -3368,6 +3458,9 @@
       <c r="E51" t="s">
         <v>7</v>
       </c>
+      <c r="H51" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
@@ -3389,7 +3482,7 @@
         <v>136</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>152</v>
@@ -3415,7 +3508,7 @@
         <v>132</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>152</v>
@@ -3444,7 +3537,7 @@
         <v>137</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>152</v>
@@ -3473,7 +3566,7 @@
         <v>132</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>152</v>
@@ -3555,7 +3648,7 @@
         <v>135</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>152</v>
@@ -3586,13 +3679,16 @@
       <c r="F59" t="s">
         <v>7</v>
       </c>
+      <c r="H59" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>6</v>
@@ -3606,21 +3702,21 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
@@ -3634,21 +3730,21 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>6</v>
@@ -3662,21 +3758,21 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>6</v>
@@ -3690,21 +3786,21 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>6</v>
@@ -3718,21 +3814,21 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>6</v>
@@ -3746,21 +3842,21 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>6</v>
@@ -3774,21 +3870,21 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
@@ -3800,25 +3896,25 @@
         <v>132</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
@@ -3832,16 +3928,16 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>44</v>
       </c>
@@ -3849,165 +3945,349 @@
         <v>45</v>
       </c>
       <c r="C69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" t="s">
+        <v>244</v>
+      </c>
+      <c r="F75" t="s">
         <v>246</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="G75" t="s">
+        <v>243</v>
+      </c>
+      <c r="H75" t="s">
+        <v>240</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J75" t="s">
+        <v>248</v>
+      </c>
+      <c r="K75" t="s">
         <v>249</v>
       </c>
-      <c r="E69" t="s">
-        <v>249</v>
-      </c>
-      <c r="H69" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E75" t="s">
-        <v>248</v>
-      </c>
-      <c r="F75" t="s">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G75" t="s">
-        <v>247</v>
-      </c>
-      <c r="H75" t="s">
-        <v>244</v>
-      </c>
-      <c r="I75" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J75" t="s">
+      <c r="C76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H76" t="s">
+        <v>260</v>
+      </c>
+      <c r="L76">
+        <v>20200413</v>
+      </c>
+      <c r="M76" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L77" s="2">
+        <v>20200413</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L78" s="2">
+        <v>20200413</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="K75" t="s">
+      <c r="B79" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="C79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L79" s="2">
+        <v>20200413</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L80" s="2">
+        <v>20200413</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L81" s="2">
+        <v>20200413</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L82" s="2">
+        <v>20200413</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L83" s="2">
+        <v>20200413</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L84" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K75" xr:uid="{250C976A-933C-4059-8C7C-A69C5ABBD788}">
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="不满足"/>
-      </filters>
+  <autoFilter ref="A1:M83" xr:uid="{46A53DD7-C1C3-4D6F-BD0B-D3395D883D8C}">
+    <filterColumn colId="7">
+      <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="筹码突破"/>
-        <filter val="主力拉升"/>
-      </filters>
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -4018,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF0E21-9069-4DC7-A099-28C889384AD1}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4033,25 +4313,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" t="s">
         <v>210</v>
       </c>
-      <c r="B1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="D1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4059,7 +4339,7 @@
         <v>43920</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
@@ -4082,7 +4362,7 @@
         <v>43921</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>155</v>
@@ -4105,13 +4385,13 @@
         <v>43922</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" s="11">
         <v>43923</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E4">
         <v>13.4</v>
@@ -4128,13 +4408,13 @@
         <v>43923</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C5" s="11">
         <v>43924</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>17.899999999999999</v>
@@ -4143,7 +4423,7 @@
         <v>19.79</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:G16" si="0">(F5-E5)/E5</f>
+        <f t="shared" ref="G5:G22" si="0">(F5-E5)/E5</f>
         <v>0.10558659217877099</v>
       </c>
     </row>
@@ -4152,13 +4432,13 @@
         <v>43923</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C6" s="11">
         <v>43924</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E6" s="2">
         <v>15.75</v>
@@ -4176,13 +4456,13 @@
         <v>43924</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C7" s="11">
         <v>43928</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E7">
         <v>15.1</v>
@@ -4200,13 +4480,13 @@
         <v>43928</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C8" s="11">
         <v>43930</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E8">
         <v>11.7</v>
@@ -4224,13 +4504,13 @@
         <v>43928</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C9" s="11">
         <v>43929</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E9">
         <v>62.85</v>
@@ -4248,13 +4528,13 @@
         <v>43929</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C10" s="11">
         <v>43930</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E10">
         <v>20.5</v>
@@ -4272,13 +4552,13 @@
         <v>43929</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C11" s="11">
         <v>43930</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E11">
         <v>14.7</v>
@@ -4296,13 +4576,13 @@
         <v>43929</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C12" s="11">
         <v>43930</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E12">
         <v>7.9</v>
@@ -4320,13 +4600,13 @@
         <v>43929</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C13" s="11">
         <v>43930</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E13">
         <v>20.6</v>
@@ -4344,13 +4624,13 @@
         <v>43929</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C14" s="11">
         <v>43931</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E14">
         <v>12.19</v>
@@ -4368,13 +4648,13 @@
         <v>43930</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C15" s="11">
         <v>43931</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E15">
         <v>3.87</v>
@@ -4392,13 +4672,13 @@
         <v>43930</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C16" s="11">
         <v>43931</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E16">
         <v>24.72</v>
@@ -4414,9 +4694,75 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="2"/>
+      <c r="E17">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F17">
+        <v>12.9</v>
+      </c>
       <c r="G17" s="12">
-        <f>SUM(G2:G16)</f>
-        <v>0.60380160869612176</v>
+        <f t="shared" si="0"/>
+        <v>0.28358208955223874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>11.9</v>
+      </c>
+      <c r="F18">
+        <v>12.8</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>7.5630252100840359E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>26.65</v>
+      </c>
+      <c r="F19">
+        <v>30.9</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>0.15947467166979362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>16.75</v>
+      </c>
+      <c r="F20">
+        <v>22.08</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.31820895522388049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>6.4</v>
+      </c>
+      <c r="F21">
+        <v>7.8</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="0"/>
+        <v>0.21874999999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>9.07</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>0.21278941565600878</v>
       </c>
     </row>
   </sheetData>
@@ -4427,40 +4773,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A088F90-E14B-4690-A5A5-C60878B9CE7C}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -4475,27 +4787,27 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4505,12 +4817,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAC452C-A0A6-43D6-A177-ECA4278BB5BA}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4520,22 +4832,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478CF4AD-4525-4DC2-9D7A-6A66360BF6CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE46E64-BDE5-439F-839B-4E621E21B8FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29550" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="选股条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="287">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -876,134 +876,213 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>SZ000757</t>
+  </si>
+  <si>
+    <t>浩物股份</t>
+  </si>
+  <si>
+    <t>SZ002553</t>
+  </si>
+  <si>
+    <t>南方轴承</t>
+  </si>
+  <si>
+    <t>SH600303</t>
+  </si>
+  <si>
+    <t>曙光股份</t>
+  </si>
+  <si>
+    <t>SZ002864</t>
+  </si>
+  <si>
+    <t>盘龙药业</t>
+  </si>
+  <si>
+    <t>SH603332</t>
+  </si>
+  <si>
+    <t>苏州龙杰</t>
+  </si>
+  <si>
+    <t>筹码突破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主力拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主力洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未跌破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0410 13：50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002931</t>
+  </si>
+  <si>
+    <t>锋龙股份</t>
+  </si>
+  <si>
+    <t>SZ002581</t>
+  </si>
+  <si>
+    <t>未名医药</t>
+  </si>
+  <si>
+    <t>SH603867</t>
+  </si>
+  <si>
+    <t>新化股份</t>
+  </si>
+  <si>
+    <t>选出时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>妖股选股条件：
 3天2板 非创业板 非新股 非ST
 预备妖股选股条件：
 非新股 非创业板 近2日有1次涨停 非ST 近5日只有1次涨停
+4月9涨幅超过7% 4月10日高开高走
 1.当日涨停，突破平台
 2.是否满足筹码突破四要素
 2.第二天观察是否高开，成交量是否放量，如果不是高开，直接删自选，观察当天是否红盘，筹码是否松动</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SZ000757</t>
-  </si>
-  <si>
-    <t>浩物股份</t>
-  </si>
-  <si>
-    <t>SZ002553</t>
-  </si>
-  <si>
-    <t>南方轴承</t>
-  </si>
-  <si>
-    <t>SH600303</t>
-  </si>
-  <si>
-    <t>曙光股份</t>
-  </si>
-  <si>
-    <t>SZ002864</t>
-  </si>
-  <si>
-    <t>盘龙药业</t>
-  </si>
-  <si>
-    <t>SH603332</t>
-  </si>
-  <si>
-    <t>苏州龙杰</t>
-  </si>
-  <si>
-    <t>筹码突破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主力拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主力洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>不满足</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>跌破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未跌破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0410 13：50</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002931</t>
-  </si>
-  <si>
-    <t>锋龙股份</t>
-  </si>
-  <si>
-    <t>SZ002581</t>
-  </si>
-  <si>
-    <t>未名医药</t>
-  </si>
-  <si>
-    <t>SH603867</t>
-  </si>
-  <si>
-    <t>新化股份</t>
-  </si>
-  <si>
-    <t>选出时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出货</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>金杯汽车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600609</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股做T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股做T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002329</t>
+  </si>
+  <si>
+    <t>皇氏集团</t>
+  </si>
+  <si>
+    <t>SH603982</t>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+  </si>
+  <si>
+    <t>SH603109</t>
+  </si>
+  <si>
+    <t>神驰机电</t>
   </si>
   <si>
     <t>突破</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>SZ002262</t>
+  </si>
+  <si>
+    <t>恩华药业</t>
+  </si>
+  <si>
+    <t>SH600268</t>
+  </si>
+  <si>
+    <t>国电南自</t>
+  </si>
+  <si>
+    <t>SH600527</t>
+  </si>
+  <si>
+    <t>江南高纤</t>
+  </si>
+  <si>
+    <t>SH603059</t>
+  </si>
+  <si>
+    <t>倍加洁</t>
+  </si>
+  <si>
+    <t>SH603127</t>
+  </si>
+  <si>
+    <t>昭衍新药</t>
+  </si>
+  <si>
+    <t>SH603316</t>
+  </si>
+  <si>
+    <t>诚邦股份</t>
   </si>
 </sst>
 </file>
@@ -2091,10 +2170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M76" sqref="A76:M83"/>
+      <selection activeCell="M85" sqref="M85:M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2144,10 +2223,10 @@
         <v>147</v>
       </c>
       <c r="L1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
@@ -2167,7 +2246,7 @@
         <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>155</v>
@@ -2199,7 +2278,7 @@
         <v>136</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>152</v>
@@ -2225,7 +2304,7 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>170</v>
@@ -2251,7 +2330,7 @@
         <v>103</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>170</v>
@@ -2271,7 +2350,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>170</v>
@@ -2300,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>170</v>
@@ -2320,7 +2399,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>155</v>
@@ -2375,7 +2454,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>152</v>
@@ -2407,7 +2486,7 @@
         <v>139</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>152</v>
@@ -2433,7 +2512,7 @@
         <v>171</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>152</v>
@@ -2462,7 +2541,7 @@
         <v>135</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>152</v>
@@ -2488,7 +2567,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
@@ -2505,7 +2584,7 @@
         <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
@@ -2560,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2580,7 +2659,7 @@
         <v>135</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>155</v>
@@ -2609,7 +2688,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2632,7 +2711,7 @@
         <v>137</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>155</v>
@@ -2661,7 +2740,7 @@
         <v>135</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>155</v>
@@ -2693,7 +2772,7 @@
         <v>139</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>155</v>
@@ -2716,7 +2795,7 @@
         <v>135</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>155</v>
@@ -2745,7 +2824,7 @@
         <v>135</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>152</v>
@@ -2780,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2800,7 +2879,7 @@
         <v>135</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>155</v>
@@ -2832,7 +2911,7 @@
         <v>136</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>152</v>
@@ -2864,7 +2943,7 @@
         <v>138</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>155</v>
@@ -2893,7 +2972,7 @@
         <v>133</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>152</v>
@@ -2925,7 +3004,7 @@
         <v>136</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>152</v>
@@ -2957,7 +3036,7 @@
         <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>152</v>
@@ -2986,7 +3065,7 @@
         <v>139</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>155</v>
@@ -3015,7 +3094,7 @@
         <v>133</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>155</v>
@@ -3041,7 +3120,7 @@
         <v>32</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3064,7 +3143,7 @@
         <v>136</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>152</v>
@@ -3096,7 +3175,7 @@
         <v>137</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>152</v>
@@ -3122,7 +3201,7 @@
         <v>135</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>155</v>
@@ -3151,7 +3230,7 @@
         <v>133</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>152</v>
@@ -3177,7 +3256,7 @@
         <v>32</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3194,7 +3273,7 @@
         <v>32</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3217,7 +3296,7 @@
         <v>138</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>152</v>
@@ -3249,7 +3328,7 @@
         <v>136</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>152</v>
@@ -3278,7 +3357,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3298,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>152</v>
@@ -3327,7 +3406,7 @@
         <v>171</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>152</v>
@@ -3356,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3376,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3396,7 +3475,7 @@
         <v>133</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>152</v>
@@ -3419,7 +3498,7 @@
         <v>32</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3439,7 +3518,7 @@
         <v>34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3459,7 +3538,7 @@
         <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3482,7 +3561,7 @@
         <v>136</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>152</v>
@@ -3508,7 +3587,7 @@
         <v>132</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>152</v>
@@ -3537,7 +3616,7 @@
         <v>137</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>152</v>
@@ -3566,7 +3645,7 @@
         <v>132</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>152</v>
@@ -3648,7 +3727,7 @@
         <v>135</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>152</v>
@@ -3680,7 +3759,7 @@
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3702,7 +3781,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>177</v>
@@ -3730,7 +3809,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>177</v>
@@ -3758,7 +3837,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>177</v>
@@ -3786,7 +3865,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>177</v>
@@ -3814,7 +3893,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>177</v>
@@ -3842,7 +3921,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>177</v>
@@ -3870,7 +3949,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>177</v>
@@ -3900,7 +3979,7 @@
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>177</v>
@@ -3928,7 +4007,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>177</v>
@@ -3945,116 +4024,116 @@
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
@@ -4065,57 +4144,57 @@
         <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" t="s">
+        <v>245</v>
+      </c>
+      <c r="G75" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E75" t="s">
-        <v>244</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
+        <v>239</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G75" t="s">
-        <v>243</v>
-      </c>
-      <c r="H75" t="s">
-        <v>240</v>
-      </c>
-      <c r="I75" s="3" t="s">
+      <c r="J75" t="s">
         <v>247</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>248</v>
-      </c>
-      <c r="K75" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>260</v>
-      </c>
-      <c r="L76">
-        <v>20200413</v>
+        <v>267</v>
+      </c>
+      <c r="L76" s="2">
+        <v>20200414</v>
       </c>
       <c r="M76" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>181</v>
       </c>
@@ -4126,16 +4205,16 @@
         <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L77" s="2">
-        <v>20200413</v>
+        <v>20200414</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>257</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
@@ -4149,39 +4228,39 @@
         <v>34</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L78" s="2">
-        <v>20200413</v>
+        <v>20200414</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L79" s="2">
-        <v>20200413</v>
+        <v>20200414</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
@@ -4195,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L80" s="2">
-        <v>20200413</v>
+        <v>20200414</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
@@ -4218,16 +4297,16 @@
         <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L81" s="2">
-        <v>20200413</v>
+        <v>20200414</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
@@ -4241,46 +4320,331 @@
         <v>34</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L82" s="2">
-        <v>20200413</v>
+        <v>20200414</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>260</v>
       </c>
       <c r="L83" s="2">
-        <v>20200413</v>
+        <v>20200414</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L84" s="2"/>
+      <c r="A84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H84" t="s">
+        <v>264</v>
+      </c>
+      <c r="L84" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H85" t="s">
+        <v>264</v>
+      </c>
+      <c r="L85" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H86" t="s">
+        <v>274</v>
+      </c>
+      <c r="L86" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H87" t="s">
+        <v>264</v>
+      </c>
+      <c r="L87" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L88" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L89" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L90" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L91" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L92" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L93" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L94" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L95" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L96" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L97" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L98" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L99" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L100" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L101" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M83" xr:uid="{46A53DD7-C1C3-4D6F-BD0B-D3395D883D8C}">
+  <autoFilter ref="A1:M84" xr:uid="{46A53DD7-C1C3-4D6F-BD0B-D3395D883D8C}">
     <filterColumn colId="7">
       <filters blank="1"/>
     </filterColumn>
@@ -4288,6 +4652,12 @@
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="持股做T"/>
+        <filter val="观察"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -4298,10 +4668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF0E21-9069-4DC7-A099-28C889384AD1}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4423,7 +4793,7 @@
         <v>19.79</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:G22" si="0">(F5-E5)/E5</f>
+        <f t="shared" ref="G5:G24" si="0">(F5-E5)/E5</f>
         <v>0.10558659217877099</v>
       </c>
     </row>
@@ -4763,6 +5133,30 @@
       <c r="G22" s="12">
         <f t="shared" si="0"/>
         <v>0.21278941565600878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>14.2</v>
+      </c>
+      <c r="F23">
+        <v>16.04</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="0"/>
+        <v>0.12957746478873239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>12.9</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +5171,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4835,9 +5229,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE46E64-BDE5-439F-839B-4E621E21B8FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29550" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
@@ -19,14 +13,14 @@
     <sheet name="选股条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$97</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="309">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -953,21 +947,12 @@
     <t>SZ002931</t>
   </si>
   <si>
-    <t>锋龙股份</t>
-  </si>
-  <si>
     <t>SZ002581</t>
   </si>
   <si>
-    <t>未名医药</t>
-  </si>
-  <si>
     <t>SH603867</t>
   </si>
   <si>
-    <t>新化股份</t>
-  </si>
-  <si>
     <t>选出时间</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -981,10 +966,6 @@
   </si>
   <si>
     <t>出货</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗盘</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1011,88 +992,196 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>持股做T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股做T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002329</t>
+  </si>
+  <si>
+    <t>SH603982</t>
+  </si>
+  <si>
+    <t>SH603109</t>
+  </si>
+  <si>
+    <t>SZ002262</t>
+  </si>
+  <si>
+    <t>SH600268</t>
+  </si>
+  <si>
+    <t>SH600527</t>
+  </si>
+  <si>
+    <t>SH603059</t>
+  </si>
+  <si>
+    <t>SH603127</t>
+  </si>
+  <si>
+    <t>SH603316</t>
+  </si>
+  <si>
+    <t>锋龙股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>省广集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未名医药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>以岭药业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尔股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫信康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新化股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇氏集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神驰机电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升/突破/加仓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电南自</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>拉升</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>持股做T</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股做T</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>加仓</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002329</t>
-  </si>
-  <si>
-    <t>皇氏集团</t>
-  </si>
-  <si>
-    <t>SH603982</t>
-  </si>
-  <si>
-    <t>泉峰汽车</t>
-  </si>
-  <si>
-    <t>SH603109</t>
-  </si>
-  <si>
-    <t>神驰机电</t>
+    <t>倍加洁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昭衍新药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南高纤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚邦股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（加仓）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拉升）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华天酒店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩华药业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拉升）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（加仓）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002030</t>
+  </si>
+  <si>
+    <t>SZ002437</t>
+  </si>
+  <si>
+    <t>誉衡药业</t>
+  </si>
+  <si>
+    <t>SZ002644</t>
+  </si>
+  <si>
+    <t>SZ002826</t>
+  </si>
+  <si>
+    <t>达安基因</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>突破</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SZ002262</t>
-  </si>
-  <si>
-    <t>恩华药业</t>
-  </si>
-  <si>
-    <t>SH600268</t>
-  </si>
-  <si>
-    <t>国电南自</t>
-  </si>
-  <si>
-    <t>SH600527</t>
-  </si>
-  <si>
-    <t>江南高纤</t>
-  </si>
-  <si>
-    <t>SH603059</t>
-  </si>
-  <si>
-    <t>倍加洁</t>
-  </si>
-  <si>
-    <t>SH603127</t>
-  </si>
-  <si>
-    <t>昭衍新药</t>
-  </si>
-  <si>
-    <t>SH603316</t>
-  </si>
-  <si>
-    <t>诚邦股份</t>
+    <t>佛慈制药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>易明医药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美尔雅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>换庄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1738,7 +1827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,26 +1879,29 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1824,32 +1916,24 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1891,7 +1975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1923,27 +2007,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1975,24 +2041,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2168,27 +2216,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85:M101"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
     <col min="9" max="9" width="9" style="3"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2223,13 +2272,13 @@
         <v>147</v>
       </c>
       <c r="L1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2258,7 +2307,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2290,7 +2339,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2304,13 +2353,13 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2330,13 +2379,13 @@
         <v>103</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2350,13 +2399,13 @@
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2379,13 +2428,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2411,7 +2460,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2440,7 +2489,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -2466,7 +2515,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -2495,7 +2544,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2524,7 +2573,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2553,7 +2602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2567,10 +2616,10 @@
         <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -2584,10 +2633,10 @@
         <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -2616,7 +2665,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2639,10 +2688,10 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -2671,7 +2720,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2688,10 +2737,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -2723,7 +2772,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2752,7 +2801,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2778,7 +2827,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2807,7 +2856,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2836,7 +2885,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2859,10 +2908,10 @@
         <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2891,7 +2940,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="1" t="s">
         <v>127</v>
       </c>
@@ -2923,7 +2972,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="1" t="s">
         <v>129</v>
       </c>
@@ -2955,7 +3004,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -2984,7 +3033,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3016,7 +3065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
@@ -3045,7 +3094,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
@@ -3077,7 +3126,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
@@ -3106,7 +3155,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -3120,10 +3169,10 @@
         <v>32</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
@@ -3155,7 +3204,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -3184,7 +3233,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,7 +3262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
@@ -3242,7 +3291,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
@@ -3256,10 +3305,10 @@
         <v>32</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -3273,10 +3322,10 @@
         <v>32</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -3308,7 +3357,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="2" t="s">
         <v>57</v>
       </c>
@@ -3337,7 +3386,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -3357,10 +3406,10 @@
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -3377,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>152</v>
@@ -3389,7 +3438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -3418,7 +3467,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3435,10 +3484,10 @@
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -3455,10 +3504,10 @@
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
@@ -3484,7 +3533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
@@ -3498,10 +3547,10 @@
         <v>32</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -3518,10 +3567,10 @@
         <v>34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3538,10 +3587,10 @@
         <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="2" t="s">
         <v>119</v>
       </c>
@@ -3570,7 +3619,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
@@ -3596,7 +3645,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
@@ -3628,7 +3677,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="2" t="s">
         <v>73</v>
       </c>
@@ -3657,7 +3706,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="2" t="s">
         <v>113</v>
       </c>
@@ -3684,7 +3733,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="2" t="s">
         <v>90</v>
       </c>
@@ -3710,7 +3759,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="2" t="s">
         <v>86</v>
       </c>
@@ -3739,7 +3788,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -3759,10 +3808,10 @@
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="2" t="s">
         <v>175</v>
       </c>
@@ -3790,7 +3839,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="2" t="s">
         <v>179</v>
       </c>
@@ -3818,7 +3867,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="2" t="s">
         <v>181</v>
       </c>
@@ -3846,7 +3895,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="2" t="s">
         <v>183</v>
       </c>
@@ -3874,7 +3923,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" s="2" t="s">
         <v>185</v>
       </c>
@@ -3902,7 +3951,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" s="2" t="s">
         <v>187</v>
       </c>
@@ -3930,7 +3979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="2" t="s">
         <v>191</v>
       </c>
@@ -3958,7 +4007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="2" t="s">
         <v>193</v>
       </c>
@@ -3988,7 +4037,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" s="2" t="s">
         <v>195</v>
       </c>
@@ -4016,7 +4065,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="2" t="s">
         <v>44</v>
       </c>
@@ -4036,7 +4085,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="2" t="s">
         <v>228</v>
       </c>
@@ -4056,7 +4105,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="2" t="s">
         <v>230</v>
       </c>
@@ -4076,7 +4125,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="2" t="s">
         <v>232</v>
       </c>
@@ -4096,7 +4145,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" s="2" t="s">
         <v>234</v>
       </c>
@@ -4116,7 +4165,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" s="2" t="s">
         <v>236</v>
       </c>
@@ -4136,7 +4185,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="2" t="s">
         <v>189</v>
       </c>
@@ -4171,12 +4220,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>34</v>
@@ -4184,17 +4233,17 @@
       <c r="D76" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H76" t="s">
-        <v>267</v>
+      <c r="H76" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="L76" s="2">
         <v>20200414</v>
       </c>
       <c r="M76" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="2" t="s">
         <v>181</v>
       </c>
@@ -4208,7 +4257,7 @@
         <v>244</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L77" s="2">
         <v>20200414</v>
@@ -4217,12 +4266,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>34</v>
@@ -4231,21 +4280,21 @@
         <v>244</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L78" s="2">
         <v>20200414</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>34</v>
@@ -4254,21 +4303,21 @@
         <v>244</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L79" s="2">
         <v>20200414</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>34</v>
@@ -4277,21 +4326,21 @@
         <v>244</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L80" s="2">
         <v>20200414</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>34</v>
@@ -4300,21 +4349,21 @@
         <v>244</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L81" s="2">
         <v>20200414</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>34</v>
@@ -4323,21 +4372,21 @@
         <v>244</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L82" s="2">
         <v>20200414</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>34</v>
@@ -4346,21 +4395,21 @@
         <v>244</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L83" s="2">
         <v>20200414</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>263</v>
-      </c>
-      <c r="B84" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
@@ -4368,22 +4417,22 @@
       <c r="D84" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H84" t="s">
-        <v>264</v>
+      <c r="H84" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="L84" s="2">
         <v>20200414</v>
       </c>
       <c r="M84" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>34</v>
@@ -4391,22 +4440,22 @@
       <c r="D85" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H85" t="s">
-        <v>264</v>
+      <c r="H85" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="L85" s="2">
         <v>20200414</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>34</v>
@@ -4414,22 +4463,22 @@
       <c r="D86" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H86" t="s">
-        <v>274</v>
+      <c r="H86" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="L86" s="2">
         <v>20200414</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>34</v>
@@ -4437,216 +4486,237 @@
       <c r="D87" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H87" t="s">
-        <v>264</v>
+      <c r="H87" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="L87" s="2">
         <v>20200414</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>188</v>
+        <v>292</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="L88" s="2">
         <v>20200414</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>276</v>
+        <v>293</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="L89" s="2">
         <v>20200414</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="L90" s="2">
         <v>20200414</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" s="2" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>184</v>
+        <v>295</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="L91" s="2">
         <v>20200414</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>120</v>
+        <v>288</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="L92" s="2">
         <v>20200414</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="L93" s="2">
         <v>20200414</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>233</v>
+        <v>287</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="L94" s="2">
         <v>20200414</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="L95" s="2">
         <v>20200414</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="2" t="s">
-        <v>281</v>
+        <v>73</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="L96" s="2">
         <v>20200414</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L97" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
-        <v>283</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1">
+      <c r="H97" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="L98" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="L99" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
-        <v>73</v>
+        <v>303</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="17" t="s">
+        <v>301</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L100" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
-        <v>270</v>
+        <v>305</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L101" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>256</v>
+        <v>306</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M84" xr:uid="{46A53DD7-C1C3-4D6F-BD0B-D3395D883D8C}">
+  <autoFilter ref="A1:M97">
     <filterColumn colId="7">
-      <filters blank="1"/>
+      <filters>
+        <filter val="（拉升）洗盘"/>
+        <filter val="拉升"/>
+        <filter val="拉升/突破/加仓"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="11">
       <customFilters>
@@ -4667,21 +4737,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF0E21-9069-4DC7-A099-28C889384AD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>206</v>
       </c>
@@ -4704,7 +4774,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="11">
         <v>43920</v>
       </c>
@@ -4727,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="11">
         <v>43921</v>
       </c>
@@ -4750,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="11">
         <v>43922</v>
       </c>
@@ -4773,7 +4843,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="11">
         <v>43923</v>
       </c>
@@ -4797,7 +4867,7 @@
         <v>0.10558659217877099</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>43923</v>
       </c>
@@ -4821,7 +4891,7 @@
         <v>-6.4761904761904729E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>43924</v>
       </c>
@@ -4845,7 +4915,7 @@
         <v>6.1589403973510037E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="11">
         <v>43928</v>
       </c>
@@ -4869,7 +4939,7 @@
         <v>8.5470085470085472E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="11">
         <v>43928</v>
       </c>
@@ -4893,7 +4963,7 @@
         <v>9.6101829753381052E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="11">
         <v>43929</v>
       </c>
@@ -4917,7 +4987,7 @@
         <v>-1.7560975609756072E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="11">
         <v>43929</v>
       </c>
@@ -4941,7 +5011,7 @@
         <v>4.0816326530612346E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>43929</v>
       </c>
@@ -4965,7 +5035,7 @@
         <v>7.3417721518987344E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>43929</v>
       </c>
@@ -4989,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>43929</v>
       </c>
@@ -5013,7 +5083,7 @@
         <v>7.8753076292042729E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>43930</v>
       </c>
@@ -5037,7 +5107,7 @@
         <v>5.9431524547803496E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>43930</v>
       </c>
@@ -5061,7 +5131,7 @@
         <v>3.195792880258911E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="E17">
@@ -5075,7 +5145,7 @@
         <v>0.28358208955223874</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="E18">
         <v>11.9</v>
       </c>
@@ -5087,7 +5157,7 @@
         <v>7.5630252100840359E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="E19">
         <v>26.65</v>
       </c>
@@ -5099,7 +5169,7 @@
         <v>0.15947467166979362</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="E20">
         <v>16.75</v>
       </c>
@@ -5111,7 +5181,7 @@
         <v>0.31820895522388049</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="E21">
         <v>6.4</v>
       </c>
@@ -5123,7 +5193,7 @@
         <v>0.21874999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="E22">
         <v>9.07</v>
       </c>
@@ -5135,7 +5205,7 @@
         <v>0.21278941565600878</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="E23">
         <v>14.2</v>
       </c>
@@ -5147,7 +5217,7 @@
         <v>0.12957746478873239</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="E24">
         <v>10</v>
       </c>
@@ -5167,39 +5237,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A088F90-E14B-4690-A5A5-C60878B9CE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="81">
       <c r="A1" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="202.5">
       <c r="A3" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="135">
       <c r="A6" s="7" t="s">
         <v>200</v>
       </c>
@@ -5212,34 +5282,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAC452C-A0A6-43D6-A177-ECA4278BB5BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="175.5">
       <c r="A2" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="135">
       <c r="A6" s="15" t="s">
         <v>226</v>
       </c>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9216E7A-419E-43CD-8755-9DBF036A388D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$97</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="291">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -167,9 +173,6 @@
     <t>SH603676</t>
   </si>
   <si>
-    <t>卫信康</t>
-  </si>
-  <si>
     <t>SZ000903</t>
   </si>
   <si>
@@ -481,10 +484,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>主力出货</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>百洋股份</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -593,10 +592,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>低位密集</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>0403 13:35</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -645,12 +640,6 @@
   </si>
   <si>
     <t>华天酒店</t>
-  </si>
-  <si>
-    <t>SH600609</t>
-  </si>
-  <si>
-    <t>金杯汽车</t>
   </si>
   <si>
     <t>SZ002557</t>
@@ -870,77 +859,20 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SZ000757</t>
-  </si>
-  <si>
-    <t>浩物股份</t>
-  </si>
-  <si>
-    <t>SZ002553</t>
-  </si>
-  <si>
-    <t>南方轴承</t>
-  </si>
-  <si>
     <t>SH600303</t>
   </si>
   <si>
-    <t>曙光股份</t>
-  </si>
-  <si>
     <t>SZ002864</t>
   </si>
   <si>
     <t>盘龙药业</t>
   </si>
   <si>
-    <t>SH603332</t>
-  </si>
-  <si>
-    <t>苏州龙杰</t>
-  </si>
-  <si>
-    <t>筹码突破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主力拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主力洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>不满足</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>跌破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>未跌破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0410 13：50</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1025,163 +957,176 @@
     <t>SH603059</t>
   </si>
   <si>
+    <t>SH603316</t>
+  </si>
+  <si>
+    <t>锋龙股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>省广集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未名医药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>以岭药业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尔股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫信康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新化股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇氏集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神驰机电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电南自</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍加洁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昭衍新药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南高纤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚邦股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（加仓）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拉升）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华天酒店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩华药业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（加仓）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002030</t>
+  </si>
+  <si>
+    <t>SZ002437</t>
+  </si>
+  <si>
+    <t>誉衡药业</t>
+  </si>
+  <si>
+    <t>SZ002644</t>
+  </si>
+  <si>
+    <t>SZ002826</t>
+  </si>
+  <si>
+    <t>达安基因</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛慈制药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>易明医药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美尔雅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游资票</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（换庄）拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>SH603127</t>
-  </si>
-  <si>
-    <t>SH603316</t>
-  </si>
-  <si>
-    <t>锋龙股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>省广集团</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未名医药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>以岭药业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳尔股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫信康</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新化股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇氏集团</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉峰汽车</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>神驰机电</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升/突破/加仓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登海种业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002041</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>国电南自</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>倍加洁</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>昭衍新药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南高纤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>诚邦股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（加仓）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（拉升）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>华天酒店</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩华药业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（拉升）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>曙光股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅科技</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（加仓）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002030</t>
-  </si>
-  <si>
-    <t>SZ002437</t>
-  </si>
-  <si>
-    <t>誉衡药业</t>
-  </si>
-  <si>
-    <t>SZ002644</t>
-  </si>
-  <si>
-    <t>SZ002826</t>
-  </si>
-  <si>
-    <t>达安基因</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛慈制药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>易明医药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>美尔雅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>换庄</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1884,24 +1829,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1916,24 +1861,32 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1975,7 +1928,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2007,9 +1960,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,6 +2012,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2216,15 +2205,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
@@ -2237,7 +2226,7 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27">
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2248,37 +2237,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="M1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2292,59 +2281,59 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>240</v>
+        <v>135</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -2353,13 +2342,16 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1">
+        <v>168</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2376,21 +2368,24 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1">
+        <v>168</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -2399,13 +2394,16 @@
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1">
+        <v>168</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2428,186 +2426,189 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1">
+        <v>168</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>240</v>
+      <c r="H8" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J12" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1">
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -2616,15 +2617,18 @@
         <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
@@ -2633,16 +2637,19 @@
         <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2650,22 +2657,22 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2688,16 +2695,19 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2705,22 +2715,22 @@
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2737,15 +2747,18 @@
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
@@ -2754,25 +2767,25 @@
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>240</v>
+        <v>136</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2786,54 +2799,54 @@
         <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>240</v>
+        <v>138</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
@@ -2841,28 +2854,28 @@
         <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2870,22 +2883,22 @@
         <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2908,10 +2921,13 @@
         <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2925,60 +2941,60 @@
         <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1">
-      <c r="A27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="H27" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J27" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
@@ -2986,54 +3002,54 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
         <v>132</v>
       </c>
-      <c r="F28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1">
-      <c r="A29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>240</v>
+      <c r="H29" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3047,120 +3063,120 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J30" t="s">
-        <v>148</v>
-      </c>
-      <c r="K30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1">
-      <c r="A31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1">
-      <c r="A32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1">
-      <c r="A33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>240</v>
+      <c r="H33" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
@@ -3169,15 +3185,18 @@
         <v>32</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
@@ -3186,117 +3205,117 @@
         <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F35" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J35" t="s">
-        <v>148</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="H38" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
-      <c r="A36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1">
-      <c r="A37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1">
-      <c r="A38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -3305,15 +3324,18 @@
         <v>32</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
@@ -3322,16 +3344,19 @@
         <v>32</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
@@ -3339,31 +3364,31 @@
         <v>34</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>240</v>
+        <v>137</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
@@ -3371,22 +3396,22 @@
         <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>240</v>
+        <v>135</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -3406,10 +3431,13 @@
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -3426,48 +3454,51 @@
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J44" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" t="s">
         <v>148</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M44" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>169</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1">
-      <c r="A45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
-        <v>171</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="J45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3484,10 +3515,13 @@
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -3504,16 +3538,19 @@
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
@@ -3521,24 +3558,24 @@
         <v>34</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>240</v>
+        <v>132</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>6</v>
@@ -3547,15 +3584,18 @@
         <v>32</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>6</v>
@@ -3567,10 +3607,13 @@
         <v>34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3587,16 +3630,19 @@
         <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
@@ -3604,86 +3650,86 @@
         <v>34</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F52" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" t="s">
         <v>136</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1">
-      <c r="A53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1">
-      <c r="A54" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" t="s">
-        <v>137</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>240</v>
+      <c r="H54" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
@@ -3691,28 +3737,28 @@
         <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>240</v>
+        <v>131</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
@@ -3720,25 +3766,25 @@
         <v>34</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>6</v>
@@ -3747,25 +3793,25 @@
         <v>32</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
@@ -3773,22 +3819,22 @@
         <v>34</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -3808,15 +3854,18 @@
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1">
+        <v>234</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>6</v>
@@ -3825,26 +3874,26 @@
         <v>7</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
-        <v>240</v>
+      <c r="H60" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1">
-      <c r="A61" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
@@ -3853,26 +3902,26 @@
         <v>7</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
-        <v>240</v>
+      <c r="H61" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J61" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1">
-      <c r="A62" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="B62" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>6</v>
@@ -3881,26 +3930,26 @@
         <v>7</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2" t="s">
-        <v>240</v>
+      <c r="H62" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>6</v>
@@ -3909,26 +3958,26 @@
         <v>7</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2" t="s">
-        <v>240</v>
+      <c r="H63" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>6</v>
@@ -3937,26 +3986,26 @@
         <v>7</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2" t="s">
-        <v>240</v>
+      <c r="H64" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>6</v>
@@ -3965,26 +4014,26 @@
         <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2" t="s">
-        <v>240</v>
+      <c r="H65" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>6</v>
@@ -3993,26 +4042,26 @@
         <v>7</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
-        <v>240</v>
+      <c r="H66" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
@@ -4021,28 +4070,28 @@
         <v>7</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="2" t="s">
-        <v>240</v>
+      <c r="H67" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
@@ -4051,682 +4100,546 @@
         <v>7</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2" t="s">
-        <v>240</v>
+      <c r="H68" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" t="s">
-        <v>241</v>
+        <v>225</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" t="s">
-        <v>244</v>
-      </c>
-      <c r="H69" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" hidden="1">
+        <v>227</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L70" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L71" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L72" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" hidden="1">
-      <c r="A71" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" hidden="1">
-      <c r="A72" s="2" t="s">
+      <c r="B73" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L73" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" hidden="1">
-      <c r="A73" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="H74" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" hidden="1">
-      <c r="A74" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" hidden="1">
+      <c r="L74" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" t="s">
-        <v>243</v>
-      </c>
-      <c r="F75" t="s">
-        <v>245</v>
-      </c>
-      <c r="G75" t="s">
-        <v>242</v>
-      </c>
-      <c r="H75" t="s">
-        <v>239</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J75" t="s">
-        <v>247</v>
-      </c>
-      <c r="K75" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" hidden="1">
+        <v>227</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L75" s="2">
+        <v>20200414</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="L76" s="2">
         <v>20200414</v>
       </c>
-      <c r="M76" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" hidden="1">
+      <c r="M76" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="L77" s="2">
         <v>20200414</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" hidden="1">
-      <c r="A78" s="2" t="s">
-        <v>183</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>238</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L78" s="2">
         <v>20200414</v>
       </c>
-      <c r="M78" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="M78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="L79" s="2">
         <v>20200414</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="L80" s="2">
         <v>20200414</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L81" s="2">
         <v>20200414</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L82" s="2">
         <v>20200414</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" hidden="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L83" s="2">
         <v>20200414</v>
       </c>
       <c r="M83" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" t="s">
-        <v>259</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="H84" s="2" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="L84" s="2">
         <v>20200414</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1">
-      <c r="A85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="L85" s="2">
         <v>20200414</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="L86" s="2">
         <v>20200414</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="1.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="L87" s="2">
         <v>20200414</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>283</v>
+        <v>264</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="L88" s="2">
         <v>20200414</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="H89" s="2" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="L89" s="2">
         <v>20200414</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="L90" s="2">
         <v>20200414</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" hidden="1">
-      <c r="A91" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>295</v>
-      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="H91" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L93" s="17">
+        <v>20200414</v>
+      </c>
+      <c r="M93" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="L91" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="H96" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>288</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L92" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L93" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="B97" t="s">
         <v>287</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L94" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1">
-      <c r="A95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="H97" t="s">
         <v>289</v>
       </c>
-      <c r="H95" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L95" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1">
-      <c r="A96" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L96" s="2">
-        <v>20200414</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1">
-      <c r="H97" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>308</v>
+      <c r="L97" s="17">
+        <v>20200416</v>
+      </c>
+      <c r="M97" s="17" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M97">
+  <autoFilter ref="A1:M97" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7">
       <filters>
         <filter val="（拉升）洗盘"/>
         <filter val="拉升"/>
-        <filter val="拉升/突破/加仓"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters>
-        <filter val="持股做T"/>
-        <filter val="观察"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4737,101 +4650,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>43920</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G2" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>43921</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G3" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>43922</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C4" s="11">
         <v>43923</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E4">
         <v>13.4</v>
@@ -4843,18 +4756,18 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>43923</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C5" s="11">
         <v>43924</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>17.899999999999999</v>
@@ -4867,18 +4780,18 @@
         <v>0.10558659217877099</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>43923</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C6" s="11">
         <v>43924</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E6" s="2">
         <v>15.75</v>
@@ -4891,18 +4804,18 @@
         <v>-6.4761904761904729E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>43924</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C7" s="11">
         <v>43928</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>15.1</v>
@@ -4915,18 +4828,18 @@
         <v>6.1589403973510037E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>43928</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C8" s="11">
         <v>43930</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E8">
         <v>11.7</v>
@@ -4939,18 +4852,18 @@
         <v>8.5470085470085472E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>43928</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C9" s="11">
         <v>43929</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E9">
         <v>62.85</v>
@@ -4963,18 +4876,18 @@
         <v>9.6101829753381052E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>43929</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C10" s="11">
         <v>43930</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E10">
         <v>20.5</v>
@@ -4987,18 +4900,18 @@
         <v>-1.7560975609756072E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>43929</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C11" s="11">
         <v>43930</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E11">
         <v>14.7</v>
@@ -5011,18 +4924,18 @@
         <v>4.0816326530612346E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>43929</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C12" s="11">
         <v>43930</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E12">
         <v>7.9</v>
@@ -5035,18 +4948,18 @@
         <v>7.3417721518987344E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>43929</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C13" s="11">
         <v>43930</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E13">
         <v>20.6</v>
@@ -5059,18 +4972,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>43929</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C14" s="11">
         <v>43931</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E14">
         <v>12.19</v>
@@ -5083,18 +4996,18 @@
         <v>7.8753076292042729E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>43930</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C15" s="11">
         <v>43931</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E15">
         <v>3.87</v>
@@ -5107,18 +5020,18 @@
         <v>5.9431524547803496E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>43930</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C16" s="11">
         <v>43931</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E16">
         <v>24.72</v>
@@ -5131,7 +5044,7 @@
         <v>3.195792880258911E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="E17">
@@ -5145,7 +5058,7 @@
         <v>0.28358208955223874</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E18">
         <v>11.9</v>
       </c>
@@ -5157,7 +5070,7 @@
         <v>7.5630252100840359E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E19">
         <v>26.65</v>
       </c>
@@ -5169,7 +5082,7 @@
         <v>0.15947467166979362</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E20">
         <v>16.75</v>
       </c>
@@ -5181,7 +5094,7 @@
         <v>0.31820895522388049</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E21">
         <v>6.4</v>
       </c>
@@ -5193,7 +5106,7 @@
         <v>0.21874999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E22">
         <v>9.07</v>
       </c>
@@ -5205,7 +5118,7 @@
         <v>0.21278941565600878</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <v>14.2</v>
       </c>
@@ -5217,7 +5130,7 @@
         <v>0.12957746478873239</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E24">
         <v>10</v>
       </c>
@@ -5237,41 +5150,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="81">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="202.5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="135">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5282,36 +5195,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="175.5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="135">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9216E7A-419E-43CD-8755-9DBF036A388D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
@@ -21,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$97</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="311">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -905,228 +899,301 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>金杯汽车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600609</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股做T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股做T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002329</t>
+  </si>
+  <si>
+    <t>SH603982</t>
+  </si>
+  <si>
+    <t>SH603109</t>
+  </si>
+  <si>
+    <t>SZ002262</t>
+  </si>
+  <si>
+    <t>SH600268</t>
+  </si>
+  <si>
+    <t>SH600527</t>
+  </si>
+  <si>
+    <t>SH603059</t>
+  </si>
+  <si>
+    <t>SH603316</t>
+  </si>
+  <si>
+    <t>锋龙股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>省广集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>以岭药业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尔股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫信康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新化股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇氏集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神驰机电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电南自</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍加洁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昭衍新药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南高纤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚邦股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（加仓）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拉升）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华天酒店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩华药业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（加仓）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002030</t>
+  </si>
+  <si>
+    <t>SZ002437</t>
+  </si>
+  <si>
+    <t>誉衡药业</t>
+  </si>
+  <si>
+    <t>SZ002644</t>
+  </si>
+  <si>
+    <t>SZ002826</t>
+  </si>
+  <si>
+    <t>达安基因</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛慈制药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>易明医药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美尔雅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游资票</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（换庄）拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603127</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登海种业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002041</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拉升）洗盘 涨幅超过20% 不参与</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拉升）洗盘 日线没站上250线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月9日涨幅大于7% 4月10日阳线 突破前高 非创业板 非新股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南极电商</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002127</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>良信电器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>换庄后的拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002706</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>妖股选股条件：
 3天2板 非创业板 非新股 非ST
 预备妖股选股条件：
 非新股 非创业板 近2日有1次涨停 非ST 近5日只有1次涨停
 4月9涨幅超过7% 4月10日高开高走
+从突破开始，涨幅超过20%以上的洗盘不参与
+日线站上250
+板块效应：优先级最大
+涨幅不断层 10 9 8 7 6 
+从板块里挑选
 1.当日涨停，突破平台
 2.是否满足筹码突破四要素
 2.第二天观察是否高开，成交量是否放量，如果不是高开，直接删自选，观察当天是否红盘，筹码是否松动</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>金杯汽车</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH600609</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股做T</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股做T</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>加仓</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002329</t>
-  </si>
-  <si>
-    <t>SH603982</t>
-  </si>
-  <si>
-    <t>SH603109</t>
-  </si>
-  <si>
-    <t>SZ002262</t>
-  </si>
-  <si>
-    <t>SH600268</t>
-  </si>
-  <si>
-    <t>SH600527</t>
-  </si>
-  <si>
-    <t>SH603059</t>
-  </si>
-  <si>
-    <t>SH603316</t>
-  </si>
-  <si>
-    <t>锋龙股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>省广集团</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未名医药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>以岭药业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳尔股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫信康</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新化股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇氏集团</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉峰汽车</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>神驰机电</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>国电南自</t>
+    <t>SZ000779</t>
+  </si>
+  <si>
+    <t>甘咨询</t>
+  </si>
+  <si>
+    <t>SZ002480</t>
+  </si>
+  <si>
+    <t>新筑股份</t>
+  </si>
+  <si>
+    <t>SH603183</t>
+  </si>
+  <si>
+    <t>建研院</t>
+  </si>
+  <si>
+    <t>SH600272</t>
+  </si>
+  <si>
+    <t>开开实业</t>
+  </si>
+  <si>
+    <t>SH603105</t>
+  </si>
+  <si>
+    <t>芯能科技</t>
+  </si>
+  <si>
+    <t>SZ000680</t>
+  </si>
+  <si>
+    <t>山推股份</t>
+  </si>
+  <si>
+    <t>突破</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>倍加洁</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>昭衍新药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南高纤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>诚邦股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（加仓）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（拉升）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>华天酒店</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩华药业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>曙光股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅科技</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（加仓）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002030</t>
-  </si>
-  <si>
-    <t>SZ002437</t>
-  </si>
-  <si>
-    <t>誉衡药业</t>
-  </si>
-  <si>
-    <t>SZ002644</t>
-  </si>
-  <si>
-    <t>SZ002826</t>
-  </si>
-  <si>
-    <t>达安基因</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛慈制药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>易明医药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>美尔雅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>游资票</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（换庄）拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH603127</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登海种业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH002041</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗盘</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1317,7 +1384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1527,6 +1594,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1772,7 +1845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1827,26 +1900,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1861,15 +1937,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1886,7 +1962,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1928,7 +2004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1960,27 +2036,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2012,24 +2070,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2205,15 +2245,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
@@ -2226,7 +2266,7 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2267,7 +2307,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2324,7 @@
         <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>153</v>
@@ -2296,7 +2336,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2316,7 +2356,7 @@
         <v>135</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>150</v>
@@ -2328,7 +2368,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2351,7 +2391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2380,7 +2420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2403,7 +2443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2435,7 +2475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2449,7 +2489,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>153</v>
@@ -2461,7 +2501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2481,7 +2521,7 @@
         <v>135</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>150</v>
@@ -2490,7 +2530,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2504,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>150</v>
@@ -2516,7 +2556,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2536,7 +2576,7 @@
         <v>138</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>150</v>
@@ -2545,7 +2585,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2562,7 +2602,7 @@
         <v>169</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>150</v>
@@ -2574,7 +2614,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2591,7 +2631,7 @@
         <v>134</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>150</v>
@@ -2603,7 +2643,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2623,7 +2663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2643,7 +2683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2663,7 +2703,7 @@
         <v>135</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>171</v>
@@ -2672,7 +2712,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2701,7 +2741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,7 +2758,7 @@
         <v>134</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>153</v>
@@ -2730,7 +2770,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2753,7 +2793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2773,7 +2813,7 @@
         <v>136</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>153</v>
@@ -2785,7 +2825,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2802,7 +2842,7 @@
         <v>134</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>153</v>
@@ -2814,7 +2854,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2834,13 +2874,13 @@
         <v>138</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2857,7 +2897,7 @@
         <v>134</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>153</v>
@@ -2869,7 +2909,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2886,7 +2926,7 @@
         <v>134</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>150</v>
@@ -2898,7 +2938,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +2967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2944,7 +2984,7 @@
         <v>134</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>153</v>
@@ -2956,7 +2996,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
@@ -2976,7 +3016,7 @@
         <v>135</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>150</v>
@@ -2988,7 +3028,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
@@ -3008,7 +3048,7 @@
         <v>137</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>153</v>
@@ -3020,7 +3060,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -3037,7 +3077,7 @@
         <v>132</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>150</v>
@@ -3049,7 +3089,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3069,7 +3109,7 @@
         <v>135</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>150</v>
@@ -3081,7 +3121,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3101,7 +3141,7 @@
         <v>135</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>150</v>
@@ -3110,7 +3150,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
@@ -3130,7 +3170,7 @@
         <v>138</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>153</v>
@@ -3142,7 +3182,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" hidden="1">
       <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
@@ -3159,7 +3199,7 @@
         <v>132</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>153</v>
@@ -3171,7 +3211,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3191,7 +3231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3211,7 +3251,7 @@
         <v>135</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>150</v>
@@ -3223,7 +3263,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3243,7 +3283,7 @@
         <v>136</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>150</v>
@@ -3252,7 +3292,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -3269,7 +3309,7 @@
         <v>134</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>153</v>
@@ -3281,7 +3321,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -3298,7 +3338,7 @@
         <v>132</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>150</v>
@@ -3310,7 +3350,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -3330,7 +3370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -3350,7 +3390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3370,7 +3410,7 @@
         <v>137</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>150</v>
@@ -3382,7 +3422,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -3402,7 +3442,7 @@
         <v>135</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>150</v>
@@ -3411,7 +3451,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -3437,7 +3477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -3469,7 +3509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -3486,7 +3526,7 @@
         <v>169</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>150</v>
@@ -3498,7 +3538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3521,7 +3561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -3544,7 +3584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -3561,7 +3601,7 @@
         <v>132</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>150</v>
@@ -3570,7 +3610,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" s="2" t="s">
         <v>78</v>
       </c>
@@ -3590,7 +3630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -3613,7 +3653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3636,7 +3676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3656,7 +3696,7 @@
         <v>135</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>150</v>
@@ -3665,7 +3705,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -3682,7 +3722,7 @@
         <v>131</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>150</v>
@@ -3691,7 +3731,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -3711,7 +3751,7 @@
         <v>136</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>150</v>
@@ -3723,7 +3763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
@@ -3740,7 +3780,7 @@
         <v>131</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>150</v>
@@ -3752,7 +3792,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -3769,7 +3809,7 @@
         <v>131</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" t="s">
@@ -3779,7 +3819,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" s="2" t="s">
         <v>89</v>
       </c>
@@ -3796,7 +3836,7 @@
         <v>131</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>150</v>
@@ -3805,7 +3845,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -3822,7 +3862,7 @@
         <v>134</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>150</v>
@@ -3834,7 +3874,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" hidden="1">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -3860,7 +3900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -3879,7 +3919,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>174</v>
@@ -3888,7 +3928,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -3907,7 +3947,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>174</v>
@@ -3916,7 +3956,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -3935,7 +3975,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>174</v>
@@ -3944,7 +3984,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" s="2" t="s">
         <v>180</v>
       </c>
@@ -3963,7 +4003,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>174</v>
@@ -3972,7 +4012,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" s="2" t="s">
         <v>182</v>
       </c>
@@ -3991,7 +4031,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>174</v>
@@ -4000,7 +4040,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" s="2" t="s">
         <v>184</v>
       </c>
@@ -4019,7 +4059,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>174</v>
@@ -4028,7 +4068,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -4047,7 +4087,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>174</v>
@@ -4056,7 +4096,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
@@ -4077,7 +4117,7 @@
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>174</v>
@@ -4086,7 +4126,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -4105,7 +4145,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>174</v>
@@ -4114,7 +4154,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="2" t="s">
         <v>224</v>
       </c>
@@ -4131,15 +4171,15 @@
         <v>227</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>34</v>
@@ -4148,7 +4188,7 @@
         <v>227</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L70" s="2">
         <v>20200414</v>
@@ -4157,7 +4197,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="2" t="s">
         <v>178</v>
       </c>
@@ -4180,12 +4220,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>34</v>
@@ -4203,17 +4243,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="L73" s="2">
         <v>20200414</v>
@@ -4222,17 +4262,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="L74" s="2">
         <v>20200414</v>
@@ -4241,12 +4281,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>34</v>
@@ -4255,7 +4295,7 @@
         <v>227</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L75" s="2">
         <v>20200414</v>
@@ -4264,12 +4304,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>34</v>
@@ -4278,7 +4318,7 @@
         <v>227</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L76" s="2">
         <v>20200414</v>
@@ -4287,12 +4327,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>34</v>
@@ -4301,40 +4341,40 @@
         <v>227</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L77" s="2">
         <v>20200414</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L78" s="2">
         <v>20200414</v>
       </c>
       <c r="M78" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" hidden="1">
       <c r="A79" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>34</v>
@@ -4343,7 +4383,7 @@
         <v>227</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L79" s="2">
         <v>20200414</v>
@@ -4352,12 +4392,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>34</v>
@@ -4366,7 +4406,7 @@
         <v>227</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L80" s="2">
         <v>20200414</v>
@@ -4375,12 +4415,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>34</v>
@@ -4389,7 +4429,7 @@
         <v>227</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L81" s="2">
         <v>20200414</v>
@@ -4398,15 +4438,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L82" s="2">
         <v>20200414</v>
@@ -4415,15 +4455,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>235</v>
+        <v>267</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="L83" s="2">
         <v>20200414</v>
@@ -4432,15 +4472,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="L84" s="2">
         <v>20200414</v>
@@ -4449,15 +4489,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L85" s="2">
         <v>20200414</v>
@@ -4466,12 +4506,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>234</v>
@@ -4483,15 +4523,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="1.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L87" s="2">
         <v>20200414</v>
@@ -4500,15 +4540,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13">
       <c r="A88" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="L88" s="2">
         <v>20200414</v>
@@ -4517,15 +4557,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L89" s="2">
         <v>20200414</v>
@@ -4534,15 +4574,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L90" s="2">
         <v>20200414</v>
@@ -4551,31 +4591,31 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" hidden="1">
       <c r="H91" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1">
+      <c r="A92" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B93" s="17" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A93" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>276</v>
-      </c>
       <c r="H93" s="17" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="L93" s="17">
         <v>20200414</v>
@@ -4584,48 +4624,48 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>288</v>
-      </c>
       <c r="B97" t="s">
-        <v>287</v>
-      </c>
-      <c r="H97" t="s">
-        <v>289</v>
+        <v>284</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="L97" s="17">
         <v>20200416</v>
@@ -4634,11 +4674,168 @@
         <v>232</v>
       </c>
     </row>
+    <row r="98" spans="1:13">
+      <c r="A98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" t="s">
+        <v>290</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="L98" s="17">
+        <v>20200417</v>
+      </c>
+      <c r="M98" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="H99" t="s">
+        <v>293</v>
+      </c>
+      <c r="L99" s="17">
+        <v>20200417</v>
+      </c>
+      <c r="M99" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" t="s">
+        <v>298</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L100">
+        <v>20200419</v>
+      </c>
+      <c r="M100" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L101" s="17">
+        <v>20200419</v>
+      </c>
+      <c r="M101" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B102" t="s">
+        <v>300</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L102" s="17">
+        <v>20200419</v>
+      </c>
+      <c r="M102" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
+        <v>301</v>
+      </c>
+      <c r="B103" t="s">
+        <v>302</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L103" s="17">
+        <v>20200419</v>
+      </c>
+      <c r="M103" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" t="s">
+        <v>304</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L104" s="17">
+        <v>20200419</v>
+      </c>
+      <c r="M104" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" t="s">
+        <v>306</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L105" s="17">
+        <v>20200419</v>
+      </c>
+      <c r="M105" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106" t="s">
+        <v>308</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="L106" s="17">
+        <v>20200419</v>
+      </c>
+      <c r="M106" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="H107" s="17"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M97" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:M97">
     <filterColumn colId="7">
       <filters>
         <filter val="（拉升）洗盘"/>
+        <filter val="（拉升）洗盘 涨幅超过20% 不参与"/>
         <filter val="拉升"/>
       </filters>
     </filterColumn>
@@ -4650,21 +4847,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>201</v>
       </c>
@@ -4687,7 +4884,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="11">
         <v>43920</v>
       </c>
@@ -4710,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="11">
         <v>43921</v>
       </c>
@@ -4733,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="11">
         <v>43922</v>
       </c>
@@ -4756,7 +4953,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="11">
         <v>43923</v>
       </c>
@@ -4776,11 +4973,11 @@
         <v>19.79</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:G24" si="0">(F5-E5)/E5</f>
+        <f t="shared" ref="G5:G28" si="0">(F5-E5)/E5</f>
         <v>0.10558659217877099</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>43923</v>
       </c>
@@ -4804,7 +5001,7 @@
         <v>-6.4761904761904729E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>43924</v>
       </c>
@@ -4828,7 +5025,7 @@
         <v>6.1589403973510037E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="11">
         <v>43928</v>
       </c>
@@ -4852,7 +5049,7 @@
         <v>8.5470085470085472E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="11">
         <v>43928</v>
       </c>
@@ -4876,7 +5073,7 @@
         <v>9.6101829753381052E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="11">
         <v>43929</v>
       </c>
@@ -4900,7 +5097,7 @@
         <v>-1.7560975609756072E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="11">
         <v>43929</v>
       </c>
@@ -4924,7 +5121,7 @@
         <v>4.0816326530612346E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>43929</v>
       </c>
@@ -4948,7 +5145,7 @@
         <v>7.3417721518987344E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>43929</v>
       </c>
@@ -4972,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>43929</v>
       </c>
@@ -4996,7 +5193,7 @@
         <v>7.8753076292042729E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>43930</v>
       </c>
@@ -5020,7 +5217,7 @@
         <v>5.9431524547803496E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>43930</v>
       </c>
@@ -5044,7 +5241,7 @@
         <v>3.195792880258911E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="E17">
@@ -5058,7 +5255,7 @@
         <v>0.28358208955223874</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="E18">
         <v>11.9</v>
       </c>
@@ -5070,7 +5267,7 @@
         <v>7.5630252100840359E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="E19">
         <v>26.65</v>
       </c>
@@ -5082,7 +5279,7 @@
         <v>0.15947467166979362</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="E20">
         <v>16.75</v>
       </c>
@@ -5094,7 +5291,7 @@
         <v>0.31820895522388049</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="E21">
         <v>6.4</v>
       </c>
@@ -5106,7 +5303,7 @@
         <v>0.21874999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="E22">
         <v>9.07</v>
       </c>
@@ -5118,7 +5315,7 @@
         <v>0.21278941565600878</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="E23">
         <v>14.2</v>
       </c>
@@ -5130,7 +5327,7 @@
         <v>0.12957746478873239</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="E24">
         <v>10</v>
       </c>
@@ -5140,6 +5337,54 @@
       <c r="G24" s="12">
         <f t="shared" si="0"/>
         <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="E25">
+        <v>14.2</v>
+      </c>
+      <c r="F25">
+        <v>15.2</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="0"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="E26">
+        <v>15.2</v>
+      </c>
+      <c r="F26">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="0"/>
+        <v>7.8947368421052586E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="E27">
+        <v>72.2</v>
+      </c>
+      <c r="F27">
+        <v>89</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="0"/>
+        <v>0.23268698060941823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="E28">
+        <v>11.35</v>
+      </c>
+      <c r="F28">
+        <v>15.3</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="0"/>
+        <v>0.34801762114537454</v>
       </c>
     </row>
   </sheetData>
@@ -5150,39 +5395,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="81">
       <c r="A1" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="202.5">
       <c r="A3" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="135">
       <c r="A6" s="7" t="s">
         <v>195</v>
       </c>
@@ -5195,36 +5440,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="256.5">
       <c r="A2" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="135">
       <c r="A6" s="15" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20358"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20774A6D-05A6-49FD-9EA5-0C3235667370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
@@ -13,14 +19,14 @@
     <sheet name="选股条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$106</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="313">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -1007,10 +1013,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>（拉升）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>华天酒店</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1087,14 +1089,6 @@
   </si>
   <si>
     <t>洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（拉升）洗盘 涨幅超过20% 不参与</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（拉升）洗盘 日线没站上250线</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1185,15 +1179,35 @@
     <t>拉升</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>盐津铺子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002847</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600396</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拉升）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1905,24 +1919,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1937,15 +1951,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1962,7 +1976,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2004,7 +2018,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2036,9 +2050,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2070,6 +2102,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2245,15 +2295,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+      <selection activeCell="N108" sqref="A74:N108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
@@ -2266,7 +2316,7 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27">
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2357,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2324,7 +2374,7 @@
         <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>153</v>
@@ -2336,7 +2386,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2356,7 +2406,7 @@
         <v>135</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>150</v>
@@ -2368,7 +2418,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2391,7 +2441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2420,7 +2470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2443,7 +2493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2475,7 +2525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2489,7 +2539,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>153</v>
@@ -2501,7 +2551,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2521,7 +2571,7 @@
         <v>135</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>150</v>
@@ -2530,7 +2580,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2544,7 +2594,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>150</v>
@@ -2556,7 +2606,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2576,7 +2626,7 @@
         <v>138</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>150</v>
@@ -2585,7 +2635,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2602,7 +2652,7 @@
         <v>169</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>150</v>
@@ -2614,7 +2664,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2631,7 +2681,7 @@
         <v>134</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>150</v>
@@ -2643,7 +2693,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2663,7 +2713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2683,7 +2733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2703,7 +2753,7 @@
         <v>135</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>171</v>
@@ -2712,7 +2762,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2741,7 +2791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2758,7 +2808,7 @@
         <v>134</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>153</v>
@@ -2770,7 +2820,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2793,7 +2843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2813,7 +2863,7 @@
         <v>136</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>153</v>
@@ -2825,7 +2875,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2842,7 +2892,7 @@
         <v>134</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>153</v>
@@ -2854,7 +2904,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2874,13 +2924,13 @@
         <v>138</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2897,7 +2947,7 @@
         <v>134</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>153</v>
@@ -2909,7 +2959,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2926,7 +2976,7 @@
         <v>134</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>150</v>
@@ -2938,7 +2988,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2967,7 +3017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2984,7 +3034,7 @@
         <v>134</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>153</v>
@@ -2996,7 +3046,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
@@ -3016,7 +3066,7 @@
         <v>135</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>150</v>
@@ -3028,7 +3078,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
@@ -3048,7 +3098,7 @@
         <v>137</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>153</v>
@@ -3060,7 +3110,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -3077,7 +3127,7 @@
         <v>132</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>150</v>
@@ -3089,7 +3139,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3109,7 +3159,7 @@
         <v>135</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>150</v>
@@ -3121,7 +3171,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3141,7 +3191,7 @@
         <v>135</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>150</v>
@@ -3150,7 +3200,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
@@ -3170,7 +3220,7 @@
         <v>138</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>153</v>
@@ -3182,7 +3232,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
@@ -3199,7 +3249,7 @@
         <v>132</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>153</v>
@@ -3211,7 +3261,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3231,7 +3281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3251,7 +3301,7 @@
         <v>135</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>150</v>
@@ -3263,7 +3313,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3283,7 +3333,7 @@
         <v>136</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>150</v>
@@ -3292,7 +3342,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -3309,7 +3359,7 @@
         <v>134</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>153</v>
@@ -3321,7 +3371,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -3338,7 +3388,7 @@
         <v>132</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>150</v>
@@ -3350,7 +3400,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -3370,7 +3420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -3390,7 +3440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3410,7 +3460,7 @@
         <v>137</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>150</v>
@@ -3422,7 +3472,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -3442,7 +3492,7 @@
         <v>135</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>150</v>
@@ -3451,7 +3501,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -3477,7 +3527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -3509,7 +3559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -3526,7 +3576,7 @@
         <v>169</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>150</v>
@@ -3538,7 +3588,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3561,7 +3611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -3584,7 +3634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -3601,7 +3651,7 @@
         <v>132</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>150</v>
@@ -3610,7 +3660,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>78</v>
       </c>
@@ -3630,7 +3680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -3653,7 +3703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3676,7 +3726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3696,7 +3746,7 @@
         <v>135</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>150</v>
@@ -3705,7 +3755,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -3722,7 +3772,7 @@
         <v>131</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>150</v>
@@ -3731,7 +3781,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -3751,7 +3801,7 @@
         <v>136</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>150</v>
@@ -3763,7 +3813,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
@@ -3780,7 +3830,7 @@
         <v>131</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>150</v>
@@ -3792,7 +3842,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -3809,7 +3859,7 @@
         <v>131</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" t="s">
@@ -3819,7 +3869,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>89</v>
       </c>
@@ -3845,7 +3895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -3862,7 +3912,7 @@
         <v>134</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>150</v>
@@ -3874,7 +3924,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -3900,7 +3950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -3919,7 +3969,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>174</v>
@@ -3928,7 +3978,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -3947,7 +3997,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>174</v>
@@ -3956,7 +4006,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -3975,7 +4025,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>174</v>
@@ -3984,7 +4034,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>180</v>
       </c>
@@ -4003,7 +4053,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>174</v>
@@ -4012,7 +4062,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>182</v>
       </c>
@@ -4031,7 +4081,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>174</v>
@@ -4040,7 +4090,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>184</v>
       </c>
@@ -4059,7 +4109,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>174</v>
@@ -4068,7 +4118,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -4087,7 +4137,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>174</v>
@@ -4096,7 +4146,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
@@ -4117,7 +4167,7 @@
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>174</v>
@@ -4126,7 +4176,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -4145,7 +4195,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>174</v>
@@ -4154,7 +4204,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>224</v>
       </c>
@@ -4171,10 +4221,10 @@
         <v>227</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" hidden="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>228</v>
       </c>
@@ -4197,7 +4247,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>178</v>
       </c>
@@ -4220,7 +4270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>180</v>
       </c>
@@ -4243,7 +4293,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>229</v>
       </c>
@@ -4253,7 +4303,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L73" s="2">
         <v>20200414</v>
@@ -4262,7 +4312,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>118</v>
       </c>
@@ -4272,7 +4322,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="L74" s="2">
         <v>20200414</v>
@@ -4281,7 +4331,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
@@ -4304,7 +4354,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
@@ -4327,7 +4377,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>230</v>
       </c>
@@ -4350,7 +4400,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>237</v>
       </c>
@@ -4369,7 +4419,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>241</v>
       </c>
@@ -4392,7 +4442,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>242</v>
       </c>
@@ -4415,7 +4465,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>243</v>
       </c>
@@ -4429,7 +4479,7 @@
         <v>227</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L81" s="2">
         <v>20200414</v>
@@ -4438,12 +4488,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>258</v>
@@ -4455,12 +4505,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H83" s="17" t="s">
         <v>258</v>
@@ -4472,7 +4522,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>245</v>
       </c>
@@ -4480,7 +4530,7 @@
         <v>259</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="L84" s="2">
         <v>20200414</v>
@@ -4489,12 +4539,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>258</v>
@@ -4506,7 +4556,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>246</v>
       </c>
@@ -4523,7 +4573,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>247</v>
       </c>
@@ -4540,9 +4590,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>261</v>
@@ -4557,7 +4607,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>248</v>
       </c>
@@ -4574,12 +4624,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>258</v>
@@ -4591,31 +4641,31 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="H91" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="17" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" hidden="1">
-      <c r="A92" s="17" t="s">
+      <c r="B92" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="17" t="s">
+      <c r="B93" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="B93" s="17" t="s">
-        <v>273</v>
-      </c>
       <c r="H93" s="17" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="L93" s="17">
         <v>20200414</v>
@@ -4624,48 +4674,48 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="L97" s="17">
         <v>20200416</v>
@@ -4674,15 +4724,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
-      <c r="A98" t="s">
-        <v>291</v>
-      </c>
-      <c r="B98" t="s">
-        <v>290</v>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L98" s="17">
         <v>20200417</v>
@@ -4691,32 +4741,32 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H99" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L99" s="17">
         <v>20200417</v>
       </c>
       <c r="M99" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A100" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" t="s">
-        <v>297</v>
-      </c>
-      <c r="B100" t="s">
-        <v>298</v>
+      <c r="B100" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="L100">
         <v>20200419</v>
@@ -4725,7 +4775,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>64</v>
       </c>
@@ -4733,7 +4783,7 @@
         <v>65</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L101" s="17">
         <v>20200419</v>
@@ -4742,15 +4792,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
-      <c r="A102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B102" t="s">
-        <v>300</v>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A102" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="L102" s="17">
         <v>20200419</v>
@@ -4759,15 +4809,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="L103" s="17">
         <v>20200419</v>
@@ -4776,15 +4826,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B104" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="L104" s="17">
         <v>20200419</v>
@@ -4793,15 +4843,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B105" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="L105" s="17">
         <v>20200419</v>
@@ -4810,15 +4860,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B106" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="L106" s="17">
         <v>20200419</v>
@@ -4827,15 +4877,44 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
-      <c r="H107" s="17"/>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A107" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="L107" s="17">
+        <v>20200420</v>
+      </c>
+      <c r="M107" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A108" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H108" t="s">
+        <v>312</v>
+      </c>
+      <c r="L108" s="17">
+        <v>20200420</v>
+      </c>
+      <c r="M108" s="17" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M97">
+  <autoFilter ref="A1:M106" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7">
       <filters>
-        <filter val="（拉升）洗盘"/>
-        <filter val="（拉升）洗盘 涨幅超过20% 不参与"/>
         <filter val="拉升"/>
       </filters>
     </filterColumn>
@@ -4847,21 +4926,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>201</v>
       </c>
@@ -4884,7 +4963,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>43920</v>
       </c>
@@ -4907,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>43921</v>
       </c>
@@ -4930,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>43922</v>
       </c>
@@ -4953,7 +5032,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>43923</v>
       </c>
@@ -4977,7 +5056,7 @@
         <v>0.10558659217877099</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>43923</v>
       </c>
@@ -5001,7 +5080,7 @@
         <v>-6.4761904761904729E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>43924</v>
       </c>
@@ -5025,7 +5104,7 @@
         <v>6.1589403973510037E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>43928</v>
       </c>
@@ -5049,7 +5128,7 @@
         <v>8.5470085470085472E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>43928</v>
       </c>
@@ -5073,7 +5152,7 @@
         <v>9.6101829753381052E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>43929</v>
       </c>
@@ -5097,7 +5176,7 @@
         <v>-1.7560975609756072E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>43929</v>
       </c>
@@ -5121,7 +5200,7 @@
         <v>4.0816326530612346E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>43929</v>
       </c>
@@ -5145,7 +5224,7 @@
         <v>7.3417721518987344E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>43929</v>
       </c>
@@ -5169,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>43929</v>
       </c>
@@ -5193,7 +5272,7 @@
         <v>7.8753076292042729E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>43930</v>
       </c>
@@ -5217,7 +5296,7 @@
         <v>5.9431524547803496E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>43930</v>
       </c>
@@ -5241,7 +5320,7 @@
         <v>3.195792880258911E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="E17">
@@ -5255,7 +5334,7 @@
         <v>0.28358208955223874</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E18">
         <v>11.9</v>
       </c>
@@ -5267,7 +5346,7 @@
         <v>7.5630252100840359E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E19">
         <v>26.65</v>
       </c>
@@ -5279,7 +5358,7 @@
         <v>0.15947467166979362</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E20">
         <v>16.75</v>
       </c>
@@ -5291,7 +5370,7 @@
         <v>0.31820895522388049</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E21">
         <v>6.4</v>
       </c>
@@ -5303,7 +5382,7 @@
         <v>0.21874999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E22">
         <v>9.07</v>
       </c>
@@ -5315,7 +5394,7 @@
         <v>0.21278941565600878</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <v>14.2</v>
       </c>
@@ -5327,7 +5406,7 @@
         <v>0.12957746478873239</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E24">
         <v>10</v>
       </c>
@@ -5339,7 +5418,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E25">
         <v>14.2</v>
       </c>
@@ -5351,7 +5430,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E26">
         <v>15.2</v>
       </c>
@@ -5363,7 +5442,7 @@
         <v>7.8947368421052586E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E27">
         <v>72.2</v>
       </c>
@@ -5375,7 +5454,7 @@
         <v>0.23268698060941823</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <v>11.35</v>
       </c>
@@ -5395,39 +5474,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="81">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="202.5">
+    <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135">
+    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>195</v>
       </c>
@@ -5440,41 +5519,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="256.5">
+    <row r="2" spans="1:1" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135">
+    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20774A6D-05A6-49FD-9EA5-0C3235667370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24567411-9358-4FFB-B22E-90F9DE523CB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="选股条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="330">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -1176,10 +1176,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>盐津铺子</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1198,6 +1194,62 @@
   <si>
     <t>（拉升）洗盘</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获利了结</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002421</t>
+  </si>
+  <si>
+    <t>达实智能</t>
+  </si>
+  <si>
+    <t>SZ002061</t>
+  </si>
+  <si>
+    <t>浙江交科</t>
+  </si>
+  <si>
+    <t>SZ000019</t>
+  </si>
+  <si>
+    <t>深粮控股</t>
+  </si>
+  <si>
+    <t>SZ002883</t>
+  </si>
+  <si>
+    <t>中设股份</t>
+  </si>
+  <si>
+    <t>SZ002809</t>
+  </si>
+  <si>
+    <t>红墙股份</t>
+  </si>
+  <si>
+    <t>SZ002956</t>
+  </si>
+  <si>
+    <t>西麦食品</t>
+  </si>
+  <si>
+    <t>SH603378</t>
+  </si>
+  <si>
+    <t>亚士创能</t>
+  </si>
+  <si>
+    <t>SZ002890</t>
+  </si>
+  <si>
+    <t>弘宇股份</t>
   </si>
 </sst>
 </file>
@@ -2297,10 +2349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N108" sqref="A74:N108"/>
+      <selection activeCell="A78" sqref="A78:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4312,7 +4364,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>118</v>
       </c>
@@ -4322,7 +4374,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L74" s="2">
         <v>20200414</v>
@@ -4522,7 +4574,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>245</v>
       </c>
@@ -4530,7 +4582,7 @@
         <v>259</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="L84" s="2">
         <v>20200414</v>
@@ -4707,7 +4759,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>284</v>
       </c>
@@ -4715,7 +4767,7 @@
         <v>283</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="L97" s="17">
         <v>20200416</v>
@@ -4732,7 +4784,7 @@
         <v>287</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L98" s="17">
         <v>20200417</v>
@@ -4834,7 +4886,7 @@
         <v>301</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="L104" s="17">
         <v>20200419</v>
@@ -4843,7 +4895,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -4851,7 +4903,7 @@
         <v>303</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="L105" s="17">
         <v>20200419</v>
@@ -4879,13 +4931,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L107" s="17">
         <v>20200420</v>
@@ -4896,13 +4948,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H108" t="s">
         <v>311</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H108" t="s">
-        <v>312</v>
       </c>
       <c r="L108" s="17">
         <v>20200420</v>
@@ -4911,10 +4963,147 @@
         <v>232</v>
       </c>
     </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A109" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L109" s="17">
+        <v>20200421</v>
+      </c>
+      <c r="M109" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A110" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L110" s="17">
+        <v>20200421</v>
+      </c>
+      <c r="M110" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A111" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L111" s="17">
+        <v>20200421</v>
+      </c>
+      <c r="M111" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A112" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L112" s="17">
+        <v>20200421</v>
+      </c>
+      <c r="M112" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A113" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L113" s="17">
+        <v>20200421</v>
+      </c>
+      <c r="M113" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A114" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L114" s="17">
+        <v>20200421</v>
+      </c>
+      <c r="M114" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A115" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L115" s="17">
+        <v>20200421</v>
+      </c>
+      <c r="M115" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A116" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="L116" s="17">
+        <v>20200421</v>
+      </c>
+      <c r="M116" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M106" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:M108" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7">
       <filters>
+        <filter val="（拉升）洗盘"/>
         <filter val="拉升"/>
       </filters>
     </filterColumn>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20358"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24567411-9358-4FFB-B22E-90F9DE523CB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
@@ -19,14 +13,14 @@
     <sheet name="选股条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$116</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="344">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -681,6 +675,529 @@
 	a.分时有一个macd背驰
 	b.第一次突破macd，碰到分时均线
 	c.回调就是2买，等再一次碰到分时均线时进场，突破分时均线要有大买单进场</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天两板</t>
+  </si>
+  <si>
+    <t>3天两板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入股票</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣志电器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪贝电气</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠发食品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中远海科</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙钢股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海洗霸</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>深科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未名医药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西陇科学</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>维力医疗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫信康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>至正股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股条件：</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹码突破四要素：
+1、当天的股价收出一根阳线；（突破箱体震荡的平台），阳线的幅度为7%以上（机构才能拉出7%以上阳线的能力）；
+2、当天的收盘价突破最长一根筹码，要求收盘股价大于最长筹码的价格；
+3、获利比例：表明机构最长筹码的获利程度，获利的比率要求在90-100之间，获利的比率越大越好。
+4、集中度：要求在10以下。如果2个集中度都在10以下最好，至少保证一个在10以下。
+5、筹码二次突破，获利比例90-100%,集中度90%/70% ，至少一个小于20，集中度越小越好，越小表示筹码越集中。（2个都小于20最佳）。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">卖出预备条件:
+1.按照筹码，主力在拉升阶段，或者对敲阶段不卖出，只有在主力洗盘，加仓或者出货的时候卖出
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600303</t>
+  </si>
+  <si>
+    <t>SZ002864</t>
+  </si>
+  <si>
+    <t>盘龙药业</t>
+  </si>
+  <si>
+    <t>不满足</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未跌破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002931</t>
+  </si>
+  <si>
+    <t>SZ002581</t>
+  </si>
+  <si>
+    <t>SH603867</t>
+  </si>
+  <si>
+    <t>选出时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600609</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股做T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股做T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002329</t>
+  </si>
+  <si>
+    <t>SH603982</t>
+  </si>
+  <si>
+    <t>SH603109</t>
+  </si>
+  <si>
+    <t>SZ002262</t>
+  </si>
+  <si>
+    <t>SH600268</t>
+  </si>
+  <si>
+    <t>SH600527</t>
+  </si>
+  <si>
+    <t>SH603059</t>
+  </si>
+  <si>
+    <t>SH603316</t>
+  </si>
+  <si>
+    <t>锋龙股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>省广集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>以岭药业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尔股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫信康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新化股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇氏集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神驰机电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电南自</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍加洁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昭衍新药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南高纤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚邦股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（加仓）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华天酒店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩华药业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（加仓）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002030</t>
+  </si>
+  <si>
+    <t>SZ002437</t>
+  </si>
+  <si>
+    <t>誉衡药业</t>
+  </si>
+  <si>
+    <t>SZ002644</t>
+  </si>
+  <si>
+    <t>SZ002826</t>
+  </si>
+  <si>
+    <t>达安基因</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛慈制药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>易明医药</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美尔雅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游资票</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（换庄）拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603127</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登海种业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002041</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月9日涨幅大于7% 4月10日阳线 突破前高 非创业板 非新股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南极电商</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002127</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>良信电器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>换庄后的拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002706</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖股选股条件：
+3天2板 非创业板 非新股 非ST
+预备妖股选股条件：
+非新股 非创业板 近2日有1次涨停 非ST 近5日只有1次涨停
+4月9涨幅超过7% 4月10日高开高走
+从突破开始，涨幅超过20%以上的洗盘不参与
+日线站上250
+板块效应：优先级最大
+涨幅不断层 10 9 8 7 6 
+从板块里挑选
+1.当日涨停，突破平台
+2.是否满足筹码突破四要素
+2.第二天观察是否高开，成交量是否放量，如果不是高开，直接删自选，观察当天是否红盘，筹码是否松动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ000779</t>
+  </si>
+  <si>
+    <t>甘咨询</t>
+  </si>
+  <si>
+    <t>SZ002480</t>
+  </si>
+  <si>
+    <t>新筑股份</t>
+  </si>
+  <si>
+    <t>SH603183</t>
+  </si>
+  <si>
+    <t>建研院</t>
+  </si>
+  <si>
+    <t>SH600272</t>
+  </si>
+  <si>
+    <t>SH603105</t>
+  </si>
+  <si>
+    <t>芯能科技</t>
+  </si>
+  <si>
+    <t>SZ000680</t>
+  </si>
+  <si>
+    <t>山推股份</t>
+  </si>
+  <si>
+    <t>突破</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐津铺子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002847</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600396</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（拉升）洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获利了结</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓洗盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002421</t>
+  </si>
+  <si>
+    <t>达实智能</t>
+  </si>
+  <si>
+    <t>SZ002061</t>
+  </si>
+  <si>
+    <t>SZ000019</t>
+  </si>
+  <si>
+    <t>SZ002883</t>
+  </si>
+  <si>
+    <t>SZ002809</t>
+  </si>
+  <si>
+    <t>SZ002956</t>
+  </si>
+  <si>
+    <t>SH603378</t>
+  </si>
+  <si>
+    <t>SZ002890</t>
+  </si>
+  <si>
+    <t>持股做t</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金杯汽车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江交科</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>深粮控股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中设股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红墙股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>西麦食品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚士创能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘宇股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开开实业</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -749,517 +1266,48 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>3天两板</t>
-  </si>
-  <si>
-    <t>3天两板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入股票</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>选股条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>选股日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸣志电器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入价格</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出价格</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪贝电气</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠发食品</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>中远海科</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙钢股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海洗霸</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>深科技</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未名医药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>西陇科学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>维力医疗</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫信康</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>曙光股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>至正股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>选股条件：</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>筹码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>筹码突破四要素：
-1、当天的股价收出一根阳线；（突破箱体震荡的平台），阳线的幅度为7%以上（机构才能拉出7%以上阳线的能力）；
-2、当天的收盘价突破最长一根筹码，要求收盘股价大于最长筹码的价格；
-3、获利比例：表明机构最长筹码的获利程度，获利的比率要求在90-100之间，获利的比率越大越好。
-4、集中度：要求在10以下。如果2个集中度都在10以下最好，至少保证一个在10以下。
-5、筹码二次突破，获利比例90-100%,集中度90%/70% ，至少一个小于20，集中度越小越好，越小表示筹码越集中。（2个都小于20最佳）。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">卖出预备条件:
-1.按照筹码，主力在拉升阶段，或者对敲阶段不卖出，只有在主力洗盘，加仓或者出货的时候卖出
-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH600303</t>
-  </si>
-  <si>
-    <t>SZ002864</t>
-  </si>
-  <si>
-    <t>盘龙药业</t>
-  </si>
-  <si>
-    <t>不满足</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未跌破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002931</t>
-  </si>
-  <si>
-    <t>SZ002581</t>
-  </si>
-  <si>
-    <t>SH603867</t>
-  </si>
-  <si>
-    <t>选出时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出货</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>金杯汽车</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH600609</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股做T</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股做T</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>加仓</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002329</t>
-  </si>
-  <si>
-    <t>SH603982</t>
-  </si>
-  <si>
-    <t>SH603109</t>
-  </si>
-  <si>
-    <t>SZ002262</t>
-  </si>
-  <si>
-    <t>SH600268</t>
-  </si>
-  <si>
-    <t>SH600527</t>
-  </si>
-  <si>
-    <t>SH603059</t>
-  </si>
-  <si>
-    <t>SH603316</t>
-  </si>
-  <si>
-    <t>锋龙股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>省广集团</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>以岭药业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳尔股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫信康</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新化股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇氏集团</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉峰汽车</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>神驰机电</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>国电南自</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>倍加洁</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>昭衍新药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南高纤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>诚邦股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（加仓）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>华天酒店</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩华药业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>曙光股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅科技</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（加仓）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002030</t>
-  </si>
-  <si>
-    <t>SZ002437</t>
-  </si>
-  <si>
-    <t>誉衡药业</t>
-  </si>
-  <si>
-    <t>SZ002644</t>
-  </si>
-  <si>
-    <t>SZ002826</t>
-  </si>
-  <si>
-    <t>达安基因</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛慈制药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>易明医药</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>美尔雅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>游资票</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（换庄）拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH603127</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登海种业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH002041</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月9日涨幅大于7% 4月10日阳线 突破前高 非创业板 非新股</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>南极电商</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH002127</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>良信电器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>换庄后的拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH002706</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖股选股条件：
-3天2板 非创业板 非新股 非ST
-预备妖股选股条件：
-非新股 非创业板 近2日有1次涨停 非ST 近5日只有1次涨停
-4月9涨幅超过7% 4月10日高开高走
-从突破开始，涨幅超过20%以上的洗盘不参与
-日线站上250
-板块效应：优先级最大
-涨幅不断层 10 9 8 7 6 
-从板块里挑选
-1.当日涨停，突破平台
-2.是否满足筹码突破四要素
-2.第二天观察是否高开，成交量是否放量，如果不是高开，直接删自选，观察当天是否红盘，筹码是否松动</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ000779</t>
-  </si>
-  <si>
-    <t>甘咨询</t>
-  </si>
-  <si>
-    <t>SZ002480</t>
-  </si>
-  <si>
-    <t>新筑股份</t>
-  </si>
-  <si>
-    <t>SH603183</t>
-  </si>
-  <si>
-    <t>建研院</t>
-  </si>
-  <si>
-    <t>SH600272</t>
-  </si>
-  <si>
-    <t>开开实业</t>
-  </si>
-  <si>
-    <t>SH603105</t>
-  </si>
-  <si>
-    <t>芯能科技</t>
-  </si>
-  <si>
-    <t>SZ000680</t>
-  </si>
-  <si>
-    <t>山推股份</t>
-  </si>
-  <si>
-    <t>突破</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>盐津铺子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH002847</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>金山股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH600396</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（拉升）洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>获利了结</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>加仓洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002421</t>
-  </si>
-  <si>
-    <t>达实智能</t>
-  </si>
-  <si>
-    <t>SZ002061</t>
-  </si>
-  <si>
-    <t>浙江交科</t>
-  </si>
-  <si>
-    <t>SZ000019</t>
-  </si>
-  <si>
-    <t>深粮控股</t>
-  </si>
-  <si>
-    <t>SZ002883</t>
-  </si>
-  <si>
-    <t>中设股份</t>
-  </si>
-  <si>
-    <t>SZ002809</t>
-  </si>
-  <si>
-    <t>红墙股份</t>
-  </si>
-  <si>
-    <t>SZ002956</t>
-  </si>
-  <si>
-    <t>西麦食品</t>
-  </si>
-  <si>
-    <t>SH603378</t>
-  </si>
-  <si>
-    <t>亚士创能</t>
-  </si>
-  <si>
-    <t>SZ002890</t>
-  </si>
-  <si>
-    <t>弘宇股份</t>
+    <t>4月21日涨停 今日高开收红 非st 非创业 非科创 非新股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002375</t>
+  </si>
+  <si>
+    <t>亚厦股份</t>
+  </si>
+  <si>
+    <t>SH600812</t>
+  </si>
+  <si>
+    <t>华北制药</t>
+  </si>
+  <si>
+    <t>SH601789</t>
+  </si>
+  <si>
+    <t>宁波建工</t>
+  </si>
+  <si>
+    <t>SH603321</t>
+  </si>
+  <si>
+    <t>梅轮电梯</t>
+  </si>
+  <si>
+    <t>SH603777</t>
+  </si>
+  <si>
+    <t>来伊份</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1911,7 +1959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1969,26 +2017,29 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -2003,32 +2054,24 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2070,7 +2113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2102,27 +2145,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2154,24 +2179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2347,15 +2354,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A116"/>
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
@@ -2368,7 +2375,7 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2403,13 +2410,13 @@
         <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2426,7 +2433,7 @@
         <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>153</v>
@@ -2438,7 +2445,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2458,7 +2465,7 @@
         <v>135</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>150</v>
@@ -2470,7 +2477,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>168</v>
@@ -2493,7 +2500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2513,7 +2520,7 @@
         <v>102</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>168</v>
@@ -2522,7 +2529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2536,7 +2543,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>168</v>
@@ -2545,7 +2552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2568,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>168</v>
@@ -2577,7 +2584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>153</v>
@@ -2603,7 +2610,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2623,7 +2630,7 @@
         <v>135</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>150</v>
@@ -2632,7 +2639,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2646,7 +2653,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>150</v>
@@ -2658,7 +2665,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2678,7 +2685,7 @@
         <v>138</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>150</v>
@@ -2687,7 +2694,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2704,7 +2711,7 @@
         <v>169</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>150</v>
@@ -2716,7 +2723,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2733,7 +2740,7 @@
         <v>134</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>150</v>
@@ -2745,7 +2752,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2759,13 +2766,13 @@
         <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M14" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2779,13 +2786,13 @@
         <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M15" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2805,7 +2812,7 @@
         <v>135</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>171</v>
@@ -2814,7 +2821,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2837,13 +2844,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M17" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>134</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>153</v>
@@ -2872,7 +2879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2889,13 +2896,13 @@
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M19" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>136</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>153</v>
@@ -2927,7 +2934,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2944,7 +2951,7 @@
         <v>134</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>153</v>
@@ -2956,7 +2963,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2976,13 +2983,13 @@
         <v>138</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2999,7 +3006,7 @@
         <v>134</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>153</v>
@@ -3011,7 +3018,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>134</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>150</v>
@@ -3040,7 +3047,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3063,13 +3070,13 @@
         <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M25" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -3086,7 +3093,7 @@
         <v>134</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>153</v>
@@ -3098,7 +3105,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
@@ -3118,7 +3125,7 @@
         <v>135</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>150</v>
@@ -3130,7 +3137,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
@@ -3150,7 +3157,7 @@
         <v>137</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>153</v>
@@ -3162,7 +3169,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -3179,7 +3186,7 @@
         <v>132</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>150</v>
@@ -3191,7 +3198,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3211,7 +3218,7 @@
         <v>135</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>150</v>
@@ -3223,7 +3230,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3243,7 +3250,7 @@
         <v>135</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>150</v>
@@ -3252,7 +3259,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>138</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>153</v>
@@ -3284,7 +3291,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" hidden="1">
       <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
@@ -3301,7 +3308,7 @@
         <v>132</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>153</v>
@@ -3313,7 +3320,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3327,13 +3334,13 @@
         <v>32</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M34" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3353,7 +3360,7 @@
         <v>135</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>150</v>
@@ -3365,7 +3372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3385,7 +3392,7 @@
         <v>136</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>150</v>
@@ -3394,7 +3401,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -3411,7 +3418,7 @@
         <v>134</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>153</v>
@@ -3423,7 +3430,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -3440,7 +3447,7 @@
         <v>132</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>150</v>
@@ -3452,7 +3459,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -3466,13 +3473,13 @@
         <v>32</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -3486,13 +3493,13 @@
         <v>32</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M40" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3512,7 +3519,7 @@
         <v>137</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>150</v>
@@ -3524,7 +3531,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -3544,7 +3551,7 @@
         <v>135</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>150</v>
@@ -3553,7 +3560,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -3573,13 +3580,13 @@
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M43" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -3596,7 +3603,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>150</v>
@@ -3611,7 +3618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>169</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>150</v>
@@ -3640,7 +3647,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3657,13 +3664,13 @@
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M46" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -3680,13 +3687,13 @@
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M47" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -3703,7 +3710,7 @@
         <v>132</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>150</v>
@@ -3712,7 +3719,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" s="2" t="s">
         <v>78</v>
       </c>
@@ -3726,13 +3733,13 @@
         <v>32</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M49" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -3749,13 +3756,13 @@
         <v>34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M50" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3772,13 +3779,13 @@
         <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M51" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3798,7 +3805,7 @@
         <v>135</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>150</v>
@@ -3807,7 +3814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -3824,7 +3831,7 @@
         <v>131</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>150</v>
@@ -3833,7 +3840,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -3853,7 +3860,7 @@
         <v>136</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>150</v>
@@ -3865,7 +3872,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
@@ -3882,7 +3889,7 @@
         <v>131</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>150</v>
@@ -3894,7 +3901,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -3911,7 +3918,7 @@
         <v>131</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" t="s">
@@ -3921,7 +3928,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" s="2" t="s">
         <v>89</v>
       </c>
@@ -3938,7 +3945,7 @@
         <v>131</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>150</v>
@@ -3947,7 +3954,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -3964,7 +3971,7 @@
         <v>134</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>150</v>
@@ -3976,7 +3983,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" hidden="1">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -3996,13 +4003,13 @@
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M59" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4021,7 +4028,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>174</v>
@@ -4030,7 +4037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4049,7 +4056,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>174</v>
@@ -4058,7 +4065,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4077,7 +4084,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>174</v>
@@ -4086,7 +4093,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" s="2" t="s">
         <v>180</v>
       </c>
@@ -4105,7 +4112,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>174</v>
@@ -4114,7 +4121,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" s="2" t="s">
         <v>182</v>
       </c>
@@ -4133,7 +4140,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>174</v>
@@ -4142,7 +4149,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" s="2" t="s">
         <v>184</v>
       </c>
@@ -4161,7 +4168,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>174</v>
@@ -4170,7 +4177,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -4189,7 +4196,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>174</v>
@@ -4198,7 +4205,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
@@ -4219,7 +4226,7 @@
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>174</v>
@@ -4228,7 +4235,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -4247,7 +4254,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>174</v>
@@ -4256,50 +4263,50 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1">
+      <c r="A70" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="B70" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L70" s="2">
         <v>20200414</v>
       </c>
       <c r="M70" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="2" t="s">
         <v>178</v>
       </c>
@@ -4310,10 +4317,10 @@
         <v>34</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L71" s="2">
         <v>20200414</v>
@@ -4322,512 +4329,512 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L72" s="2">
         <v>20200414</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L73" s="2">
         <v>20200414</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L74" s="2">
         <v>20200414</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L75" s="2">
         <v>20200414</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L76" s="2">
         <v>20200414</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L77" s="2">
         <v>20200414</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>237</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>320</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="H78" s="2" t="s">
-        <v>235</v>
+      <c r="H78" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="L78" s="2">
         <v>20200414</v>
       </c>
       <c r="M78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" hidden="1">
+      <c r="A79" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="L79" s="2">
         <v>20200414</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L80" s="2">
         <v>20200414</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L81" s="2">
         <v>20200414</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L82" s="2">
         <v>20200414</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L83" s="2">
         <v>20200414</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L84" s="2">
         <v>20200414</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L85" s="2">
         <v>20200414</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L86" s="2">
         <v>20200414</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L87" s="2">
         <v>20200414</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L88" s="2">
         <v>20200414</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L89" s="2">
         <v>20200414</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L90" s="2">
         <v>20200414</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1">
       <c r="H91" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1">
+      <c r="A92" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1">
+      <c r="A93" s="17" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="17" t="s">
+      <c r="B93" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>272</v>
-      </c>
       <c r="H93" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L93" s="17">
         <v>20200414</v>
       </c>
       <c r="M93" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H96" s="2" t="s">
+    </row>
+    <row r="97" spans="1:13" hidden="1">
+      <c r="A97" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>284</v>
-      </c>
-      <c r="B97" t="s">
-        <v>283</v>
-      </c>
       <c r="H97" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L97" s="17">
         <v>20200416</v>
       </c>
       <c r="M97" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="L98" s="17">
         <v>20200417</v>
       </c>
       <c r="M98" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H99" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L99" s="17">
         <v>20200417</v>
       </c>
       <c r="M99" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L100">
         <v>20200419</v>
       </c>
       <c r="M100" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" t="s">
         <v>64</v>
       </c>
@@ -4835,272 +4842,360 @@
         <v>65</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L101" s="17">
         <v>20200419</v>
       </c>
       <c r="M101" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="L102" s="17">
         <v>20200419</v>
       </c>
       <c r="M102" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L103" s="17">
         <v>20200419</v>
       </c>
       <c r="M103" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>300</v>
-      </c>
-      <c r="B104" t="s">
-        <v>301</v>
+        <v>298</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L104" s="17">
         <v>20200419</v>
       </c>
       <c r="M104" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L105" s="17">
         <v>20200419</v>
       </c>
       <c r="M105" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L106" s="17">
         <v>20200419</v>
       </c>
       <c r="M106" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="L107" s="17">
         <v>20200420</v>
       </c>
       <c r="M107" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H108" t="s">
-        <v>311</v>
+        <v>322</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="L108" s="17">
         <v>20200420</v>
       </c>
       <c r="M108" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L109" s="17">
         <v>20200421</v>
       </c>
       <c r="M109" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L110" s="17">
         <v>20200421</v>
       </c>
       <c r="M110" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L111" s="17">
         <v>20200421</v>
       </c>
       <c r="M111" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="17" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L112" s="17">
         <v>20200421</v>
       </c>
       <c r="M112" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="17" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="L113" s="17">
         <v>20200421</v>
       </c>
       <c r="M113" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="17" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L114" s="17">
         <v>20200421</v>
       </c>
       <c r="M114" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="17" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L115" s="17">
         <v>20200421</v>
       </c>
       <c r="M115" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="17" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L116" s="17">
         <v>20200421</v>
       </c>
       <c r="M116" s="17" t="s">
-        <v>232</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="L117">
+        <v>20200422</v>
+      </c>
+      <c r="M117" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="L118" s="19">
+        <v>20200422</v>
+      </c>
+      <c r="M118" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="L119" s="19">
+        <v>20200422</v>
+      </c>
+      <c r="M119" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="L120" s="19">
+        <v>20200422</v>
+      </c>
+      <c r="M120" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="L121" s="19">
+        <v>20200422</v>
+      </c>
+      <c r="M121" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="H122" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M108" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:M116">
     <filterColumn colId="7">
       <filters>
         <filter val="（拉升）洗盘"/>
@@ -5115,49 +5210,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
         <v>204</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="11">
         <v>43920</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>153</v>
@@ -5175,12 +5270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="11">
         <v>43921</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>153</v>
@@ -5198,18 +5293,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="11">
         <v>43922</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="11">
         <v>43923</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4">
         <v>13.4</v>
@@ -5221,18 +5316,18 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="11">
         <v>43923</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="11">
         <v>43924</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <v>17.899999999999999</v>
@@ -5245,18 +5340,18 @@
         <v>0.10558659217877099</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>43923</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="11">
         <v>43924</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="2">
         <v>15.75</v>
@@ -5269,18 +5364,18 @@
         <v>-6.4761904761904729E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>43924</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="11">
         <v>43928</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7">
         <v>15.1</v>
@@ -5293,18 +5388,18 @@
         <v>6.1589403973510037E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="11">
         <v>43928</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="11">
         <v>43930</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8">
         <v>11.7</v>
@@ -5317,18 +5412,18 @@
         <v>8.5470085470085472E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="11">
         <v>43928</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="11">
         <v>43929</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <v>62.85</v>
@@ -5341,18 +5436,18 @@
         <v>9.6101829753381052E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="11">
         <v>43929</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="11">
         <v>43930</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E10">
         <v>20.5</v>
@@ -5365,18 +5460,18 @@
         <v>-1.7560975609756072E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="11">
         <v>43929</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="11">
         <v>43930</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11">
         <v>14.7</v>
@@ -5389,18 +5484,18 @@
         <v>4.0816326530612346E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>43929</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="11">
         <v>43930</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12">
         <v>7.9</v>
@@ -5413,18 +5508,18 @@
         <v>7.3417721518987344E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>43929</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="11">
         <v>43930</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13">
         <v>20.6</v>
@@ -5437,18 +5532,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>43929</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="11">
         <v>43931</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14">
         <v>12.19</v>
@@ -5461,18 +5556,18 @@
         <v>7.8753076292042729E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>43930</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="11">
         <v>43931</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15">
         <v>3.87</v>
@@ -5485,18 +5580,18 @@
         <v>5.9431524547803496E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>43930</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="11">
         <v>43931</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16">
         <v>24.72</v>
@@ -5509,7 +5604,7 @@
         <v>3.195792880258911E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="E17">
@@ -5523,7 +5618,7 @@
         <v>0.28358208955223874</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="E18">
         <v>11.9</v>
       </c>
@@ -5535,7 +5630,7 @@
         <v>7.5630252100840359E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="E19">
         <v>26.65</v>
       </c>
@@ -5547,7 +5642,7 @@
         <v>0.15947467166979362</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="E20">
         <v>16.75</v>
       </c>
@@ -5559,7 +5654,7 @@
         <v>0.31820895522388049</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="E21">
         <v>6.4</v>
       </c>
@@ -5571,7 +5666,7 @@
         <v>0.21874999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="E22">
         <v>9.07</v>
       </c>
@@ -5583,7 +5678,7 @@
         <v>0.21278941565600878</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="E23">
         <v>14.2</v>
       </c>
@@ -5595,7 +5690,7 @@
         <v>0.12957746478873239</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="E24">
         <v>10</v>
       </c>
@@ -5607,7 +5702,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="E25">
         <v>14.2</v>
       </c>
@@ -5619,7 +5714,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="E26">
         <v>15.2</v>
       </c>
@@ -5631,7 +5726,7 @@
         <v>7.8947368421052586E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="E27">
         <v>72.2</v>
       </c>
@@ -5643,7 +5738,7 @@
         <v>0.23268698060941823</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="E28">
         <v>11.35</v>
       </c>
@@ -5663,41 +5758,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="81">
       <c r="A1" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="202.5">
       <c r="A3" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="135">
       <c r="A6" s="7" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="17" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5708,41 +5808,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="256.5">
+      <c r="A2" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+    <row r="6" spans="1:1" ht="135">
+      <c r="A6" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20358"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26761A49-2EB9-4768-9455-7AE5AAF8D535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
@@ -13,14 +19,14 @@
     <sheet name="选股条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$128</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="358">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -1098,10 +1104,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>盐津铺子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SH002847</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1162,10 +1164,6 @@
   </si>
   <si>
     <t>金山股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1299,15 +1297,65 @@
   <si>
     <t>来伊份</t>
   </si>
+  <si>
+    <t>盐津铺子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH601126</t>
+  </si>
+  <si>
+    <t>四方股份</t>
+  </si>
+  <si>
+    <t>SZ002481</t>
+  </si>
+  <si>
+    <t>双塔食品</t>
+  </si>
+  <si>
+    <t>SZ002492</t>
+  </si>
+  <si>
+    <t>恒基达鑫</t>
+  </si>
+  <si>
+    <t>SZ002104</t>
+  </si>
+  <si>
+    <t>恒宝股份</t>
+  </si>
+  <si>
+    <t>SH600796</t>
+  </si>
+  <si>
+    <t>钱江生化</t>
+  </si>
+  <si>
+    <t>SH603609</t>
+  </si>
+  <si>
+    <t>禾丰牧业</t>
+  </si>
+  <si>
+    <t>SZ002661</t>
+  </si>
+  <si>
+    <t>克明面业</t>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2022,24 +2070,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -2054,24 +2102,32 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2113,7 +2169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2145,9 +2201,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2179,6 +2253,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2354,15 +2446,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
@@ -2375,7 +2467,7 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27">
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2508,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2445,7 +2537,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2477,7 +2569,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2500,7 +2592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2529,7 +2621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2552,7 +2644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2584,7 +2676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2610,7 +2702,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2639,7 +2731,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2665,7 +2757,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2694,7 +2786,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2723,7 +2815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2752,7 +2844,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2772,7 +2864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2792,7 +2884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2821,7 +2913,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +2942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2879,7 +2971,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2902,7 +2994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2934,7 +3026,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2963,7 +3055,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2989,7 +3081,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -3018,7 +3110,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -3047,7 +3139,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3076,7 +3168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -3105,7 +3197,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
@@ -3137,7 +3229,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
@@ -3169,7 +3261,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -3198,7 +3290,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3230,7 +3322,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3259,7 +3351,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
@@ -3291,7 +3383,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
@@ -3320,7 +3412,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3340,7 +3432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3372,7 +3464,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3401,7 +3493,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -3430,7 +3522,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -3459,7 +3551,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -3479,7 +3571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -3499,7 +3591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3531,7 +3623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -3560,7 +3652,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -3586,7 +3678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -3618,7 +3710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -3647,7 +3739,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3670,7 +3762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -3693,7 +3785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -3719,7 +3811,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>78</v>
       </c>
@@ -3739,7 +3831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -3762,7 +3854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3785,7 +3877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3814,7 +3906,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -3840,7 +3932,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -3872,7 +3964,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
@@ -3901,7 +3993,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -3928,7 +4020,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>89</v>
       </c>
@@ -3954,7 +4046,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -3983,7 +4075,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -4009,7 +4101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4037,7 +4129,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4065,7 +4157,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4093,7 +4185,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>180</v>
       </c>
@@ -4121,7 +4213,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>182</v>
       </c>
@@ -4149,7 +4241,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>184</v>
       </c>
@@ -4177,7 +4269,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -4205,7 +4297,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
@@ -4235,7 +4327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -4263,7 +4355,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>223</v>
       </c>
@@ -4283,7 +4375,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>227</v>
       </c>
@@ -4306,7 +4398,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>178</v>
       </c>
@@ -4329,7 +4421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>180</v>
       </c>
@@ -4352,7 +4444,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>228</v>
       </c>
@@ -4371,7 +4463,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>118</v>
       </c>
@@ -4390,7 +4482,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
@@ -4413,7 +4505,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
@@ -4436,7 +4528,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>229</v>
       </c>
@@ -4459,12 +4551,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>235</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -4478,7 +4570,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>239</v>
       </c>
@@ -4501,7 +4593,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>240</v>
       </c>
@@ -4524,7 +4616,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>241</v>
       </c>
@@ -4547,7 +4639,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
@@ -4564,7 +4656,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>242</v>
       </c>
@@ -4581,7 +4673,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>243</v>
       </c>
@@ -4589,7 +4681,7 @@
         <v>257</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L84" s="2">
         <v>20200414</v>
@@ -4598,7 +4690,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>222</v>
       </c>
@@ -4615,7 +4707,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>244</v>
       </c>
@@ -4632,7 +4724,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>245</v>
       </c>
@@ -4649,7 +4741,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>280</v>
       </c>
@@ -4666,7 +4758,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>246</v>
       </c>
@@ -4683,7 +4775,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>72</v>
       </c>
@@ -4700,12 +4792,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="H91" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="17" t="s">
         <v>268</v>
       </c>
@@ -4716,7 +4808,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="17" t="s">
         <v>269</v>
       </c>
@@ -4733,7 +4825,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="17" t="s">
         <v>271</v>
       </c>
@@ -4744,7 +4836,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="17" t="s">
         <v>272</v>
       </c>
@@ -4755,7 +4847,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="17" t="s">
         <v>128</v>
       </c>
@@ -4766,7 +4858,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>282</v>
       </c>
@@ -4774,7 +4866,7 @@
         <v>281</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L97" s="17">
         <v>20200416</v>
@@ -4783,15 +4875,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
         <v>286</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H98" s="17" t="s">
-        <v>321</v>
+      <c r="H98" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="L98" s="17">
         <v>20200417</v>
@@ -4800,7 +4892,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>290</v>
       </c>
@@ -4817,7 +4909,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
         <v>292</v>
       </c>
@@ -4834,7 +4926,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>64</v>
       </c>
@@ -4851,7 +4943,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>294</v>
       </c>
@@ -4859,7 +4951,7 @@
         <v>295</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L102" s="17">
         <v>20200419</v>
@@ -4868,7 +4960,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>296</v>
       </c>
@@ -4885,15 +4977,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>298</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L104" s="17">
         <v>20200419</v>
@@ -4902,7 +4994,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>299</v>
       </c>
@@ -4910,7 +5002,7 @@
         <v>300</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L105" s="17">
         <v>20200419</v>
@@ -4919,7 +5011,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>301</v>
       </c>
@@ -4936,12 +5028,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="H107" s="17" t="s">
         <v>234</v>
@@ -4953,32 +5045,32 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H108" s="19" t="s">
         <v>306</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="H108" s="17" t="s">
-        <v>323</v>
       </c>
       <c r="L108" s="17">
         <v>20200420</v>
       </c>
       <c r="M108" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B109" s="17" t="s">
-        <v>311</v>
-      </c>
       <c r="H109" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L109" s="17">
         <v>20200421</v>
@@ -4987,12 +5079,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H110" s="17" t="s">
         <v>234</v>
@@ -5004,12 +5096,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H111" s="17" t="s">
         <v>234</v>
@@ -5021,15 +5113,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L112" s="17">
         <v>20200421</v>
@@ -5038,15 +5130,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="L113" s="17">
         <v>20200421</v>
@@ -5055,15 +5147,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L114" s="17">
         <v>20200421</v>
@@ -5072,15 +5164,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="H115" s="17" t="s">
-        <v>234</v>
+        <v>327</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="L115" s="17">
         <v>20200421</v>
@@ -5089,12 +5181,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H116" s="17" t="s">
         <v>234</v>
@@ -5106,12 +5198,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>234</v>
@@ -5123,15 +5215,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="L118" s="19">
         <v>20200422</v>
@@ -5140,12 +5232,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H119" s="19" t="s">
         <v>234</v>
@@ -5157,15 +5249,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L120" s="19">
         <v>20200422</v>
@@ -5174,15 +5266,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="L121" s="19">
         <v>20200422</v>
@@ -5191,15 +5283,130 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
-      <c r="H122" s="19"/>
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L122">
+        <v>20200423</v>
+      </c>
+      <c r="M122" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L123" s="19">
+        <v>20200423</v>
+      </c>
+      <c r="M123" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L124" s="19">
+        <v>20200423</v>
+      </c>
+      <c r="M124" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L125" s="19">
+        <v>20200423</v>
+      </c>
+      <c r="M125" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L126" s="19">
+        <v>20200423</v>
+      </c>
+      <c r="M126" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L127" s="19">
+        <v>20200423</v>
+      </c>
+      <c r="M127" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L128" s="19">
+        <v>20200423</v>
+      </c>
+      <c r="M128" s="19" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M116">
+  <autoFilter ref="A1:M128" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7">
       <filters>
         <filter val="（拉升）洗盘"/>
-        <filter val="拉升"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5210,21 +5417,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>200</v>
       </c>
@@ -5247,7 +5454,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>43920</v>
       </c>
@@ -5270,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>43921</v>
       </c>
@@ -5293,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>43922</v>
       </c>
@@ -5316,7 +5523,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>43923</v>
       </c>
@@ -5340,7 +5547,7 @@
         <v>0.10558659217877099</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>43923</v>
       </c>
@@ -5364,7 +5571,7 @@
         <v>-6.4761904761904729E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>43924</v>
       </c>
@@ -5388,7 +5595,7 @@
         <v>6.1589403973510037E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>43928</v>
       </c>
@@ -5412,7 +5619,7 @@
         <v>8.5470085470085472E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>43928</v>
       </c>
@@ -5436,7 +5643,7 @@
         <v>9.6101829753381052E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>43929</v>
       </c>
@@ -5460,7 +5667,7 @@
         <v>-1.7560975609756072E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>43929</v>
       </c>
@@ -5484,7 +5691,7 @@
         <v>4.0816326530612346E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>43929</v>
       </c>
@@ -5508,7 +5715,7 @@
         <v>7.3417721518987344E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>43929</v>
       </c>
@@ -5532,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>43929</v>
       </c>
@@ -5556,7 +5763,7 @@
         <v>7.8753076292042729E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>43930</v>
       </c>
@@ -5580,7 +5787,7 @@
         <v>5.9431524547803496E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>43930</v>
       </c>
@@ -5604,7 +5811,7 @@
         <v>3.195792880258911E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="E17">
@@ -5618,7 +5825,7 @@
         <v>0.28358208955223874</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E18">
         <v>11.9</v>
       </c>
@@ -5630,7 +5837,7 @@
         <v>7.5630252100840359E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E19">
         <v>26.65</v>
       </c>
@@ -5642,7 +5849,7 @@
         <v>0.15947467166979362</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E20">
         <v>16.75</v>
       </c>
@@ -5654,7 +5861,7 @@
         <v>0.31820895522388049</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E21">
         <v>6.4</v>
       </c>
@@ -5666,7 +5873,7 @@
         <v>0.21874999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E22">
         <v>9.07</v>
       </c>
@@ -5678,7 +5885,7 @@
         <v>0.21278941565600878</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E23">
         <v>14.2</v>
       </c>
@@ -5690,7 +5897,7 @@
         <v>0.12957746478873239</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E24">
         <v>10</v>
       </c>
@@ -5702,7 +5909,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E25">
         <v>14.2</v>
       </c>
@@ -5714,7 +5921,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E26">
         <v>15.2</v>
       </c>
@@ -5726,7 +5933,7 @@
         <v>7.8947368421052586E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E27">
         <v>72.2</v>
       </c>
@@ -5738,7 +5945,7 @@
         <v>0.23268698060941823</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <v>11.35</v>
       </c>
@@ -5758,46 +5965,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="81">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="202.5">
+    <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135">
+    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5808,39 +6015,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="256.5">
+    <row r="2" spans="1:1" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135">
+    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>284</v>
       </c>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26761A49-2EB9-4768-9455-7AE5AAF8D535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1B8749-9FE4-4B95-BC9A-B228B7823BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="选股条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="367">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -1156,10 +1156,6 @@
   </si>
   <si>
     <t>金杯汽车</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1345,6 +1341,38 @@
   </si>
   <si>
     <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ000061</t>
+  </si>
+  <si>
+    <t>农 产 品</t>
+  </si>
+  <si>
+    <t>SH603088</t>
+  </si>
+  <si>
+    <t>宁波精达</t>
+  </si>
+  <si>
+    <t>SH601606</t>
+  </si>
+  <si>
+    <t>长城军工</t>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002170</t>
+  </si>
+  <si>
+    <t>芭田股份</t>
+  </si>
+  <si>
+    <t>重点关注</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2007,7 +2035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2066,6 +2094,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2448,10 +2479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K133" sqref="K133"/>
+      <selection activeCell="H78" sqref="H78:H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4551,7 +4582,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -4560,8 +4591,8 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="H78" s="17" t="s">
-        <v>234</v>
+      <c r="H78" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="L78" s="2">
         <v>20200414</v>
@@ -4943,7 +4974,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>294</v>
       </c>
@@ -4951,7 +4982,7 @@
         <v>295</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L102" s="17">
         <v>20200419</v>
@@ -4982,7 +5013,7 @@
         <v>298</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H104" s="17" t="s">
         <v>306</v>
@@ -5028,12 +5059,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H107" s="17" t="s">
         <v>234</v>
@@ -5050,7 +5081,7 @@
         <v>305</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H108" s="19" t="s">
         <v>306</v>
@@ -5084,10 +5115,10 @@
         <v>311</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L110" s="17">
         <v>20200421</v>
@@ -5101,10 +5132,10 @@
         <v>312</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L111" s="17">
         <v>20200421</v>
@@ -5118,7 +5149,7 @@
         <v>313</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H112" s="17" t="s">
         <v>238</v>
@@ -5135,7 +5166,7 @@
         <v>314</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H113" s="17" t="s">
         <v>233</v>
@@ -5152,7 +5183,7 @@
         <v>315</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H114" s="17" t="s">
         <v>233</v>
@@ -5169,7 +5200,7 @@
         <v>316</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H115" s="19" t="s">
         <v>306</v>
@@ -5181,15 +5212,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116" s="17" t="s">
         <v>317</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="H116" s="17" t="s">
-        <v>234</v>
+        <v>327</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="L116" s="17">
         <v>20200421</v>
@@ -5198,15 +5229,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B117" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="B117" s="19" t="s">
-        <v>333</v>
-      </c>
       <c r="H117" s="19" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="L117">
         <v>20200422</v>
@@ -5217,10 +5248,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B118" s="19" t="s">
         <v>334</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>335</v>
       </c>
       <c r="H118" s="19" t="s">
         <v>306</v>
@@ -5232,15 +5263,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B119" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>337</v>
-      </c>
       <c r="H119" s="19" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="L119" s="19">
         <v>20200422</v>
@@ -5251,10 +5282,10 @@
     </row>
     <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B120" s="19" t="s">
         <v>338</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>339</v>
       </c>
       <c r="H120" s="19" t="s">
         <v>233</v>
@@ -5268,10 +5299,10 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B121" s="19" t="s">
         <v>340</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="H121" s="19" t="s">
         <v>306</v>
@@ -5283,15 +5314,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B122" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B122" s="19" t="s">
-        <v>344</v>
-      </c>
       <c r="H122" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L122">
         <v>20200423</v>
@@ -5300,15 +5331,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="B123" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="B123" s="19" t="s">
-        <v>346</v>
-      </c>
       <c r="H123" s="19" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L123" s="19">
         <v>20200423</v>
@@ -5317,15 +5348,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B124" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>348</v>
-      </c>
       <c r="H124" s="19" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L124" s="19">
         <v>20200423</v>
@@ -5334,15 +5365,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B125" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="B125" s="19" t="s">
-        <v>350</v>
-      </c>
       <c r="H125" s="19" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L125" s="19">
         <v>20200423</v>
@@ -5351,15 +5382,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B126" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="B126" s="19" t="s">
-        <v>352</v>
-      </c>
       <c r="H126" s="19" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L126" s="19">
         <v>20200423</v>
@@ -5368,15 +5399,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B127" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>354</v>
-      </c>
       <c r="H127" s="19" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L127" s="19">
         <v>20200423</v>
@@ -5385,15 +5416,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="B128" s="19" t="s">
-        <v>356</v>
-      </c>
       <c r="H128" s="19" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L128" s="19">
         <v>20200423</v>
@@ -5402,11 +5433,80 @@
         <v>231</v>
       </c>
     </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A129" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="H129" t="s">
+        <v>363</v>
+      </c>
+      <c r="L129">
+        <v>20200424</v>
+      </c>
+      <c r="M129" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A130" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="L130" s="19">
+        <v>20200424</v>
+      </c>
+      <c r="M130" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A131" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="L131" s="19">
+        <v>20200424</v>
+      </c>
+      <c r="M131" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A132" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="L132" s="19">
+        <v>20200424</v>
+      </c>
+      <c r="M132" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M128" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:M132" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7">
       <filters>
         <filter val="（拉升）洗盘"/>
+        <filter val="拉升"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5989,7 +6089,7 @@
     </row>
     <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
@@ -6004,7 +6104,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20358"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1B8749-9FE4-4B95-BC9A-B228B7823BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
@@ -19,14 +13,14 @@
     <sheet name="选股条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$134</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="380">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -672,18 +666,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>买入条件
-1.1分钟出现abc后，5分钟出现一个底分型
-	a.分时有一个macd背驰
-	b.第一次突破macd，碰到分时均线
-	c.回调就是2买，等再一次碰到分时均线时进场，突破分时均线要有大买单进场
-2.1分钟只有一个a，5分钟出现3根K线站上10均线。
-	a.分时有一个macd背驰
-	b.第一次突破macd，碰到分时均线
-	c.回调就是2买，等再一次碰到分时均线时进场，突破分时均线要有大买单进场</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>3天两板</t>
   </si>
   <si>
@@ -776,15 +758,6 @@
   </si>
   <si>
     <t>筹码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>筹码突破四要素：
-1、当天的股价收出一根阳线；（突破箱体震荡的平台），阳线的幅度为7%以上（机构才能拉出7%以上阳线的能力）；
-2、当天的收盘价突破最长一根筹码，要求收盘股价大于最长筹码的价格；
-3、获利比例：表明机构最长筹码的获利程度，获利的比率要求在90-100之间，获利的比率越大越好。
-4、集中度：要求在10以下。如果2个集中度都在10以下最好，至少保证一个在10以下。
-5、筹码二次突破，获利比例90-100%,集中度90%/70% ，至少一个小于20，集中度越小越好，越小表示筹码越集中。（2个都小于20最佳）。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -794,9 +767,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SH600303</t>
-  </si>
-  <si>
     <t>SZ002864</t>
   </si>
   <si>
@@ -836,10 +806,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SH600609</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -856,30 +822,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SZ002329</t>
-  </si>
-  <si>
-    <t>SH603982</t>
-  </si>
-  <si>
-    <t>SH603109</t>
-  </si>
-  <si>
-    <t>SZ002262</t>
-  </si>
-  <si>
-    <t>SH600268</t>
-  </si>
-  <si>
-    <t>SH600527</t>
-  </si>
-  <si>
-    <t>SH603059</t>
-  </si>
-  <si>
-    <t>SH603316</t>
-  </si>
-  <si>
     <t>锋龙股份</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -952,10 +894,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>曙光股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>掌阅科技</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -964,21 +902,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SZ002030</t>
-  </si>
-  <si>
-    <t>SZ002437</t>
-  </si>
-  <si>
-    <t>誉衡药业</t>
-  </si>
-  <si>
-    <t>SZ002644</t>
-  </si>
-  <si>
-    <t>SZ002826</t>
-  </si>
-  <si>
     <t>达安基因</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1020,10 +943,6 @@
   </si>
   <si>
     <t>洗盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月9日涨幅大于7% 4月10日阳线 突破前高 非创业板 非新股</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1067,39 +986,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SZ000779</t>
-  </si>
-  <si>
-    <t>甘咨询</t>
-  </si>
-  <si>
-    <t>SZ002480</t>
-  </si>
-  <si>
-    <t>新筑股份</t>
-  </si>
-  <si>
-    <t>SH603183</t>
-  </si>
-  <si>
-    <t>建研院</t>
-  </si>
-  <si>
-    <t>SH600272</t>
-  </si>
-  <si>
-    <t>SH603105</t>
-  </si>
-  <si>
-    <t>芯能科技</t>
-  </si>
-  <si>
-    <t>SZ000680</t>
-  </si>
-  <si>
-    <t>山推股份</t>
-  </si>
-  <si>
     <t>突破</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1124,33 +1010,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SZ002421</t>
-  </si>
-  <si>
-    <t>达实智能</t>
-  </si>
-  <si>
-    <t>SZ002061</t>
-  </si>
-  <si>
-    <t>SZ000019</t>
-  </si>
-  <si>
-    <t>SZ002883</t>
-  </si>
-  <si>
-    <t>SZ002809</t>
-  </si>
-  <si>
-    <t>SZ002956</t>
-  </si>
-  <si>
-    <t>SH603378</t>
-  </si>
-  <si>
-    <t>SZ002890</t>
-  </si>
-  <si>
     <t>持股做t</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1183,15 +1042,67 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>亚士创能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>弘宇股份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>开开实业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月21日涨停 今日高开收红 非st 非创业 非科创 非新股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600812</t>
+  </si>
+  <si>
+    <t>SH601789</t>
+  </si>
+  <si>
+    <t>SH603321</t>
+  </si>
+  <si>
+    <t>梅轮电梯</t>
+  </si>
+  <si>
+    <t>SH603777</t>
+  </si>
+  <si>
+    <t>来伊份</t>
+  </si>
+  <si>
+    <t>盐津铺子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH601126</t>
+  </si>
+  <si>
+    <t>SZ002481</t>
+  </si>
+  <si>
+    <t>SZ002492</t>
+  </si>
+  <si>
+    <t>SH600796</t>
+  </si>
+  <si>
+    <t>SH603609</t>
+  </si>
+  <si>
+    <t>SZ002661</t>
+  </si>
+  <si>
+    <t>克明面业</t>
+  </si>
+  <si>
+    <t>SZ000061</t>
+  </si>
+  <si>
+    <t>SH603088</t>
+  </si>
+  <si>
+    <t>SH601606</t>
+  </si>
+  <si>
+    <t>重点关注</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1255,135 +1166,346 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> 
+</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月21日涨停 今日高开收红 非st 非创业 非科创 非新股</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日线不允许跌破10均线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002170</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>誉衡药业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘咨询</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>延华智能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新筑股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>建研院</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯能科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山推股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>达实智能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002329</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603982</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603109</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ000428</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002262</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600268</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600303</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600527</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603059</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603316</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603533</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002030</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002437</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002644</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002826</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600107</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ000779</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002178</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002480</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603183</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH600272</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603105</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ000680</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002421</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002061</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ000019</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002883</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002809</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002956</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH603378</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ002890</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002104</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入条件
+1.1分钟出现abc后，5分钟出现一个底分型
+	a.分时有一个macd背驰
+	b.第一次突破macd，碰到分时均线
+	c.回调就是2买，等再一次碰到分时均线时进场，突破分时均线要有大买单进场
+2.1分钟只有一个a，5分钟出现3根K线站上10均线。
+	a.分时有一个macd背驰
+	b.第一次突破macd，碰到分时均线
+	c.回调就是2买，等再一次碰到分时均线时进场，突破分时均线要有大买单进场
+3.按照5分钟中枢的背驰点位买入，macd有背驰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹码突破四要素：
+1、当天的股价收出一根阳线；（突破箱体震荡的平台），阳线的幅度为7%以上（机构才能拉出7%以上阳线的能力）；
+2、当天的收盘价突破最长一根筹码，要求收盘股价大于最长筹码的价格；
+3、获利比例：表明机构最长筹码的获利程度，获利的比率要求在90-100之间，获利的比率越大越好。
+4、集中度：要求在10以下。如果2个集中度都在10以下最好，至少保证一个在10以下。
+5、筹码二次突破，获利比例90-100%,集中度90%/70% ，至少一个小于20，集中度越小越好，越小表示筹码越集中。（2个都小于20最佳）。              6.突破第二日必须放量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>京基智农</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH000048</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>供销大集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH000564</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌破十日线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘宇股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱江生化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚厦股份</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SZ002375</t>
-  </si>
-  <si>
-    <t>亚厦股份</t>
-  </si>
-  <si>
-    <t>SH600812</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚士创能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足选股要求</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>华北制药</t>
-  </si>
-  <si>
-    <t>SH601789</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宁波建工</t>
-  </si>
-  <si>
-    <t>SH603321</t>
-  </si>
-  <si>
-    <t>梅轮电梯</t>
-  </si>
-  <si>
-    <t>SH603777</t>
-  </si>
-  <si>
-    <t>来伊份</t>
-  </si>
-  <si>
-    <t>盐津铺子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH601126</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双塔食品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒基达鑫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒宝股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾丰牧业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭田股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>四方股份</t>
-  </si>
-  <si>
-    <t>SZ002481</t>
-  </si>
-  <si>
-    <t>双塔食品</t>
-  </si>
-  <si>
-    <t>SZ002492</t>
-  </si>
-  <si>
-    <t>恒基达鑫</t>
-  </si>
-  <si>
-    <t>SZ002104</t>
-  </si>
-  <si>
-    <t>恒宝股份</t>
-  </si>
-  <si>
-    <t>SH600796</t>
-  </si>
-  <si>
-    <t>钱江生化</t>
-  </si>
-  <si>
-    <t>SH603609</t>
-  </si>
-  <si>
-    <t>禾丰牧业</t>
-  </si>
-  <si>
-    <t>SZ002661</t>
-  </si>
-  <si>
-    <t>克明面业</t>
-  </si>
-  <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ000061</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足选股条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>农 产 品</t>
-  </si>
-  <si>
-    <t>SH603088</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足选股条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宁波精达</t>
-  </si>
-  <si>
-    <t>SH601606</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>长城军工</t>
-  </si>
-  <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ002170</t>
-  </si>
-  <si>
-    <t>芭田股份</t>
-  </si>
-  <si>
-    <t>重点关注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不喜欢</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,6 +1690,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1786,7 +1917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,7 +2166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2090,35 +2221,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -2133,15 +2270,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2158,7 +2295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2200,7 +2337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2232,27 +2369,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2284,24 +2403,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2477,15 +2578,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78:H132"/>
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
@@ -2498,7 +2599,7 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2533,13 +2634,16 @@
         <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="N1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2556,7 +2660,7 @@
         <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>153</v>
@@ -2568,7 +2672,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" hidden="1">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2588,7 +2692,7 @@
         <v>135</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>150</v>
@@ -2600,7 +2704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2614,7 +2718,7 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>168</v>
@@ -2623,7 +2727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2643,7 +2747,7 @@
         <v>102</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>168</v>
@@ -2652,7 +2756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" hidden="1">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2666,7 +2770,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>168</v>
@@ -2675,7 +2779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2698,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>168</v>
@@ -2707,7 +2811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2721,7 +2825,7 @@
         <v>34</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>153</v>
@@ -2733,7 +2837,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" hidden="1">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2753,7 +2857,7 @@
         <v>135</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>150</v>
@@ -2762,7 +2866,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" hidden="1">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2776,7 +2880,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>150</v>
@@ -2788,7 +2892,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" hidden="1">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2808,7 +2912,7 @@
         <v>138</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>150</v>
@@ -2817,7 +2921,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2834,7 +2938,7 @@
         <v>169</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>150</v>
@@ -2846,7 +2950,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2863,7 +2967,7 @@
         <v>134</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>150</v>
@@ -2875,7 +2979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2889,13 +2993,13 @@
         <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M14" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2909,13 +3013,13 @@
         <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M15" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2935,7 +3039,7 @@
         <v>135</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>171</v>
@@ -2944,7 +3048,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2967,13 +3071,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M17" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2990,7 +3094,7 @@
         <v>134</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>153</v>
@@ -3002,7 +3106,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -3019,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M19" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -3045,7 +3149,7 @@
         <v>136</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>153</v>
@@ -3057,7 +3161,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -3074,7 +3178,7 @@
         <v>134</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>153</v>
@@ -3086,7 +3190,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -3106,13 +3210,13 @@
         <v>138</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -3129,7 +3233,7 @@
         <v>134</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>153</v>
@@ -3141,7 +3245,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -3158,7 +3262,7 @@
         <v>134</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>150</v>
@@ -3170,7 +3274,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3193,13 +3297,13 @@
         <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M25" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -3216,7 +3320,7 @@
         <v>134</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>153</v>
@@ -3228,7 +3332,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
@@ -3248,7 +3352,7 @@
         <v>135</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>150</v>
@@ -3260,7 +3364,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
@@ -3280,7 +3384,7 @@
         <v>137</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>153</v>
@@ -3292,7 +3396,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -3309,7 +3413,7 @@
         <v>132</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>150</v>
@@ -3321,7 +3425,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3341,7 +3445,7 @@
         <v>135</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>150</v>
@@ -3353,7 +3457,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3373,7 +3477,7 @@
         <v>135</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>150</v>
@@ -3382,7 +3486,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
@@ -3402,7 +3506,7 @@
         <v>138</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>153</v>
@@ -3414,7 +3518,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" hidden="1">
       <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
@@ -3431,7 +3535,7 @@
         <v>132</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>153</v>
@@ -3443,7 +3547,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3457,13 +3561,13 @@
         <v>32</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M34" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3483,7 +3587,7 @@
         <v>135</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>150</v>
@@ -3495,7 +3599,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3515,7 +3619,7 @@
         <v>136</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>150</v>
@@ -3524,7 +3628,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -3541,7 +3645,7 @@
         <v>134</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>153</v>
@@ -3553,7 +3657,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -3570,7 +3674,7 @@
         <v>132</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>150</v>
@@ -3582,7 +3686,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -3596,13 +3700,13 @@
         <v>32</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -3616,13 +3720,13 @@
         <v>32</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M40" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3642,7 +3746,7 @@
         <v>137</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>150</v>
@@ -3654,7 +3758,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -3674,7 +3778,7 @@
         <v>135</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>150</v>
@@ -3683,7 +3787,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -3703,13 +3807,13 @@
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M43" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -3726,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>150</v>
@@ -3741,7 +3845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -3758,7 +3862,7 @@
         <v>169</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>150</v>
@@ -3770,7 +3874,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3787,13 +3891,13 @@
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M46" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -3810,13 +3914,13 @@
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M47" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -3833,7 +3937,7 @@
         <v>132</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>150</v>
@@ -3842,7 +3946,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" s="2" t="s">
         <v>78</v>
       </c>
@@ -3856,13 +3960,13 @@
         <v>32</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M49" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -3879,13 +3983,13 @@
         <v>34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M50" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3902,13 +4006,13 @@
         <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M51" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3928,7 +4032,7 @@
         <v>135</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>150</v>
@@ -3937,7 +4041,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -3954,7 +4058,7 @@
         <v>131</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>150</v>
@@ -3963,7 +4067,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -3983,7 +4087,7 @@
         <v>136</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>150</v>
@@ -3995,7 +4099,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
@@ -4012,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>150</v>
@@ -4024,7 +4128,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -4041,7 +4145,7 @@
         <v>131</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" t="s">
@@ -4051,7 +4155,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" s="2" t="s">
         <v>89</v>
       </c>
@@ -4068,7 +4172,7 @@
         <v>131</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>150</v>
@@ -4077,7 +4181,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -4094,7 +4198,7 @@
         <v>134</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>150</v>
@@ -4106,7 +4210,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" hidden="1">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -4126,13 +4230,13 @@
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M59" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4151,7 +4255,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>174</v>
@@ -4160,7 +4264,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4179,7 +4283,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>174</v>
@@ -4188,7 +4292,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4207,7 +4311,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>174</v>
@@ -4216,7 +4320,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" s="2" t="s">
         <v>180</v>
       </c>
@@ -4235,7 +4339,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>174</v>
@@ -4244,7 +4348,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" s="2" t="s">
         <v>182</v>
       </c>
@@ -4263,7 +4367,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>174</v>
@@ -4272,7 +4376,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" s="2" t="s">
         <v>184</v>
       </c>
@@ -4291,7 +4395,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>174</v>
@@ -4300,7 +4404,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -4319,7 +4423,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>174</v>
@@ -4328,7 +4432,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
@@ -4349,7 +4453,7 @@
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>174</v>
@@ -4358,7 +4462,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -4377,7 +4481,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>174</v>
@@ -4386,50 +4490,50 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1">
+      <c r="A70" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="B70" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="L70" s="2">
         <v>20200414</v>
       </c>
       <c r="M70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="2" t="s">
         <v>178</v>
       </c>
@@ -4440,10 +4544,10 @@
         <v>34</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L71" s="2">
         <v>20200414</v>
@@ -4452,1061 +4556,1142 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L72" s="2">
         <v>20200414</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L73" s="2">
         <v>20200414</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L74" s="2">
         <v>20200414</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="L75" s="2">
         <v>20200414</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="L76" s="2">
         <v>20200414</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L77" s="2">
         <v>20200414</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="H78" s="19" t="s">
-        <v>306</v>
+      <c r="H78" s="18" t="s">
+        <v>358</v>
       </c>
       <c r="L78" s="2">
         <v>20200414</v>
       </c>
       <c r="M78" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>253</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" hidden="1">
+      <c r="A79" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L79" s="2">
         <v>20200414</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>254</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1">
+      <c r="A80" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="L80" s="2">
         <v>20200414</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>255</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1">
+      <c r="A81" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="L81" s="2">
         <v>20200414</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>263</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" hidden="1">
+      <c r="A82" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L82" s="2">
         <v>20200414</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>264</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1">
+      <c r="A83" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L83" s="2">
         <v>20200414</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>257</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" hidden="1">
+      <c r="A84" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="L84" s="2">
         <v>20200414</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>265</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1">
+      <c r="A85" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L85" s="2">
         <v>20200414</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>260</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" hidden="1">
+      <c r="A86" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L86" s="2">
         <v>20200414</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>258</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" hidden="1">
+      <c r="A87" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>246</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L87" s="2">
         <v>20200414</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1">
+      <c r="A88" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L88" s="2">
         <v>20200414</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>261</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" hidden="1">
+      <c r="A89" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L89" s="2">
         <v>20200414</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>266</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" hidden="1">
+      <c r="A90" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L90" s="2">
         <v>20200414</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
       <c r="H91" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>273</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1">
+      <c r="A92" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>270</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1">
+      <c r="A93" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>311</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L93" s="17">
         <v>20200414</v>
       </c>
       <c r="M93" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>275</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" hidden="1">
+      <c r="A94" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>276</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" hidden="1">
+      <c r="A95" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>277</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1">
+      <c r="A96" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>282</v>
-      </c>
-      <c r="B97" t="s">
-        <v>281</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" hidden="1">
+      <c r="A97" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="L97" s="17">
         <v>20200416</v>
       </c>
       <c r="M97" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A98" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H98" s="19" t="s">
-        <v>306</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="12.75" hidden="1" customHeight="1">
+      <c r="A98" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18" t="s">
+        <v>379</v>
       </c>
       <c r="L98" s="17">
         <v>20200417</v>
       </c>
-      <c r="M98" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>290</v>
+      <c r="M98" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" hidden="1">
+      <c r="A99" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="H99" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="L99" s="17">
         <v>20200417</v>
       </c>
       <c r="M99" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>293</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" hidden="1">
+      <c r="A100" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>312</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L100">
         <v>20200419</v>
       </c>
       <c r="M100" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>64</v>
-      </c>
-      <c r="B101" t="s">
-        <v>65</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" hidden="1">
+      <c r="A101" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>313</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="L101" s="17">
         <v>20200419</v>
       </c>
       <c r="M101" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A102" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>306</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" hidden="1">
+      <c r="A102" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>358</v>
       </c>
       <c r="L102" s="17">
         <v>20200419</v>
       </c>
       <c r="M102" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>296</v>
-      </c>
-      <c r="B103" t="s">
-        <v>297</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" hidden="1">
+      <c r="A103" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L103" s="17">
         <v>20200419</v>
       </c>
       <c r="M103" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>298</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>306</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" hidden="1">
+      <c r="A104" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>358</v>
       </c>
       <c r="L104" s="17">
         <v>20200419</v>
       </c>
       <c r="M104" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>299</v>
-      </c>
-      <c r="B105" t="s">
-        <v>300</v>
+        <v>228</v>
+      </c>
+      <c r="N104" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" hidden="1">
+      <c r="A105" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>316</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="L105" s="17">
         <v>20200419</v>
       </c>
       <c r="M105" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>301</v>
-      </c>
-      <c r="B106" t="s">
-        <v>302</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" hidden="1">
+      <c r="A106" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>317</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L106" s="17">
         <v>20200419</v>
       </c>
       <c r="M106" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A107" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H107" s="17" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="L107" s="17">
         <v>20200420</v>
       </c>
       <c r="M107" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A108" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="H108" s="19" t="s">
-        <v>306</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" hidden="1">
+      <c r="A108" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>358</v>
       </c>
       <c r="L108" s="17">
         <v>20200420</v>
       </c>
       <c r="M108" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" hidden="1">
+      <c r="A109" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B109" s="18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>310</v>
-      </c>
       <c r="H109" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L109" s="17">
         <v>20200421</v>
       </c>
       <c r="M109" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>321</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" hidden="1">
+      <c r="A110" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L110" s="17">
         <v>20200421</v>
       </c>
       <c r="M110" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>322</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" hidden="1">
+      <c r="A111" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L111" s="17">
         <v>20200421</v>
       </c>
       <c r="M111" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>323</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1">
+      <c r="A112" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L112" s="17">
         <v>20200421</v>
       </c>
       <c r="M112" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>324</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" hidden="1">
+      <c r="A113" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L113" s="17">
         <v>20200421</v>
       </c>
       <c r="M113" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>325</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" hidden="1">
+      <c r="A114" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L114" s="17">
         <v>20200421</v>
       </c>
       <c r="M114" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A115" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="H115" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L115" s="17">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="19" customFormat="1">
+      <c r="A115" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I115" s="20"/>
+      <c r="L115" s="19">
         <v>20200421</v>
       </c>
-      <c r="M115" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A116" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="H116" s="19" t="s">
-        <v>306</v>
+      <c r="M115" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="N115" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" hidden="1">
+      <c r="A116" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="L116" s="17">
         <v>20200421</v>
       </c>
       <c r="M116" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A117" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="H117" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L117">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="21" customFormat="1">
+      <c r="A117" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I117" s="22"/>
+      <c r="L117" s="21">
         <v>20200422</v>
       </c>
-      <c r="M117" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A118" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L118" s="19">
+      <c r="M117" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="N117" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="21" customFormat="1">
+      <c r="A118" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I118" s="22"/>
+      <c r="L118" s="21">
         <v>20200422</v>
       </c>
-      <c r="M118" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A119" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L119" s="19">
+      <c r="M118" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="N118" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" hidden="1">
+      <c r="A119" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="L119" s="18">
         <v>20200422</v>
       </c>
-      <c r="M119" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="H120" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="L120" s="19">
+      <c r="M119" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" hidden="1">
+      <c r="A120" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L120" s="18">
         <v>20200422</v>
       </c>
-      <c r="M120" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A121" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="H121" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L121" s="19">
+      <c r="M120" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I121" s="6"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5">
         <v>20200422</v>
       </c>
-      <c r="M121" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A122" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="H122" s="19" t="s">
-        <v>356</v>
+      <c r="M121" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" hidden="1">
+      <c r="A122" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H122" s="18" t="s">
+        <v>374</v>
       </c>
       <c r="L122">
         <v>20200423</v>
       </c>
-      <c r="M122" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A123" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="H123" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L123" s="19">
+      <c r="M122" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="L123" s="18">
         <v>20200423</v>
       </c>
-      <c r="M123" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A124" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="H124" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L124" s="19">
+      <c r="M123" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="21" customFormat="1">
+      <c r="A124" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I124" s="22"/>
+      <c r="L124" s="21">
         <v>20200423</v>
       </c>
-      <c r="M124" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A125" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="H125" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L125" s="19">
+      <c r="M124" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="N124" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="L125" s="18">
         <v>20200423</v>
       </c>
-      <c r="M125" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A126" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="H126" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L126" s="19">
+      <c r="M125" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" hidden="1">
+      <c r="A126" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="L126" s="18">
         <v>20200423</v>
       </c>
-      <c r="M126" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A127" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="H127" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L127" s="19">
+      <c r="M126" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="L127" s="18">
         <v>20200423</v>
       </c>
-      <c r="M127" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A128" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="H128" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="L128" s="19">
+      <c r="M127" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5">
         <v>20200423</v>
       </c>
-      <c r="M128" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A129" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="H129" t="s">
-        <v>363</v>
+      <c r="M128" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" hidden="1">
+      <c r="A129" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="L129">
         <v>20200424</v>
       </c>
-      <c r="M129" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A130" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="H130" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="L130" s="19">
+      <c r="M129" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="L130" s="18">
         <v>20200424</v>
       </c>
-      <c r="M130" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A131" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="H131" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="L131" s="19">
+      <c r="M130" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" hidden="1">
+      <c r="A131" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="H131" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="L131" s="18">
         <v>20200424</v>
       </c>
-      <c r="M131" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A132" s="20" t="s">
+      <c r="M131" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" s="21" customFormat="1" hidden="1">
+      <c r="A132" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="H132" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B132" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="H132" s="19" t="s">
+      <c r="I132" s="22"/>
+      <c r="L132" s="21">
+        <v>20200424</v>
+      </c>
+      <c r="M132" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="L132" s="19">
-        <v>20200424</v>
-      </c>
-      <c r="M132" s="19" t="s">
-        <v>366</v>
+    </row>
+    <row r="133" spans="1:13" hidden="1">
+      <c r="A133" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="H133" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="L133" s="21">
+        <v>20200425</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" hidden="1">
+      <c r="A134" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="H134" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="L134" s="21">
+        <v>20200425</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M132" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:M134">
     <filterColumn colId="7">
       <filters>
         <filter val="（拉升）洗盘"/>
-        <filter val="拉升"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5517,49 +5702,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
         <v>203</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="11">
         <v>43920</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>153</v>
@@ -5577,12 +5762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="11">
         <v>43921</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>153</v>
@@ -5600,18 +5785,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="11">
         <v>43922</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="11">
         <v>43923</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4">
         <v>13.4</v>
@@ -5623,18 +5808,18 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="11">
         <v>43923</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="11">
         <v>43924</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>17.899999999999999</v>
@@ -5647,18 +5832,18 @@
         <v>0.10558659217877099</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>43923</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="11">
         <v>43924</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="2">
         <v>15.75</v>
@@ -5671,18 +5856,18 @@
         <v>-6.4761904761904729E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>43924</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="11">
         <v>43928</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7">
         <v>15.1</v>
@@ -5695,18 +5880,18 @@
         <v>6.1589403973510037E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="11">
         <v>43928</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="11">
         <v>43930</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8">
         <v>11.7</v>
@@ -5719,18 +5904,18 @@
         <v>8.5470085470085472E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="11">
         <v>43928</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="11">
         <v>43929</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9">
         <v>62.85</v>
@@ -5743,18 +5928,18 @@
         <v>9.6101829753381052E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="11">
         <v>43929</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="11">
         <v>43930</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E10">
         <v>20.5</v>
@@ -5767,18 +5952,18 @@
         <v>-1.7560975609756072E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="11">
         <v>43929</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="11">
         <v>43930</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E11">
         <v>14.7</v>
@@ -5791,18 +5976,18 @@
         <v>4.0816326530612346E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>43929</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" s="11">
         <v>43930</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E12">
         <v>7.9</v>
@@ -5815,18 +6000,18 @@
         <v>7.3417721518987344E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>43929</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="11">
         <v>43930</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13">
         <v>20.6</v>
@@ -5839,18 +6024,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>43929</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="11">
         <v>43931</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14">
         <v>12.19</v>
@@ -5863,18 +6048,18 @@
         <v>7.8753076292042729E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>43930</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="11">
         <v>43931</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15">
         <v>3.87</v>
@@ -5887,18 +6072,18 @@
         <v>5.9431524547803496E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>43930</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="11">
         <v>43931</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16">
         <v>24.72</v>
@@ -5911,7 +6096,7 @@
         <v>3.195792880258911E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="E17">
@@ -5925,7 +6110,7 @@
         <v>0.28358208955223874</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="E18">
         <v>11.9</v>
       </c>
@@ -5937,7 +6122,7 @@
         <v>7.5630252100840359E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="E19">
         <v>26.65</v>
       </c>
@@ -5949,7 +6134,7 @@
         <v>0.15947467166979362</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="E20">
         <v>16.75</v>
       </c>
@@ -5961,7 +6146,7 @@
         <v>0.31820895522388049</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="E21">
         <v>6.4</v>
       </c>
@@ -5973,7 +6158,7 @@
         <v>0.21874999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="E22">
         <v>9.07</v>
       </c>
@@ -5985,7 +6170,7 @@
         <v>0.21278941565600878</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="E23">
         <v>14.2</v>
       </c>
@@ -5997,7 +6182,7 @@
         <v>0.12957746478873239</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="E24">
         <v>10</v>
       </c>
@@ -6009,7 +6194,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="E25">
         <v>14.2</v>
       </c>
@@ -6021,7 +6206,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="E26">
         <v>15.2</v>
       </c>
@@ -6033,7 +6218,7 @@
         <v>7.8947368421052586E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="E27">
         <v>72.2</v>
       </c>
@@ -6045,7 +6230,7 @@
         <v>0.23268698060941823</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="E28">
         <v>11.35</v>
       </c>
@@ -6065,46 +6250,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="81">
       <c r="A1" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="243">
       <c r="A3" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="162">
       <c r="A6" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>330</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="18" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -6115,42 +6300,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="256.5">
+      <c r="A2" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="148.5">
       <c r="A6" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>284</v>
-      </c>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="381">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -1495,6 +1495,10 @@
   </si>
   <si>
     <t>不喜欢</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足250上方</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5486,7 +5490,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="21" customFormat="1">
+    <row r="124" spans="1:14" s="21" customFormat="1" hidden="1">
       <c r="A124" s="21" t="s">
         <v>298</v>
       </c>
@@ -5495,7 +5499,7 @@
       </c>
       <c r="G124" s="18"/>
       <c r="H124" s="18" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="I124" s="22"/>
       <c r="L124" s="21">
@@ -5508,7 +5512,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" hidden="1">
       <c r="A125" s="18" t="s">
         <v>350</v>
       </c>
@@ -5517,7 +5521,7 @@
       </c>
       <c r="G125" s="18"/>
       <c r="H125" s="18" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="L125" s="18">
         <v>20200423</v>
@@ -5606,7 +5610,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" s="18" t="s">
         <v>304</v>
       </c>
@@ -5615,7 +5619,7 @@
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="18" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="L130" s="18">
         <v>20200424</v>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="387">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -970,22 +970,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>妖股选股条件：
-3天2板 非创业板 非新股 非ST
-预备妖股选股条件：
-非新股 非创业板 近2日有1次涨停 非ST 近5日只有1次涨停
-4月9涨幅超过7% 4月10日高开高走
-从突破开始，涨幅超过20%以上的洗盘不参与
-日线站上250
-板块效应：优先级最大
-涨幅不断层 10 9 8 7 6 
-从板块里挑选
-1.当日涨停，突破平台
-2.是否满足筹码突破四要素
-2.第二天观察是否高开，成交量是否放量，如果不是高开，直接删自选，观察当天是否红盘，筹码是否松动</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>突破</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1063,9 +1047,6 @@
   </si>
   <si>
     <t>SH603777</t>
-  </si>
-  <si>
-    <t>来伊份</t>
   </si>
   <si>
     <t>盐津铺子</t>
@@ -1499,6 +1480,50 @@
   </si>
   <si>
     <t>不满足250上方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足要求</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>来伊份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖股选股条件：
+3天2板 非创业板 非新股 非ST
+预备妖股选股条件：
+非新股 非创业板 近2日有1次涨停 非ST 近5日只有1次涨停
+4月9涨幅超过7% 4月10日高开高走
+从突破开始，涨幅超过20%以上的洗盘不参与
+日线站上250
+板块效应：优先级最大
+涨幅不断层 10 9 8 7 6 
+从板块里挑选
+1.当日涨停，突破平台
+2.是否满足筹码突破四要素
+2.第二天观察是否高开，成交量是否放量，如果不是高开，直接删自选，观察当天是否红盘，筹码是否松动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位管理：仓位一次性不补满，分两天补满。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2170,7 +2195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2239,6 +2264,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2586,8 +2614,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2644,7 +2672,7 @@
         <v>229</v>
       </c>
       <c r="N1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1">
@@ -4695,12 +4723,12 @@
         <v>231</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="H78" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L78" s="2">
         <v>20200414</v>
@@ -4711,7 +4739,7 @@
     </row>
     <row r="79" spans="1:13" hidden="1">
       <c r="A79" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>241</v>
@@ -4734,7 +4762,7 @@
     </row>
     <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>242</v>
@@ -4757,7 +4785,7 @@
     </row>
     <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>243</v>
@@ -4780,7 +4808,7 @@
     </row>
     <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>251</v>
@@ -4797,7 +4825,7 @@
     </row>
     <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>252</v>
@@ -4814,13 +4842,13 @@
     </row>
     <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>245</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L84" s="2">
         <v>20200414</v>
@@ -4831,7 +4859,7 @@
     </row>
     <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>215</v>
@@ -4848,7 +4876,7 @@
     </row>
     <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>248</v>
@@ -4865,7 +4893,7 @@
     </row>
     <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>246</v>
@@ -4899,7 +4927,7 @@
     </row>
     <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>249</v>
@@ -4916,7 +4944,7 @@
     </row>
     <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>253</v>
@@ -4940,7 +4968,7 @@
     </row>
     <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>255</v>
@@ -4951,10 +4979,10 @@
     </row>
     <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H93" s="17" t="s">
         <v>244</v>
@@ -4968,7 +4996,7 @@
     </row>
     <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>257</v>
@@ -4979,7 +5007,7 @@
     </row>
     <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>258</v>
@@ -4990,7 +5018,7 @@
     </row>
     <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>259</v>
@@ -5007,7 +5035,7 @@
         <v>263</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L97" s="17">
         <v>20200416</v>
@@ -5025,13 +5053,13 @@
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L98" s="17">
         <v>20200417</v>
       </c>
       <c r="M98" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:14" hidden="1">
@@ -5053,10 +5081,10 @@
     </row>
     <row r="100" spans="1:14" hidden="1">
       <c r="A100" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H100" s="17" t="s">
         <v>234</v>
@@ -5070,13 +5098,13 @@
     </row>
     <row r="101" spans="1:14" hidden="1">
       <c r="A101" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L101" s="17">
         <v>20200419</v>
@@ -5087,13 +5115,13 @@
     </row>
     <row r="102" spans="1:14" hidden="1">
       <c r="A102" s="18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L102" s="17">
         <v>20200419</v>
@@ -5104,10 +5132,10 @@
     </row>
     <row r="103" spans="1:14" hidden="1">
       <c r="A103" s="18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H103" s="17" t="s">
         <v>234</v>
@@ -5121,13 +5149,13 @@
     </row>
     <row r="104" spans="1:14" hidden="1">
       <c r="A104" s="18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L104" s="17">
         <v>20200419</v>
@@ -5136,18 +5164,18 @@
         <v>228</v>
       </c>
       <c r="N104" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:14" hidden="1">
       <c r="A105" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L105" s="17">
         <v>20200419</v>
@@ -5158,10 +5186,10 @@
     </row>
     <row r="106" spans="1:14" hidden="1">
       <c r="A106" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H106" s="17" t="s">
         <v>244</v>
@@ -5175,14 +5203,14 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G107" s="18"/>
       <c r="H107" s="18" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="L107" s="17">
         <v>20200420</v>
@@ -5193,27 +5221,27 @@
     </row>
     <row r="108" spans="1:14" hidden="1">
       <c r="A108" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H108" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L108" s="17">
         <v>20200420</v>
       </c>
       <c r="M108" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:14" hidden="1">
       <c r="A109" s="18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H109" s="17" t="s">
         <v>234</v>
@@ -5227,10 +5255,10 @@
     </row>
     <row r="110" spans="1:14" hidden="1">
       <c r="A110" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H110" s="17" t="s">
         <v>234</v>
@@ -5244,10 +5272,10 @@
     </row>
     <row r="111" spans="1:14" hidden="1">
       <c r="A111" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H111" s="17" t="s">
         <v>230</v>
@@ -5261,10 +5289,10 @@
     </row>
     <row r="112" spans="1:14" hidden="1">
       <c r="A112" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H112" s="17" t="s">
         <v>234</v>
@@ -5278,10 +5306,10 @@
     </row>
     <row r="113" spans="1:14" hidden="1">
       <c r="A113" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H113" s="17" t="s">
         <v>230</v>
@@ -5295,10 +5323,10 @@
     </row>
     <row r="114" spans="1:14" hidden="1">
       <c r="A114" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H114" s="17" t="s">
         <v>230</v>
@@ -5312,14 +5340,14 @@
     </row>
     <row r="115" spans="1:14" s="19" customFormat="1">
       <c r="A115" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G115" s="18"/>
       <c r="H115" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I115" s="20"/>
       <c r="L115" s="19">
@@ -5329,18 +5357,18 @@
         <v>228</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:14" hidden="1">
       <c r="A116" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L116" s="17">
         <v>20200421</v>
@@ -5351,14 +5379,14 @@
     </row>
     <row r="117" spans="1:14" s="21" customFormat="1">
       <c r="A117" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G117" s="18"/>
       <c r="H117" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I117" s="22"/>
       <c r="L117" s="21">
@@ -5368,19 +5396,19 @@
         <v>228</v>
       </c>
       <c r="N117" s="21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" s="21" customFormat="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="21" customFormat="1" hidden="1">
       <c r="A118" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G118" s="18"/>
       <c r="H118" s="18" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="I118" s="22"/>
       <c r="L118" s="21">
@@ -5390,18 +5418,18 @@
         <v>228</v>
       </c>
       <c r="N118" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:14" hidden="1">
       <c r="A119" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L119" s="18">
         <v>20200422</v>
@@ -5412,10 +5440,10 @@
     </row>
     <row r="120" spans="1:14" hidden="1">
       <c r="A120" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B120" s="18" t="s">
         <v>291</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="H120" s="18" t="s">
         <v>230</v>
@@ -5429,10 +5457,10 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -5440,7 +5468,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="18"/>
       <c r="H121" s="18" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="5"/>
@@ -5452,18 +5480,18 @@
         <v>228</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:14" hidden="1">
       <c r="A122" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L122">
         <v>20200423</v>
@@ -5474,14 +5502,14 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G123" s="18"/>
       <c r="H123" s="18" t="s">
-        <v>276</v>
+        <v>382</v>
       </c>
       <c r="L123" s="18">
         <v>20200423</v>
@@ -5492,14 +5520,14 @@
     </row>
     <row r="124" spans="1:14" s="21" customFormat="1" hidden="1">
       <c r="A124" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G124" s="18"/>
       <c r="H124" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I124" s="22"/>
       <c r="L124" s="21">
@@ -5509,19 +5537,19 @@
         <v>228</v>
       </c>
       <c r="N124" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:14" hidden="1">
       <c r="A125" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G125" s="18"/>
       <c r="H125" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L125" s="18">
         <v>20200423</v>
@@ -5532,13 +5560,13 @@
     </row>
     <row r="126" spans="1:14" hidden="1">
       <c r="A126" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L126" s="18">
         <v>20200423</v>
@@ -5549,14 +5577,14 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G127" s="18"/>
       <c r="H127" s="18" t="s">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="L127" s="18">
         <v>20200423</v>
@@ -5567,10 +5595,10 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -5578,7 +5606,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="18"/>
       <c r="H128" s="18" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="5"/>
@@ -5590,18 +5618,18 @@
         <v>228</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:13" hidden="1">
       <c r="A129" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L129">
         <v>20200424</v>
@@ -5612,14 +5640,14 @@
     </row>
     <row r="130" spans="1:13" hidden="1">
       <c r="A130" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L130" s="18">
         <v>20200424</v>
@@ -5630,10 +5658,10 @@
     </row>
     <row r="131" spans="1:13" hidden="1">
       <c r="A131" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H131" s="18" t="s">
         <v>234</v>
@@ -5647,31 +5675,31 @@
     </row>
     <row r="132" spans="1:13" s="21" customFormat="1" hidden="1">
       <c r="A132" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I132" s="22"/>
       <c r="L132" s="21">
         <v>20200424</v>
       </c>
       <c r="M132" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" hidden="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="L133" s="21">
         <v>20200425</v>
@@ -5679,13 +5707,13 @@
     </row>
     <row r="134" spans="1:13" hidden="1">
       <c r="A134" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="L134" s="21">
         <v>20200425</v>
@@ -5696,6 +5724,7 @@
     <filterColumn colId="7">
       <filters>
         <filter val="（拉升）洗盘"/>
+        <filter val="拉升"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6255,10 +6284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6278,7 +6307,7 @@
     </row>
     <row r="3" spans="1:1" ht="243">
       <c r="A3" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -6288,12 +6317,17 @@
     </row>
     <row r="6" spans="1:1" ht="162">
       <c r="A6" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="23" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -6307,8 +6341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6323,7 +6357,7 @@
     </row>
     <row r="2" spans="1:1" ht="256.5">
       <c r="A2" s="13" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -6333,7 +6367,7 @@
     </row>
     <row r="6" spans="1:1" ht="148.5">
       <c r="A6" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:1">

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20358"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5098D4-389F-4636-A243-ABE936427544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="股票池" sheetId="1" r:id="rId1"/>
-    <sheet name="回测" sheetId="4" r:id="rId2"/>
-    <sheet name="买卖条件" sheetId="3" r:id="rId3"/>
-    <sheet name="选股条件" sheetId="5" r:id="rId4"/>
+    <sheet name="筹码股票池" sheetId="1" r:id="rId1"/>
+    <sheet name="3买股票池" sheetId="6" r:id="rId2"/>
+    <sheet name="回测" sheetId="4" r:id="rId3"/>
+    <sheet name="买卖条件" sheetId="3" r:id="rId4"/>
+    <sheet name="选股条件" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">股票池!$A$1:$M$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">筹码股票池!$A$1:$M$134</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="407">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -1507,34 +1514,91 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>妖股选股条件：
-3天2板 非创业板 非新股 非ST
-预备妖股选股条件：
-非新股 非创业板 近2日有1次涨停 非ST 近5日只有1次涨停
-4月9涨幅超过7% 4月10日高开高走
-从突破开始，涨幅超过20%以上的洗盘不参与
-日线站上250
+    <t>仓位管理：仓位一次性不补满，分两天补满。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日线站上250
 板块效应：优先级最大
 涨幅不断层 10 9 8 7 6 
 从板块里挑选
 1.当日涨停，突破平台
-2.是否满足筹码突破四要素
+2.是否满足筹码突破六要素
 2.第二天观察是否高开，成交量是否放量，如果不是高开，直接删自选，观察当天是否红盘，筹码是否松动</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>仓位管理：仓位一次性不补满，分两天补满。</t>
+    <t>SH600211</t>
+  </si>
+  <si>
+    <t>西藏药业</t>
+  </si>
+  <si>
+    <t>SH600724</t>
+  </si>
+  <si>
+    <t>宁波富达</t>
+  </si>
+  <si>
+    <t>SH603023</t>
+  </si>
+  <si>
+    <t>威帝股份</t>
+  </si>
+  <si>
+    <t>SZ002824</t>
+  </si>
+  <si>
+    <t>和胜股份</t>
+  </si>
+  <si>
+    <t>SH600410</t>
+  </si>
+  <si>
+    <t>华胜天成</t>
+  </si>
+  <si>
+    <t>SZ002158</t>
+  </si>
+  <si>
+    <t>汉钟精机</t>
+  </si>
+  <si>
+    <t>SZ000851</t>
+  </si>
+  <si>
+    <t>高鸿股份</t>
+  </si>
+  <si>
+    <t>SZ002469</t>
+  </si>
+  <si>
+    <t>三维工程</t>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3买点</t>
+  </si>
+  <si>
+    <t>3买点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3买形成中</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1951,7 +2015,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2066,6 +2130,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2195,7 +2274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2208,15 +2287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2256,9 +2326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2268,26 +2335,53 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -2302,15 +2396,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2327,7 +2421,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2369,7 +2463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2401,9 +2495,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2435,6 +2547,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2610,72 +2740,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+      <selection activeCell="B117" sqref="B117:H128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32.375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="20" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2704,7 +2835,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2723,7 +2854,7 @@
       <c r="F3" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2736,7 +2867,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2755,11 +2886,11 @@
       <c r="J4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2784,11 +2915,11 @@
       <c r="J5" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2807,11 +2938,11 @@
       <c r="J6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2839,11 +2970,11 @@
       <c r="J7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2856,7 +2987,7 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -2869,7 +3000,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2888,7 +3019,7 @@
       <c r="F9" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2898,7 +3029,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2911,7 +3042,7 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -2924,7 +3055,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2943,7 +3074,7 @@
       <c r="F11" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -2953,7 +3084,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2969,7 +3100,7 @@
       <c r="E12" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -2982,7 +3113,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2998,7 +3129,7 @@
       <c r="E13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -3011,7 +3142,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3027,11 +3158,11 @@
       <c r="H14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -3047,11 +3178,11 @@
       <c r="H15" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -3070,7 +3201,7 @@
       <c r="F16" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -3080,7 +3211,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -3105,11 +3236,11 @@
       <c r="H17" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -3125,7 +3256,7 @@
       <c r="E18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -3138,7 +3269,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -3157,11 +3288,11 @@
       <c r="H19" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -3180,7 +3311,7 @@
       <c r="F20" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -3193,7 +3324,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -3209,7 +3340,7 @@
       <c r="E21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -3222,7 +3353,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -3241,14 +3372,14 @@
       <c r="F22" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -3264,7 +3395,7 @@
       <c r="E23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -3277,7 +3408,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -3293,7 +3424,7 @@
       <c r="E24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -3306,7 +3437,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3331,11 +3462,11 @@
       <c r="H25" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -3351,7 +3482,7 @@
       <c r="E26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -3364,7 +3495,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
@@ -3383,7 +3514,7 @@
       <c r="F27" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -3396,7 +3527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
@@ -3415,7 +3546,7 @@
       <c r="F28" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -3428,7 +3559,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -3444,7 +3575,7 @@
       <c r="E29" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -3457,7 +3588,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3476,7 +3607,7 @@
       <c r="F30" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -3489,7 +3620,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3508,7 +3639,7 @@
       <c r="F31" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -3518,7 +3649,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
@@ -3537,7 +3668,7 @@
       <c r="F32" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -3550,7 +3681,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
@@ -3566,7 +3697,7 @@
       <c r="E33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -3579,7 +3710,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3595,11 +3726,11 @@
       <c r="H34" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3618,7 +3749,7 @@
       <c r="F35" t="s">
         <v>135</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -3631,7 +3762,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3650,7 +3781,7 @@
       <c r="F36" t="s">
         <v>136</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -3660,7 +3791,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -3676,7 +3807,7 @@
       <c r="E37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -3689,7 +3820,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -3705,7 +3836,7 @@
       <c r="E38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -3718,7 +3849,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -3734,11 +3865,11 @@
       <c r="H39" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M39" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -3754,11 +3885,11 @@
       <c r="H40" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3777,7 +3908,7 @@
       <c r="F41" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I41" s="3" t="s">
@@ -3790,7 +3921,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -3809,7 +3940,7 @@
       <c r="F42" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I42" s="3" t="s">
@@ -3819,7 +3950,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -3841,11 +3972,11 @@
       <c r="H43" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M43" s="17" t="s">
+      <c r="M43" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -3873,11 +4004,11 @@
       <c r="K44" t="s">
         <v>148</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="M44" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -3893,7 +4024,7 @@
       <c r="E45" t="s">
         <v>169</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I45" s="3" t="s">
@@ -3906,7 +4037,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -3925,11 +4056,11 @@
       <c r="H46" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M46" s="17" t="s">
+      <c r="M46" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -3948,11 +4079,11 @@
       <c r="H47" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M47" s="17" t="s">
+      <c r="M47" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -3968,7 +4099,7 @@
       <c r="E48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -3978,7 +4109,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>78</v>
       </c>
@@ -3994,11 +4125,11 @@
       <c r="H49" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M49" s="17" t="s">
+      <c r="M49" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -4017,11 +4148,11 @@
       <c r="H50" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -4040,11 +4171,11 @@
       <c r="H51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M51" s="17" t="s">
+      <c r="M51" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -4063,7 +4194,7 @@
       <c r="F52" t="s">
         <v>135</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -4073,7 +4204,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -4089,7 +4220,7 @@
       <c r="E53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H53" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -4099,7 +4230,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>45</v>
       </c>
@@ -4118,7 +4249,7 @@
       <c r="F54" t="s">
         <v>136</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="H54" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -4131,7 +4262,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
@@ -4147,7 +4278,7 @@
       <c r="E55" t="s">
         <v>131</v>
       </c>
-      <c r="H55" s="17" t="s">
+      <c r="H55" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -4160,7 +4291,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -4176,7 +4307,7 @@
       <c r="E56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="H56" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I56" s="2"/>
@@ -4187,7 +4318,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>89</v>
       </c>
@@ -4213,7 +4344,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>85</v>
       </c>
@@ -4229,7 +4360,7 @@
       <c r="E58" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H58" s="17" t="s">
+      <c r="H58" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -4242,7 +4373,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -4264,11 +4395,11 @@
       <c r="H59" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M59" s="17" t="s">
+      <c r="M59" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -4286,7 +4417,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="17" t="s">
+      <c r="H60" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -4296,7 +4427,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -4314,7 +4445,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="17" t="s">
+      <c r="H61" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I61" s="2" t="s">
@@ -4324,7 +4455,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -4342,7 +4473,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="17" t="s">
+      <c r="H62" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -4352,7 +4483,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>180</v>
       </c>
@@ -4370,7 +4501,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="17" t="s">
+      <c r="H63" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I63" s="2" t="s">
@@ -4380,7 +4511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>182</v>
       </c>
@@ -4398,7 +4529,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="17" t="s">
+      <c r="H64" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I64" s="2" t="s">
@@ -4408,7 +4539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>184</v>
       </c>
@@ -4426,7 +4557,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I65" s="2" t="s">
@@ -4436,7 +4567,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -4454,7 +4585,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="17" t="s">
+      <c r="H66" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I66" s="2" t="s">
@@ -4464,7 +4595,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
@@ -4484,7 +4615,7 @@
         <v>192</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="17" t="s">
+      <c r="H67" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -4494,7 +4625,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -4512,7 +4643,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="17" t="s">
+      <c r="H68" s="14" t="s">
         <v>265</v>
       </c>
       <c r="I68" s="2" t="s">
@@ -4522,7 +4653,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>220</v>
       </c>
@@ -4542,7 +4673,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>224</v>
       </c>
@@ -4565,7 +4696,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>178</v>
       </c>
@@ -4588,7 +4719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>180</v>
       </c>
@@ -4611,7 +4742,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>225</v>
       </c>
@@ -4630,7 +4761,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>118</v>
       </c>
@@ -4649,7 +4780,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
@@ -4672,7 +4803,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>44</v>
       </c>
@@ -4695,7 +4826,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>226</v>
       </c>
@@ -4718,16 +4849,16 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="14" t="s">
         <v>279</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="15" t="s">
         <v>356</v>
       </c>
       <c r="L78" s="2">
@@ -4737,11 +4868,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="15" t="s">
         <v>241</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -4760,11 +4891,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
-      <c r="A80" s="18" t="s">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="15" t="s">
         <v>242</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -4783,11 +4914,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
-      <c r="A81" s="18" t="s">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="15" t="s">
         <v>243</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -4806,11 +4937,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
-      <c r="A82" s="18" t="s">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="15" t="s">
         <v>251</v>
       </c>
       <c r="H82" s="2" t="s">
@@ -4823,14 +4954,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
-      <c r="A83" s="18" t="s">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="H83" s="17" t="s">
+      <c r="H83" s="14" t="s">
         <v>244</v>
       </c>
       <c r="L83" s="2">
@@ -4840,14 +4971,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
-      <c r="A84" s="18" t="s">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="H84" s="17" t="s">
+      <c r="H84" s="14" t="s">
         <v>276</v>
       </c>
       <c r="L84" s="2">
@@ -4857,11 +4988,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
-      <c r="A85" s="18" t="s">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="15" t="s">
         <v>215</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -4874,11 +5005,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
-      <c r="A86" s="18" t="s">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="15" t="s">
         <v>248</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -4891,11 +5022,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
-      <c r="A87" s="18" t="s">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="15" t="s">
         <v>246</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -4908,14 +5039,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
-      <c r="A88" s="18" t="s">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H88" s="17" t="s">
+      <c r="H88" s="14" t="s">
         <v>234</v>
       </c>
       <c r="L88" s="2">
@@ -4925,11 +5056,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
-      <c r="A89" s="18" t="s">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="15" t="s">
         <v>249</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -4942,11 +5073,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
-      <c r="A90" s="18" t="s">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="15" t="s">
         <v>253</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -4959,768 +5090,861 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
       <c r="H91" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
-      <c r="A92" s="18" t="s">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="15" t="s">
         <v>255</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
-      <c r="A93" s="18" t="s">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="H93" s="17" t="s">
+      <c r="H93" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="L93" s="17">
+      <c r="L93" s="14">
         <v>20200414</v>
       </c>
-      <c r="M93" s="17" t="s">
+      <c r="M93" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
-      <c r="A94" s="18" t="s">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="15" t="s">
         <v>257</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
-      <c r="A95" s="18" t="s">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="15" t="s">
         <v>258</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1">
-      <c r="A96" s="18" t="s">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="15" t="s">
         <v>259</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1">
-      <c r="A97" s="18" t="s">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="H97" s="17" t="s">
+      <c r="H97" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="L97" s="17">
+      <c r="L97" s="14">
         <v>20200416</v>
       </c>
-      <c r="M97" s="17" t="s">
+      <c r="M97" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="12.75" hidden="1" customHeight="1">
-      <c r="A98" s="18" t="s">
+    <row r="98" spans="1:14" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18" t="s">
+      <c r="G98" s="15"/>
+      <c r="H98" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="L98" s="17">
+      <c r="L98" s="14">
         <v>20200417</v>
       </c>
-      <c r="M98" s="18" t="s">
+      <c r="M98" s="15" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1">
-      <c r="A99" s="18" t="s">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="15" t="s">
         <v>268</v>
       </c>
       <c r="H99" t="s">
         <v>269</v>
       </c>
-      <c r="L99" s="17">
+      <c r="L99" s="14">
         <v>20200417</v>
       </c>
       <c r="M99" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
-      <c r="A100" s="18" t="s">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="H100" s="17" t="s">
+      <c r="H100" s="14" t="s">
         <v>234</v>
       </c>
       <c r="L100">
         <v>20200419</v>
       </c>
-      <c r="M100" s="17" t="s">
+      <c r="M100" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1">
-      <c r="A101" s="18" t="s">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="H101" s="17" t="s">
+      <c r="H101" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="L101" s="17">
+      <c r="L101" s="14">
         <v>20200419</v>
       </c>
-      <c r="M101" s="17" t="s">
+      <c r="M101" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1">
-      <c r="A102" s="18" t="s">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="H102" s="18" t="s">
+      <c r="H102" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="L102" s="17">
+      <c r="L102" s="14">
         <v>20200419</v>
       </c>
-      <c r="M102" s="17" t="s">
+      <c r="M102" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1">
-      <c r="A103" s="18" t="s">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="H103" s="17" t="s">
+      <c r="H103" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="L103" s="17">
+      <c r="L103" s="14">
         <v>20200419</v>
       </c>
-      <c r="M103" s="17" t="s">
+      <c r="M103" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1">
-      <c r="A104" s="18" t="s">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="H104" s="18" t="s">
+      <c r="H104" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="L104" s="17">
+      <c r="L104" s="14">
         <v>20200419</v>
       </c>
-      <c r="M104" s="17" t="s">
+      <c r="M104" s="14" t="s">
         <v>228</v>
       </c>
       <c r="N104" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1">
-      <c r="A105" s="18" t="s">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="H105" s="17" t="s">
+      <c r="H105" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="L105" s="17">
+      <c r="L105" s="14">
         <v>20200419</v>
       </c>
-      <c r="M105" s="17" t="s">
+      <c r="M105" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1">
-      <c r="A106" s="18" t="s">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="H106" s="17" t="s">
+      <c r="H106" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="L106" s="17">
+      <c r="L106" s="14">
         <v>20200419</v>
       </c>
-      <c r="M106" s="17" t="s">
+      <c r="M106" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
-      <c r="A107" s="18" t="s">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A107" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18" t="s">
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="L107" s="17">
+      <c r="I107" s="24"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20">
         <v>20200420</v>
       </c>
-      <c r="M107" s="17" t="s">
+      <c r="M107" s="20" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" hidden="1">
-      <c r="A108" s="18" t="s">
+      <c r="N107" s="20"/>
+    </row>
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="H108" s="18" t="s">
+      <c r="H108" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="L108" s="17">
+      <c r="L108" s="14">
         <v>20200420</v>
       </c>
-      <c r="M108" s="17" t="s">
+      <c r="M108" s="14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1">
-      <c r="A109" s="18" t="s">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="H109" s="17" t="s">
+      <c r="H109" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="L109" s="17">
+      <c r="L109" s="14">
         <v>20200421</v>
       </c>
-      <c r="M109" s="17" t="s">
+      <c r="M109" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1">
-      <c r="A110" s="18" t="s">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="H110" s="17" t="s">
+      <c r="H110" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="L110" s="17">
+      <c r="L110" s="14">
         <v>20200421</v>
       </c>
-      <c r="M110" s="17" t="s">
+      <c r="M110" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1">
-      <c r="A111" s="18" t="s">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="H111" s="17" t="s">
+      <c r="H111" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="L111" s="17">
+      <c r="L111" s="14">
         <v>20200421</v>
       </c>
-      <c r="M111" s="17" t="s">
+      <c r="M111" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1">
-      <c r="A112" s="18" t="s">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="H112" s="17" t="s">
+      <c r="H112" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="L112" s="17">
+      <c r="L112" s="14">
         <v>20200421</v>
       </c>
-      <c r="M112" s="17" t="s">
+      <c r="M112" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1">
-      <c r="A113" s="18" t="s">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="H113" s="17" t="s">
+      <c r="H113" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="L113" s="17">
+      <c r="L113" s="14">
         <v>20200421</v>
       </c>
-      <c r="M113" s="17" t="s">
+      <c r="M113" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1">
-      <c r="A114" s="18" t="s">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="H114" s="17" t="s">
+      <c r="H114" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="L114" s="17">
+      <c r="L114" s="14">
         <v>20200421</v>
       </c>
-      <c r="M114" s="17" t="s">
+      <c r="M114" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="19" customFormat="1">
-      <c r="A115" s="19" t="s">
+    <row r="115" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18" t="s">
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="I115" s="20"/>
-      <c r="L115" s="19">
+      <c r="I115" s="26"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25">
         <v>20200421</v>
       </c>
-      <c r="M115" s="19" t="s">
+      <c r="M115" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="N115" s="19" t="s">
+      <c r="N115" s="25"/>
+    </row>
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="L116" s="14">
+        <v>20200421</v>
+      </c>
+      <c r="M116" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="I117" s="28"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27">
+        <v>20200422</v>
+      </c>
+      <c r="M117" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="N117" s="27"/>
+    </row>
+    <row r="118" spans="1:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="I118" s="18"/>
+      <c r="L118" s="17">
+        <v>20200422</v>
+      </c>
+      <c r="M118" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="N118" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1">
-      <c r="A116" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="H116" s="18" t="s">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H119" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="L116" s="17">
-        <v>20200421</v>
-      </c>
-      <c r="M116" s="17" t="s">
+      <c r="L119" s="15">
+        <v>20200422</v>
+      </c>
+      <c r="M119" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="21" customFormat="1">
-      <c r="A117" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18" t="s">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H120" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L120" s="15">
+        <v>20200422</v>
+      </c>
+      <c r="M120" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A121" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27">
+        <v>20200422</v>
+      </c>
+      <c r="M121" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="N121" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17">
+        <v>20200423</v>
+      </c>
+      <c r="M122" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="N122" s="17"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A123" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27">
+        <v>20200423</v>
+      </c>
+      <c r="M123" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="N123" s="27"/>
+    </row>
+    <row r="124" spans="1:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="L124" s="17">
+        <v>20200423</v>
+      </c>
+      <c r="M124" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="N124" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17">
+        <v>20200423</v>
+      </c>
+      <c r="M125" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="N125" s="17"/>
+    </row>
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17">
+        <v>20200423</v>
+      </c>
+      <c r="M126" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="N126" s="17"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A127" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27">
+        <v>20200423</v>
+      </c>
+      <c r="M127" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="N127" s="27"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A128" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27">
+        <v>20200423</v>
+      </c>
+      <c r="M128" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="N128" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17">
+        <v>20200424</v>
+      </c>
+      <c r="M129" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="N129" s="17"/>
+    </row>
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17">
+        <v>20200424</v>
+      </c>
+      <c r="M130" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="N130" s="17"/>
+    </row>
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17">
+        <v>20200424</v>
+      </c>
+      <c r="M131" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="N131" s="17"/>
+    </row>
+    <row r="132" spans="1:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="L132" s="17">
+        <v>20200424</v>
+      </c>
+      <c r="M132" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A133" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="I117" s="22"/>
-      <c r="L117" s="21">
-        <v>20200422</v>
-      </c>
-      <c r="M117" s="21" t="s">
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27">
+        <v>20200425</v>
+      </c>
+      <c r="M133" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="N117" s="21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" s="21" customFormat="1" hidden="1">
-      <c r="A118" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B118" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="I118" s="22"/>
-      <c r="L118" s="21">
-        <v>20200422</v>
-      </c>
-      <c r="M118" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="N118" s="21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" hidden="1">
-      <c r="A119" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="H119" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="L119" s="18">
-        <v>20200422</v>
-      </c>
-      <c r="M119" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" hidden="1">
-      <c r="A120" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="H120" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="L120" s="18">
-        <v>20200422</v>
-      </c>
-      <c r="M120" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="I121" s="6"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5">
-        <v>20200422</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" hidden="1">
-      <c r="A122" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="H122" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="L122">
-        <v>20200423</v>
-      </c>
-      <c r="M122" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="L123" s="18">
-        <v>20200423</v>
-      </c>
-      <c r="M123" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" s="21" customFormat="1" hidden="1">
-      <c r="A124" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="I124" s="22"/>
-      <c r="L124" s="21">
-        <v>20200423</v>
-      </c>
-      <c r="M124" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="N124" s="21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" hidden="1">
-      <c r="A125" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="L125" s="18">
-        <v>20200423</v>
-      </c>
-      <c r="M125" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" hidden="1">
-      <c r="A126" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="H126" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="L126" s="18">
-        <v>20200423</v>
-      </c>
-      <c r="M126" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="L127" s="18">
-        <v>20200423</v>
-      </c>
-      <c r="M127" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="I128" s="6"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5">
-        <v>20200423</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="N128" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" hidden="1">
-      <c r="A129" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="H129" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="L129">
-        <v>20200424</v>
-      </c>
-      <c r="M129" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" hidden="1">
-      <c r="A130" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="L130" s="18">
-        <v>20200424</v>
-      </c>
-      <c r="M130" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" hidden="1">
-      <c r="A131" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="B131" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="H131" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="L131" s="18">
-        <v>20200424</v>
-      </c>
-      <c r="M131" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" s="21" customFormat="1" hidden="1">
-      <c r="A132" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="H132" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="I132" s="22"/>
-      <c r="L132" s="21">
-        <v>20200424</v>
-      </c>
-      <c r="M132" s="21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
-      <c r="A133" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="H133" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="L133" s="21">
+      <c r="N133" s="27"/>
+    </row>
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="L134" s="17">
         <v>20200425</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
-      <c r="A134" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="H134" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="L134" s="21">
-        <v>20200425</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M134">
+  <autoFilter ref="A1:M134" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7">
       <filters>
         <filter val="（拉升）洗盘"/>
@@ -5735,544 +5959,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B661F-48EC-4798-A0BB-6F73C0C238E9}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="11">
-        <v>43920</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="12">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="11">
-        <v>43921</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="11">
-        <v>43922</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="11">
-        <v>43923</v>
-      </c>
-      <c r="D4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4">
-        <v>13.4</v>
-      </c>
-      <c r="F4">
-        <v>14.12</v>
-      </c>
-      <c r="G4" s="12">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="11">
-        <v>43923</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="11">
-        <v>43924</v>
-      </c>
-      <c r="D5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F5">
-        <v>19.79</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" ref="G5:G28" si="0">(F5-E5)/E5</f>
-        <v>0.10558659217877099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="11">
-        <v>43923</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="11">
-        <v>43924</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15.75</v>
-      </c>
-      <c r="F6" s="2">
-        <v>14.73</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
-        <v>-6.4761904761904729E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="11">
-        <v>43924</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="11">
-        <v>43928</v>
-      </c>
-      <c r="D7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7">
-        <v>15.1</v>
-      </c>
-      <c r="F7">
-        <v>16.03</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="0"/>
-        <v>6.1589403973510037E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="11">
-        <v>43928</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="11">
-        <v>43930</v>
-      </c>
-      <c r="D8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8">
-        <v>11.7</v>
-      </c>
-      <c r="F8">
-        <v>12.7</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="0"/>
-        <v>8.5470085470085472E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="11">
-        <v>43928</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="11">
-        <v>43929</v>
-      </c>
-      <c r="D9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9">
-        <v>62.85</v>
-      </c>
-      <c r="F9">
-        <v>68.89</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="0"/>
-        <v>9.6101829753381052E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="11">
-        <v>43929</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="11">
-        <v>43930</v>
-      </c>
-      <c r="D10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10">
-        <v>20.5</v>
-      </c>
-      <c r="F10">
-        <v>20.14</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.7560975609756072E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="11">
-        <v>43929</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="11">
-        <v>43930</v>
-      </c>
-      <c r="D11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11">
-        <v>14.7</v>
-      </c>
-      <c r="F11">
-        <v>15.3</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="0"/>
-        <v>4.0816326530612346E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="11">
-        <v>43929</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="11">
-        <v>43930</v>
-      </c>
-      <c r="D12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12">
-        <v>7.9</v>
-      </c>
-      <c r="F12">
-        <v>8.48</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3417721518987344E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="11">
-        <v>43929</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="11">
-        <v>43930</v>
-      </c>
-      <c r="D13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13">
-        <v>20.6</v>
-      </c>
-      <c r="F13">
-        <v>20.6</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="11">
-        <v>43929</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="11">
-        <v>43931</v>
-      </c>
-      <c r="D14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14">
-        <v>12.19</v>
-      </c>
-      <c r="F14">
-        <v>13.15</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="0"/>
-        <v>7.8753076292042729E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="11">
-        <v>43930</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="11">
-        <v>43931</v>
-      </c>
-      <c r="D15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15">
-        <v>3.87</v>
-      </c>
-      <c r="F15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="0"/>
-        <v>5.9431524547803496E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="11">
-        <v>43930</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="11">
-        <v>43931</v>
-      </c>
-      <c r="D16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16">
-        <v>24.72</v>
-      </c>
-      <c r="F16">
-        <v>25.51</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="0"/>
-        <v>3.195792880258911E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2"/>
-      <c r="E17">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="F17">
-        <v>12.9</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="0"/>
-        <v>0.28358208955223874</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="E18">
-        <v>11.9</v>
-      </c>
-      <c r="F18">
-        <v>12.8</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="0"/>
-        <v>7.5630252100840359E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="E19">
-        <v>26.65</v>
-      </c>
-      <c r="F19">
-        <v>30.9</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" si="0"/>
-        <v>0.15947467166979362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="E20">
-        <v>16.75</v>
-      </c>
-      <c r="F20">
-        <v>22.08</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="0"/>
-        <v>0.31820895522388049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="E21">
-        <v>6.4</v>
-      </c>
-      <c r="F21">
-        <v>7.8</v>
-      </c>
-      <c r="G21" s="12">
-        <f t="shared" si="0"/>
-        <v>0.21874999999999992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="E22">
-        <v>9.07</v>
-      </c>
-      <c r="F22">
-        <v>11</v>
-      </c>
-      <c r="G22" s="12">
-        <f t="shared" si="0"/>
-        <v>0.21278941565600878</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="E23">
-        <v>14.2</v>
-      </c>
-      <c r="F23">
-        <v>16.04</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.12957746478873239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>12.9</v>
-      </c>
-      <c r="G24" s="12">
-        <f t="shared" si="0"/>
-        <v>0.29000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="E25">
-        <v>14.2</v>
-      </c>
-      <c r="F25">
-        <v>15.2</v>
-      </c>
-      <c r="G25" s="12">
-        <f t="shared" si="0"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="E26">
-        <v>15.2</v>
-      </c>
-      <c r="F26">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G26" s="12">
-        <f t="shared" si="0"/>
-        <v>7.8947368421052586E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="E27">
-        <v>72.2</v>
-      </c>
-      <c r="F27">
-        <v>89</v>
-      </c>
-      <c r="G27" s="12">
-        <f t="shared" si="0"/>
-        <v>0.23268698060941823</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="E28">
-        <v>11.35</v>
-      </c>
-      <c r="F28">
-        <v>15.3</v>
-      </c>
-      <c r="G28" s="12">
-        <f t="shared" si="0"/>
-        <v>0.34801762114537454</v>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="15">
+        <v>20200506</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="15">
+        <v>20200506</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="15">
+        <v>20200506</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="15">
+        <v>20200506</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="15">
+        <v>20200506</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="15">
+        <v>20200506</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="15">
+        <v>20200506</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C9" s="15">
+        <v>20200506</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -6283,51 +6132,544 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="67.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="81">
-      <c r="A1" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="243">
-      <c r="A3" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="162">
-      <c r="A6" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="23" t="s">
-        <v>386</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>43920</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>43921</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>43922</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43923</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4">
+        <v>13.4</v>
+      </c>
+      <c r="F4">
+        <v>14.12</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>43923</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43924</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F5">
+        <v>19.79</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" ref="G5:G28" si="0">(F5-E5)/E5</f>
+        <v>0.10558659217877099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>43923</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43924</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14.73</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>-6.4761904761904729E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>43924</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43928</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7">
+        <v>15.1</v>
+      </c>
+      <c r="F7">
+        <v>16.03</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>6.1589403973510037E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>43928</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43930</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8">
+        <v>11.7</v>
+      </c>
+      <c r="F8">
+        <v>12.7</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>8.5470085470085472E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>43928</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43929</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9">
+        <v>62.85</v>
+      </c>
+      <c r="F9">
+        <v>68.89</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>9.6101829753381052E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43930</v>
+      </c>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10">
+        <v>20.5</v>
+      </c>
+      <c r="F10">
+        <v>20.14</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.7560975609756072E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="8">
+        <v>43930</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11">
+        <v>14.7</v>
+      </c>
+      <c r="F11">
+        <v>15.3</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>4.0816326530612346E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="8">
+        <v>43930</v>
+      </c>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12">
+        <v>7.9</v>
+      </c>
+      <c r="F12">
+        <v>8.48</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>7.3417721518987344E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43930</v>
+      </c>
+      <c r="D13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13">
+        <v>20.6</v>
+      </c>
+      <c r="F13">
+        <v>20.6</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="8">
+        <v>43931</v>
+      </c>
+      <c r="D14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14">
+        <v>12.19</v>
+      </c>
+      <c r="F14">
+        <v>13.15</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>7.8753076292042729E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>43930</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43931</v>
+      </c>
+      <c r="D15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15">
+        <v>3.87</v>
+      </c>
+      <c r="F15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>5.9431524547803496E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>43930</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="8">
+        <v>43931</v>
+      </c>
+      <c r="D16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16">
+        <v>24.72</v>
+      </c>
+      <c r="F16">
+        <v>25.51</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>3.195792880258911E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="E17">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F17">
+        <v>12.9</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.28358208955223874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>11.9</v>
+      </c>
+      <c r="F18">
+        <v>12.8</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5630252100840359E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>26.65</v>
+      </c>
+      <c r="F19">
+        <v>30.9</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15947467166979362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>16.75</v>
+      </c>
+      <c r="F20">
+        <v>22.08</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.31820895522388049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>6.4</v>
+      </c>
+      <c r="F21">
+        <v>7.8</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.21874999999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>9.07</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.21278941565600878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>14.2</v>
+      </c>
+      <c r="F23">
+        <v>16.04</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12957746478873239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>12.9</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>14.2</v>
+      </c>
+      <c r="F25">
+        <v>15.2</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="0"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>15.2</v>
+      </c>
+      <c r="F26">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="0"/>
+        <v>7.8947368421052586E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>72.2</v>
+      </c>
+      <c r="F27">
+        <v>89</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.23268698060941823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>11.35</v>
+      </c>
+      <c r="F28">
+        <v>15.3</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.34801762114537454</v>
       </c>
     </row>
   </sheetData>
@@ -6338,52 +6680,107 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="67.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="243" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="162" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="256.5">
-      <c r="A2" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
+    <row r="2" spans="1:1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="148.5">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:1" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="15"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="15"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="15"/>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/股票池/股票池.xlsx
+++ b/股票池/股票池.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5098D4-389F-4636-A243-ABE936427544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E2F379-E19B-4E51-BB4F-B7C310959104}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="筹码股票池" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="选股条件" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">筹码股票池!$A$1:$M$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">筹码股票池!$A$1:$M$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="408">
   <si>
     <t xml:space="preserve">  代码</t>
   </si>
@@ -1034,10 +1034,6 @@
   </si>
   <si>
     <t>开开实业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月21日涨停 今日高开收红 非st 非创业 非科创 非新股</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1454,10 +1450,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>四方股份</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1490,23 +1482,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>不满足要求</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>来伊份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1588,6 +1568,30 @@
   </si>
   <si>
     <t>3买形成中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月6日涨停 5月7日高开收红或者一字板 非st 非创业 非科创 非新股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大康农业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉升</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH002505</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5分钟中枢震荡</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2742,10 +2746,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B117" sqref="B117:H128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:N135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2803,7 +2807,7 @@
         <v>229</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
@@ -4859,7 +4863,7 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="H78" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L78" s="2">
         <v>20200414</v>
@@ -4870,7 +4874,7 @@
     </row>
     <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>241</v>
@@ -4893,7 +4897,7 @@
     </row>
     <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>242</v>
@@ -4916,7 +4920,7 @@
     </row>
     <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>243</v>
@@ -4939,7 +4943,7 @@
     </row>
     <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>251</v>
@@ -4956,7 +4960,7 @@
     </row>
     <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>252</v>
@@ -4973,7 +4977,7 @@
     </row>
     <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>245</v>
@@ -4990,7 +4994,7 @@
     </row>
     <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>215</v>
@@ -5007,7 +5011,7 @@
     </row>
     <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>248</v>
@@ -5024,7 +5028,7 @@
     </row>
     <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>246</v>
@@ -5058,7 +5062,7 @@
     </row>
     <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>249</v>
@@ -5075,7 +5079,7 @@
     </row>
     <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>253</v>
@@ -5099,7 +5103,7 @@
     </row>
     <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>255</v>
@@ -5110,10 +5114,10 @@
     </row>
     <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H93" s="14" t="s">
         <v>244</v>
@@ -5127,7 +5131,7 @@
     </row>
     <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>257</v>
@@ -5138,7 +5142,7 @@
     </row>
     <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>258</v>
@@ -5149,7 +5153,7 @@
     </row>
     <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>259</v>
@@ -5184,13 +5188,13 @@
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L98" s="14">
         <v>20200417</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
@@ -5212,10 +5216,10 @@
     </row>
     <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H100" s="14" t="s">
         <v>234</v>
@@ -5229,10 +5233,10 @@
     </row>
     <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H101" s="14" t="s">
         <v>272</v>
@@ -5246,13 +5250,13 @@
     </row>
     <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L102" s="14">
         <v>20200419</v>
@@ -5263,10 +5267,10 @@
     </row>
     <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H103" s="14" t="s">
         <v>234</v>
@@ -5280,13 +5284,13 @@
     </row>
     <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>286</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L104" s="14">
         <v>20200419</v>
@@ -5295,15 +5299,15 @@
         <v>228</v>
       </c>
       <c r="N104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>277</v>
@@ -5317,10 +5321,10 @@
     </row>
     <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>244</v>
@@ -5332,12 +5336,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="20" t="s">
         <v>273</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -5345,7 +5349,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="I107" s="24"/>
       <c r="J107" s="20"/>
@@ -5366,7 +5370,7 @@
         <v>280</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L108" s="14">
         <v>20200420</v>
@@ -5377,10 +5381,10 @@
     </row>
     <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H109" s="14" t="s">
         <v>234</v>
@@ -5394,7 +5398,7 @@
     </row>
     <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>281</v>
@@ -5411,7 +5415,7 @@
     </row>
     <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>282</v>
@@ -5428,7 +5432,7 @@
     </row>
     <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>283</v>
@@ -5445,7 +5449,7 @@
     </row>
     <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>284</v>
@@ -5462,7 +5466,7 @@
     </row>
     <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>285</v>
@@ -5477,12 +5481,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
@@ -5490,7 +5494,7 @@
       <c r="F115" s="25"/>
       <c r="G115" s="20"/>
       <c r="H115" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I115" s="26"/>
       <c r="J115" s="25"/>
@@ -5505,13 +5509,13 @@
     </row>
     <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L116" s="14">
         <v>20200421</v>
@@ -5520,12 +5524,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C117" s="27"/>
       <c r="D117" s="27"/>
@@ -5533,7 +5537,7 @@
       <c r="F117" s="27"/>
       <c r="G117" s="20"/>
       <c r="H117" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I117" s="28"/>
       <c r="J117" s="27"/>
@@ -5548,14 +5552,14 @@
     </row>
     <row r="118" spans="1:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G118" s="15"/>
       <c r="H118" s="15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I118" s="18"/>
       <c r="L118" s="17">
@@ -5565,18 +5569,18 @@
         <v>228</v>
       </c>
       <c r="N118" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L119" s="15">
         <v>20200422</v>
@@ -5587,10 +5591,10 @@
     </row>
     <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="H120" s="15" t="s">
         <v>230</v>
@@ -5602,20 +5606,20 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C121" s="27"/>
       <c r="D121" s="27"/>
       <c r="E121" s="27"/>
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
-      <c r="H121" s="27" t="s">
-        <v>370</v>
+      <c r="H121" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="I121" s="27"/>
       <c r="J121" s="27"/>
@@ -5627,15 +5631,15 @@
         <v>228</v>
       </c>
       <c r="N121" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -5643,7 +5647,7 @@
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
       <c r="H122" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
@@ -5656,20 +5660,20 @@
       </c>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C123" s="27"/>
       <c r="D123" s="27"/>
       <c r="E123" s="27"/>
       <c r="F123" s="27"/>
       <c r="G123" s="27"/>
-      <c r="H123" s="27" t="s">
-        <v>382</v>
+      <c r="H123" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="I123" s="27"/>
       <c r="J123" s="27"/>
@@ -5684,13 +5688,13 @@
     </row>
     <row r="124" spans="1:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L124" s="17">
         <v>20200423</v>
@@ -5699,15 +5703,15 @@
         <v>228</v>
       </c>
       <c r="N124" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -5715,7 +5719,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
@@ -5730,10 +5734,10 @@
     </row>
     <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -5741,7 +5745,7 @@
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
@@ -5754,20 +5758,20 @@
       </c>
       <c r="N126" s="17"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C127" s="27"/>
       <c r="D127" s="27"/>
       <c r="E127" s="27"/>
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
-      <c r="H127" s="27" t="s">
-        <v>383</v>
+      <c r="H127" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="I127" s="27"/>
       <c r="J127" s="27"/>
@@ -5780,20 +5784,20 @@
       </c>
       <c r="N127" s="27"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B128" s="27" t="s">
         <v>299</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>300</v>
       </c>
       <c r="C128" s="27"/>
       <c r="D128" s="27"/>
       <c r="E128" s="27"/>
       <c r="F128" s="27"/>
       <c r="G128" s="27"/>
-      <c r="H128" s="27" t="s">
-        <v>370</v>
+      <c r="H128" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="I128" s="27"/>
       <c r="J128" s="27"/>
@@ -5805,15 +5809,15 @@
         <v>228</v>
       </c>
       <c r="N128" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -5821,7 +5825,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
       <c r="H129" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
@@ -5836,10 +5840,10 @@
     </row>
     <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -5847,7 +5851,7 @@
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
       <c r="H130" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
@@ -5862,10 +5866,10 @@
     </row>
     <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -5888,27 +5892,27 @@
     </row>
     <row r="132" spans="1:14" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L132" s="17">
         <v>20200424</v>
       </c>
       <c r="M132" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C133" s="27"/>
       <c r="D133" s="27"/>
@@ -5931,20 +5935,38 @@
     </row>
     <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L134" s="17">
         <v>20200425</v>
       </c>
     </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A135" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="H135" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="L135" s="27">
+        <v>20200507</v>
+      </c>
+      <c r="M135" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="N135" s="20"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M134" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:M135" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7">
       <filters>
         <filter val="（拉升）洗盘"/>
@@ -5962,8 +5984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B661F-48EC-4798-A0BB-6F73C0C238E9}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="B9:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5985,143 +6007,143 @@
         <v>229</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C2" s="15">
         <v>20200506</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C3" s="15">
         <v>20200506</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C4" s="15">
         <v>20200506</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>406</v>
+      <c r="D4" t="s">
+        <v>407</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C5" s="15">
         <v>20200506</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C6" s="15">
         <v>20200506</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C7" s="15">
         <v>20200506</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C8" s="15">
         <v>20200506</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C9" s="15">
         <v>20200506</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -6684,7 +6706,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6704,7 +6726,7 @@
     </row>
     <row r="3" spans="1:1" ht="243" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
@@ -6714,17 +6736,17 @@
     </row>
     <row r="6" spans="1:1" ht="162" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>287</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -6754,7 +6776,7 @@
     </row>
     <row r="2" spans="1:1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
@@ -6764,7 +6786,7 @@
     </row>
     <row r="6" spans="1:1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
